--- a/Data/UCT AST9AH Measurements and Observations.xlsx
+++ b/Data/UCT AST9AH Measurements and Observations.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud.sharepoint.com/sites/PolarPowerSupplyProject/Shared Documents/General/Experiments/AST9AH/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud.sharepoint.com/sites/PolarPowerSupplyProject/Shared Documents/General/Experiments/SISPS-AST9AH-EIS/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="13_ncr:1_{90C35BE5-2C2B-B846-BB04-5AF570ABE74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DDEC71F-8BA7-674B-A8CA-6B3F0B0E061A}"/>
+  <xr:revisionPtr revIDLastSave="766" documentId="13_ncr:1_{90C35BE5-2C2B-B846-BB04-5AF570ABE74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{719BB034-DCB5-174A-855C-0BB091ECC81B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{2D714440-C168-0944-94A3-C5B7A6F22ECE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{2D714440-C168-0944-94A3-C5B7A6F22ECE}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="344">
   <si>
     <t>March 2024</t>
   </si>
@@ -830,13 +831,286 @@
   </si>
   <si>
     <t>Nominal. Battery appears recovered despite freezing prior,</t>
+  </si>
+  <si>
+    <t>B01-B08 placed at -40°C in ETC from Friday 10 May at ±15:00 and left over weekend until begin of work on 13 May 12:00. Then transferred into chest freezer. Initial temperature measured with accompaning EthGly solution.</t>
+  </si>
+  <si>
+    <t>Added fan to cool room.</t>
+  </si>
+  <si>
+    <t>B09-B10 placed at -30°C in chest freezer from 10 May 15:00 until 13 May 12:00 before swap into ETC. Remained in unit until B01-B08 returned to ETC for overnight -30°C setpoint.</t>
+  </si>
+  <si>
+    <t>Initial measurement failed - program hanged withou submitting all data. Repeated measurement with success.</t>
+  </si>
+  <si>
+    <t>Anominly. Presumed cable fell down from bench while measurement occurred. Measurement repeated later after B08. Some curves cfaield with erranous data points. Repeated measurements (stopping some early) but no single spectra was clean. Accepted manual processing of final spectra discarding 5Hz.</t>
+  </si>
+  <si>
+    <t>Between B01 and B08</t>
+  </si>
+  <si>
+    <t>Between B01 and B06</t>
+  </si>
+  <si>
+    <t>Batteries left in ETC overnight, no anomilies. Eth Glyol measurement taken upon opening, folloiwing which all samples and Eth Glycol transferred to chest freezer.</t>
+  </si>
+  <si>
+    <t>All batteries moved back to ETC for -20°C setpoint at 10:10 following abandonment of B09.</t>
+  </si>
+  <si>
+    <t>UCT_AST_B01_-40</t>
+  </si>
+  <si>
+    <t>UCT_AST_B02_-40</t>
+  </si>
+  <si>
+    <t>UCT_AST_B03_-40</t>
+  </si>
+  <si>
+    <t>UCT_AST_B04_-40</t>
+  </si>
+  <si>
+    <t>UCT_AST_B05_-40</t>
+  </si>
+  <si>
+    <t>UCT_AST_B06_-40</t>
+  </si>
+  <si>
+    <t>UCT_AST_B07_-40</t>
+  </si>
+  <si>
+    <t>UCT_AST_B08_-40</t>
+  </si>
+  <si>
+    <t>UCT_AST_B01_-30</t>
+  </si>
+  <si>
+    <t>UCT_AST_B02_-30</t>
+  </si>
+  <si>
+    <t>UCT_AST_B03_-30</t>
+  </si>
+  <si>
+    <t>UCT_AST_B04_-30</t>
+  </si>
+  <si>
+    <t>UCT_AST_B05_-30</t>
+  </si>
+  <si>
+    <t>UCT_AST_B06_-30</t>
+  </si>
+  <si>
+    <t>UCT_AST_B07_-30</t>
+  </si>
+  <si>
+    <t>UCT_AST_B08_-30</t>
+  </si>
+  <si>
+    <t>Measurement failed due to minimum voltage threshold. A cell appears to be collapsing. Attempted to adjust program without success. Probed terminal with multimeter but voltage holds near 11V5, without noticable drop when test program ran. After 20min the measurement was abandoned. Ran B02X afterwards  (UCT_AST_B02X_-30) with success, elimating any possible issue with EIS instrument.</t>
+  </si>
+  <si>
+    <t>Between B01 and B09</t>
+  </si>
+  <si>
+    <t>Reduced program limits to 5Hz-3kHz.
+Nominal</t>
+  </si>
+  <si>
+    <t>Measurement finished but 4x errenous data pints. Can be corrected but re-ran test, citing issue with the instrument and otherwise valid curve. Re-run produced similar error at ±100Hz but otherwise improved.</t>
+  </si>
+  <si>
+    <t>All batteries moved from ETC to chest freezer at point of Eth Glycol measurement and start of B01.
+Weather mildly humid - noticable ice formation on all battery terminals while under EIS.</t>
+  </si>
+  <si>
+    <t>Noninal - continous curve unlike A10</t>
+  </si>
+  <si>
+    <t>Between B01 and B07</t>
+  </si>
+  <si>
+    <t>Between B01 and B10</t>
+  </si>
+  <si>
+    <t>Batteries transferred back to ETC following B10 EIS.</t>
+  </si>
+  <si>
+    <t>Batteries moved from ETC to chest freezer simultanious with start of B01 and Eth Glycol reading.
+Freezer was set to -15°C, for unknown reasons. Adjusted setpoint to -8°C, shocked freezer by opening door, and observed stabilisation near -10°C after batteries transferred. Intervention regarded as successful in rapidly changing temperature to -10°C. Setpoint later resumed to -10°C.</t>
+  </si>
+  <si>
+    <t>Double errenous readings in LF range. Elected to repeat EIS measurement. Second successful except for single error data point near 50Hz.
+Observations suggestmains power noise issue.</t>
+  </si>
+  <si>
+    <t>B01-B06 transferred to ETC (set to 0°C before being unpowered after transfer) due to limited settling time available before 0°C tests. B07-B09 will be returned to chest freezer at -10°C howevr until B10 is complete.</t>
+  </si>
+  <si>
+    <t>Chest freeze emptied with B06-B09 transferred. EIS remains unpowered pending B10.
+Chest freezer set to -5°C (maximum range of operation) and shocked with warm wair to heat up. Expect negative tending trift with 0°C tests.</t>
+  </si>
+  <si>
+    <t>UCT_AST_B01_-10</t>
+  </si>
+  <si>
+    <t>UCT_AST_B02_-10</t>
+  </si>
+  <si>
+    <t>UCT_AST_B03_-10</t>
+  </si>
+  <si>
+    <t>UCT_AST_B04_-10</t>
+  </si>
+  <si>
+    <t>UCT_AST_B05_-10</t>
+  </si>
+  <si>
+    <t>UCT_AST_B06_-10</t>
+  </si>
+  <si>
+    <t>UCT_AST_B07_-10</t>
+  </si>
+  <si>
+    <t>UCT_AST_B08_-10</t>
+  </si>
+  <si>
+    <t>UCT_AST_B09_-10</t>
+  </si>
+  <si>
+    <t>UCT_AST_B10_-10</t>
+  </si>
+  <si>
+    <t>Minimum chest freezer temperature is -5°C and prine to low swings. Elected to threefore use ETC as storage unit through EIS measurements, accepting upwards drift.</t>
+  </si>
+  <si>
+    <t>Sharp resonance in resistive axis in HF range.</t>
+  </si>
+  <si>
+    <t>Similar resonance as B02 but less extreme.</t>
+  </si>
+  <si>
+    <t>Eth Glycol taken as B06 removed.</t>
+  </si>
+  <si>
+    <t>Minor resonance point near 3kHz</t>
+  </si>
+  <si>
+    <t>Point of inflection in LF lobe.</t>
+  </si>
+  <si>
+    <t>All batteries in water bath. Began B01 at RT immediately after B10 at 0°C</t>
+  </si>
+  <si>
+    <t>Accedentially ran B02X instead of B02. Corrected error in EIS comment. B02 ran after B05.</t>
+  </si>
+  <si>
+    <t>UCT_AST_B01_+00</t>
+  </si>
+  <si>
+    <t>UCT_AST_B02_+00</t>
+  </si>
+  <si>
+    <t>UCT_AST_B03_+00</t>
+  </si>
+  <si>
+    <t>UCT_AST_B04_+00</t>
+  </si>
+  <si>
+    <t>UCT_AST_B05_+00</t>
+  </si>
+  <si>
+    <t>UCT_AST_B06_+00</t>
+  </si>
+  <si>
+    <t>UCT_AST_B07_+00</t>
+  </si>
+  <si>
+    <t>UCT_AST_B08_+00</t>
+  </si>
+  <si>
+    <t>UCT_AST_B09_+00</t>
+  </si>
+  <si>
+    <t>UCT_AST_B10_+00</t>
+  </si>
+  <si>
+    <t>UCT_AST_B01_+RT2</t>
+  </si>
+  <si>
+    <t>UCT_AST_B02_+RT2</t>
+  </si>
+  <si>
+    <t>UCT_AST_B05_+RT2</t>
+  </si>
+  <si>
+    <t>UCT_AST_B04_+RT2</t>
+  </si>
+  <si>
+    <t>UCT_AST_B03_+RT2</t>
+  </si>
+  <si>
+    <t>UCT_AST_B06_+RT2</t>
+  </si>
+  <si>
+    <t>UCT_AST_B07_+RT2</t>
+  </si>
+  <si>
+    <t>UCT_AST_B08_+RT2</t>
+  </si>
+  <si>
+    <t>UCT_AST_B09_+RT2</t>
+  </si>
+  <si>
+    <t>UCT_AST_B10_+RT2</t>
+  </si>
+  <si>
+    <t>1 errenous data point in LF range.</t>
+  </si>
+  <si>
+    <t>HF range extremely polytomic.</t>
+  </si>
+  <si>
+    <t>Estimated SoC</t>
+  </si>
+  <si>
+    <t>OCV</t>
+  </si>
+  <si>
+    <t>11v5 appeared initially</t>
+  </si>
+  <si>
+    <t>B01-B08 Eth Glycol</t>
+  </si>
+  <si>
+    <t>Batteries dried and staged as prior completes EIS.
+After EIS B01-B08 placed back at -20°C for OCV test next morning on 16May. B01-B03 then placed in water bath to heat up (all else brought up in air).</t>
+  </si>
+  <si>
+    <t>Placed momentrily in water bath but removed when audible noise heard.</t>
+  </si>
+  <si>
+    <t>Failed EIS measurement repeatedly. Errenous points follow an (illogical) pattern, indicating issue in DSP.
+Eventually moved on to B10. B10 produced a successful result (after a 2nd attempt). B09 then attempted again and finally produced a nominal result.</t>
+  </si>
+  <si>
+    <t>First measurement failed. Repeated EIS test and found nominal result.
+Slight cresting (nominal feature).</t>
+  </si>
+  <si>
+    <t>Batteries B01-B08 placed back in ETC @ -20°C overnight for morning OCV test.
+B09, B10 left out for morning EIS.</t>
+  </si>
+  <si>
+    <t>B09-B10 Eth Glycol</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="17">
+  <numFmts count="18">
     <numFmt numFmtId="164" formatCode="0&quot;kg&quot;"/>
     <numFmt numFmtId="165" formatCode="0&quot;A&quot;"/>
     <numFmt numFmtId="166" formatCode="0&quot;V&quot;"/>
@@ -854,6 +1128,7 @@
     <numFmt numFmtId="178" formatCode="0.000"/>
     <numFmt numFmtId="179" formatCode="0.0&quot;°C&quot;"/>
     <numFmt numFmtId="180" formatCode="0.00&quot;sg&quot;"/>
+    <numFmt numFmtId="182" formatCode="00.00&quot;V&quot;"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1504,7 +1779,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1715,6 +1990,22 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="4" borderId="33" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="5" fillId="5" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1722,22 +2013,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="173" fontId="4" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="4" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="5" fillId="5" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
@@ -1751,22 +2029,6 @@
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1808,6 +2070,22 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1840,8 +2118,992 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HR12-9 OCV vs SoC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> at -20°C</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OCV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73333333333333328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.53333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>00.00"V"</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9792-9E46-A53C-5A1881B26040}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1029011727"/>
+        <c:axId val="1058411247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1029011727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1058411247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1058411247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="00.00&quot;V&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1029011727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F61208-CB05-C542-9B5E-633A6CDE950B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2109,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3482702-7117-A44F-801D-5A642D2CA644}">
   <dimension ref="A1:O385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" zoomScale="86" workbookViewId="0">
-      <selection activeCell="K236" sqref="K236"/>
+    <sheetView topLeftCell="G222" zoomScale="86" workbookViewId="0">
+      <selection activeCell="L245" sqref="L245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3391,10 +4653,10 @@
       <c r="F78" s="76">
         <v>8</v>
       </c>
-      <c r="G78" s="147" t="s">
+      <c r="G78" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="H78" s="148" t="s">
+      <c r="H78" s="145" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3435,11 +4697,11 @@
       <c r="C80" s="36">
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="D80" s="149">
+      <c r="D80" s="93">
         <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="E80" s="150">
+      <c r="E80" s="38">
         <f t="shared" si="6"/>
         <v>0.93333333333333335</v>
       </c>
@@ -3461,11 +4723,11 @@
       <c r="C81" s="36">
         <v>5.5555555555555601E-2</v>
       </c>
-      <c r="D81" s="149">
+      <c r="D81" s="93">
         <f t="shared" si="5"/>
         <v>80</v>
       </c>
-      <c r="E81" s="150">
+      <c r="E81" s="38">
         <f t="shared" si="6"/>
         <v>0.8666666666666667</v>
       </c>
@@ -3487,11 +4749,11 @@
       <c r="C82" s="36">
         <v>8.3333333333333301E-2</v>
       </c>
-      <c r="D82" s="149">
+      <c r="D82" s="93">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="E82" s="150">
+      <c r="E82" s="38">
         <f t="shared" si="6"/>
         <v>0.8</v>
       </c>
@@ -3513,11 +4775,11 @@
       <c r="C83" s="36">
         <v>0.11111111111111099</v>
       </c>
-      <c r="D83" s="149">
+      <c r="D83" s="93">
         <f t="shared" si="5"/>
         <v>160</v>
       </c>
-      <c r="E83" s="150">
+      <c r="E83" s="38">
         <f t="shared" si="6"/>
         <v>0.73333333333333328</v>
       </c>
@@ -3539,11 +4801,11 @@
       <c r="C84" s="36">
         <v>0.13888888888888901</v>
       </c>
-      <c r="D84" s="149">
+      <c r="D84" s="93">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="E84" s="150">
+      <c r="E84" s="38">
         <f t="shared" si="6"/>
         <v>0.66666666666666663</v>
       </c>
@@ -3562,11 +4824,11 @@
       <c r="C85" s="36">
         <v>0.16666666666666699</v>
       </c>
-      <c r="D85" s="149">
+      <c r="D85" s="93">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="E85" s="150">
+      <c r="E85" s="38">
         <f t="shared" si="6"/>
         <v>0.60000000000000009</v>
       </c>
@@ -3585,11 +4847,11 @@
       <c r="C86" s="36">
         <v>0.194444444444444</v>
       </c>
-      <c r="D86" s="149">
+      <c r="D86" s="93">
         <f t="shared" si="5"/>
         <v>280</v>
       </c>
-      <c r="E86" s="150">
+      <c r="E86" s="38">
         <f t="shared" si="6"/>
         <v>0.53333333333333333</v>
       </c>
@@ -3608,11 +4870,11 @@
       <c r="C87" s="36">
         <v>0.22222222222222199</v>
       </c>
-      <c r="D87" s="149">
+      <c r="D87" s="93">
         <f t="shared" si="5"/>
         <v>320</v>
       </c>
-      <c r="E87" s="150">
+      <c r="E87" s="38">
         <f t="shared" si="6"/>
         <v>0.46666666666666667</v>
       </c>
@@ -3764,7 +5026,7 @@
       <c r="K105" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L105" s="156" t="s">
+      <c r="L105" s="151" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3776,13 +5038,13 @@
       <c r="B106" s="72">
         <v>25</v>
       </c>
-      <c r="C106" s="154">
+      <c r="C106" s="149">
         <f t="shared" ref="C106:C113" si="9">$C$61+C69</f>
         <v>45355.479166666664</v>
       </c>
       <c r="D106" s="120"/>
-      <c r="E106" s="151"/>
-      <c r="F106" s="153"/>
+      <c r="E106" s="146"/>
+      <c r="F106" s="148"/>
       <c r="G106" s="124">
         <v>25</v>
       </c>
@@ -3796,7 +5058,7 @@
       <c r="K106" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="L106" s="155" t="s">
+      <c r="L106" s="150" t="s">
         <v>253</v>
       </c>
       <c r="N106"/>
@@ -4599,7 +5861,7 @@
       <c r="K135" s="131"/>
       <c r="L135" s="132"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="52" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B01</v>
@@ -4608,15 +5870,35 @@
         <v>-40</v>
       </c>
       <c r="C136" s="67"/>
-      <c r="D136" s="120"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="49"/>
-      <c r="G136" s="124"/>
-      <c r="H136" s="124"/>
-      <c r="I136" s="49"/>
-      <c r="J136" s="49"/>
-      <c r="K136" s="125"/>
-      <c r="L136" s="134"/>
+      <c r="D136" s="120">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="E136" s="146">
+        <v>0.5</v>
+      </c>
+      <c r="F136" s="152" t="s">
+        <v>262</v>
+      </c>
+      <c r="G136" s="124">
+        <f>$D$136</f>
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="H136" s="124">
+        <f>$D$141</f>
+        <v>-30.9</v>
+      </c>
+      <c r="I136" s="146">
+        <v>0.5</v>
+      </c>
+      <c r="J136" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="K136" s="125" t="s">
+        <v>150</v>
+      </c>
+      <c r="L136" s="134" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="31" t="str">
@@ -4629,11 +5911,23 @@
       <c r="C137" s="68"/>
       <c r="D137" s="117"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="123"/>
-      <c r="H137" s="123"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
+      <c r="F137" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="G137" s="124">
+        <f t="shared" ref="G137:G139" si="15">$D$136</f>
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="H137" s="124">
+        <f t="shared" ref="H137:H139" si="16">$D$141</f>
+        <v>-30.9</v>
+      </c>
+      <c r="I137" s="122">
+        <v>0.5083333333333333</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="K137" s="121"/>
       <c r="L137" s="112"/>
     </row>
@@ -4648,15 +5942,27 @@
       <c r="C138" s="68"/>
       <c r="D138" s="117"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="123"/>
-      <c r="H138" s="123"/>
-      <c r="I138" s="9"/>
-      <c r="J138" s="9"/>
+      <c r="F138" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="G138" s="124">
+        <f t="shared" si="15"/>
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="H138" s="124">
+        <f t="shared" si="16"/>
+        <v>-30.9</v>
+      </c>
+      <c r="I138" s="122">
+        <v>0.51597222222222228</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>267</v>
+      </c>
       <c r="K138" s="121"/>
       <c r="L138" s="112"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B04</v>
@@ -4667,15 +5973,29 @@
       <c r="C139" s="68"/>
       <c r="D139" s="117"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="123"/>
-      <c r="H139" s="123"/>
-      <c r="I139" s="9"/>
-      <c r="J139" s="9"/>
+      <c r="F139" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="G139" s="124">
+        <f t="shared" si="15"/>
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="H139" s="124">
+        <f t="shared" si="16"/>
+        <v>-30.9</v>
+      </c>
+      <c r="I139" s="122">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="J139" s="9" t="s">
+        <v>268</v>
+      </c>
       <c r="K139" s="121"/>
-      <c r="L139" s="112"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L139" s="112" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A140" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B05</v>
@@ -4686,12 +6006,26 @@
       <c r="C140" s="68"/>
       <c r="D140" s="117"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="123"/>
-      <c r="H140" s="123"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="9"/>
-      <c r="K140" s="121"/>
+      <c r="F140" s="135" t="s">
+        <v>261</v>
+      </c>
+      <c r="G140" s="123">
+        <f>$D$136</f>
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="H140" s="123">
+        <f>$D$143</f>
+        <v>-28.6</v>
+      </c>
+      <c r="I140" s="122">
+        <v>0.58125000000000004</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K140" s="121" t="s">
+        <v>260</v>
+      </c>
       <c r="L140" s="112"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4703,17 +6037,33 @@
         <v>-40</v>
       </c>
       <c r="C141" s="68"/>
-      <c r="D141" s="117"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="123"/>
-      <c r="H141" s="123"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
+      <c r="D141" s="117">
+        <v>-30.9</v>
+      </c>
+      <c r="E141" s="122">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G141" s="123">
+        <f>$D$136</f>
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="H141" s="123">
+        <f>$D$143</f>
+        <v>-28.6</v>
+      </c>
+      <c r="I141" s="122">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="J141" s="9" t="s">
+        <v>270</v>
+      </c>
       <c r="K141" s="121"/>
       <c r="L141" s="112"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B07</v>
@@ -4724,12 +6074,26 @@
       <c r="C142" s="68"/>
       <c r="D142" s="117"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="123"/>
-      <c r="H142" s="123"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="121"/>
+      <c r="F142" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G142" s="123">
+        <f t="shared" ref="G142:G143" si="17">$D$136</f>
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="H142" s="123">
+        <f t="shared" ref="H142:H143" si="18">$D$143</f>
+        <v>-28.6</v>
+      </c>
+      <c r="I142" s="122">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="K142" s="121" t="s">
+        <v>259</v>
+      </c>
       <c r="L142" s="112"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -4741,17 +6105,33 @@
         <v>-40</v>
       </c>
       <c r="C143" s="68"/>
-      <c r="D143" s="117"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="123"/>
-      <c r="H143" s="123"/>
-      <c r="I143" s="9"/>
-      <c r="J143" s="9"/>
+      <c r="D143" s="117">
+        <v>-28.6</v>
+      </c>
+      <c r="E143" s="122">
+        <v>0.5625</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G143" s="123">
+        <f t="shared" si="17"/>
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="H143" s="123">
+        <f t="shared" si="18"/>
+        <v>-28.6</v>
+      </c>
+      <c r="I143" s="122">
+        <v>0.5625</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>272</v>
+      </c>
       <c r="K143" s="121"/>
       <c r="L143" s="112"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A144" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B09</v>
@@ -4765,12 +6145,16 @@
       <c r="F144" s="9"/>
       <c r="G144" s="123"/>
       <c r="H144" s="123"/>
-      <c r="I144" s="9"/>
+      <c r="I144" s="122"/>
       <c r="J144" s="9"/>
-      <c r="K144" s="121"/>
-      <c r="L144" s="112"/>
-    </row>
-    <row r="145" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K144" s="121" t="s">
+        <v>135</v>
+      </c>
+      <c r="L144" s="112" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="33" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B10</v>
@@ -4786,7 +6170,9 @@
       <c r="H145" s="130"/>
       <c r="I145" s="16"/>
       <c r="J145" s="16"/>
-      <c r="K145" s="131"/>
+      <c r="K145" s="131" t="s">
+        <v>135</v>
+      </c>
       <c r="L145" s="132"/>
     </row>
     <row r="146" spans="1:12" ht="102" x14ac:dyDescent="0.2">
@@ -4839,7 +6225,7 @@
         <v>-30</v>
       </c>
       <c r="C147" s="68">
-        <f t="shared" ref="C147:C154" si="15">C146+$C$101</f>
+        <f t="shared" ref="C147:C153" si="19">C146+$C$101</f>
         <v>45356.652777777781</v>
       </c>
       <c r="D147" s="117"/>
@@ -4876,21 +6262,21 @@
         <v>-30</v>
       </c>
       <c r="C148" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>45356.659722222226</v>
       </c>
       <c r="D148" s="117"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9" t="str">
-        <f t="shared" ref="F148:F151" si="16">$F$146</f>
+        <f t="shared" ref="F148:F151" si="20">$F$146</f>
         <v>Between A01 and A06</v>
       </c>
       <c r="G148" s="123">
-        <f t="shared" ref="G148:G154" si="17">$D$146</f>
+        <f t="shared" ref="G148:G154" si="21">$D$146</f>
         <v>-34.299999999999997</v>
       </c>
       <c r="H148" s="123">
-        <f t="shared" ref="H148:H151" si="18">$D$151</f>
+        <f t="shared" ref="H148:H151" si="22">$D$151</f>
         <v>-29</v>
       </c>
       <c r="I148" s="122">
@@ -4915,21 +6301,21 @@
         <v>-30</v>
       </c>
       <c r="C149" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>45356.666666666672</v>
       </c>
       <c r="D149" s="117"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Between A01 and A06</v>
       </c>
       <c r="G149" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-34.299999999999997</v>
       </c>
       <c r="H149" s="123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-29</v>
       </c>
       <c r="I149" s="122">
@@ -4952,21 +6338,21 @@
         <v>-30</v>
       </c>
       <c r="C150" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>45356.673611111117</v>
       </c>
       <c r="D150" s="117"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Between A01 and A06</v>
       </c>
       <c r="G150" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-34.299999999999997</v>
       </c>
       <c r="H150" s="123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-29</v>
       </c>
       <c r="I150" s="122">
@@ -4989,7 +6375,7 @@
         <v>-30</v>
       </c>
       <c r="C151" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>45356.680555555562</v>
       </c>
       <c r="D151" s="117">
@@ -4999,15 +6385,15 @@
         <v>0.68611111111111112</v>
       </c>
       <c r="F151" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Between A01 and A06</v>
       </c>
       <c r="G151" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-34.299999999999997</v>
       </c>
       <c r="H151" s="123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-29</v>
       </c>
       <c r="I151" s="122">
@@ -5032,7 +6418,7 @@
         <v>-30</v>
       </c>
       <c r="C152" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>45356.687500000007</v>
       </c>
       <c r="D152" s="117"/>
@@ -5041,7 +6427,7 @@
         <v>168</v>
       </c>
       <c r="G152" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-34.299999999999997</v>
       </c>
       <c r="H152" s="123">
@@ -5068,7 +6454,7 @@
         <v>-30</v>
       </c>
       <c r="C153" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>45356.694444444453</v>
       </c>
       <c r="D153" s="117"/>
@@ -5078,11 +6464,11 @@
         <v>Between A01 and A09</v>
       </c>
       <c r="G153" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-34.299999999999997</v>
       </c>
       <c r="H153" s="123">
-        <f t="shared" ref="H153:H154" si="19">$D$154</f>
+        <f t="shared" ref="H153:H154" si="23">$D$154</f>
         <v>-27</v>
       </c>
       <c r="I153" s="122">
@@ -5105,7 +6491,7 @@
         <v>-30</v>
       </c>
       <c r="C154" s="68">
-        <f t="shared" si="15"/>
+        <f>C153+$C$101</f>
         <v>45356.701388888898</v>
       </c>
       <c r="D154" s="117">
@@ -5119,11 +6505,11 @@
         <v>Between A01 and A09</v>
       </c>
       <c r="G154" s="123">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>-34.299999999999997</v>
       </c>
       <c r="H154" s="123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>-27</v>
       </c>
       <c r="I154" s="122">
@@ -5158,7 +6544,7 @@
       <c r="K155" s="127"/>
       <c r="L155" s="133"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" s="59" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A156" s="29" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B01</v>
@@ -5166,18 +6552,40 @@
       <c r="B156" s="73">
         <v>-30</v>
       </c>
-      <c r="C156" s="77"/>
-      <c r="D156" s="116"/>
-      <c r="E156" s="22"/>
-      <c r="F156" s="22"/>
-      <c r="G156" s="128"/>
-      <c r="H156" s="128"/>
-      <c r="I156" s="22"/>
-      <c r="J156" s="22"/>
-      <c r="K156" s="129"/>
-      <c r="L156" s="115"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C156" s="77">
+        <v>45426.340277777781</v>
+      </c>
+      <c r="D156" s="116">
+        <v>-29.6</v>
+      </c>
+      <c r="E156" s="70">
+        <v>0.3347222222222222</v>
+      </c>
+      <c r="F156" s="136" t="s">
+        <v>262</v>
+      </c>
+      <c r="G156" s="128">
+        <f>$D$156</f>
+        <v>-29.6</v>
+      </c>
+      <c r="H156" s="128">
+        <f>$D$161</f>
+        <v>-29.4</v>
+      </c>
+      <c r="I156" s="70">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="J156" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="K156" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="L156" s="115" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B02</v>
@@ -5185,18 +6593,35 @@
       <c r="B157" s="53">
         <v>-30</v>
       </c>
-      <c r="C157" s="68"/>
+      <c r="C157" s="68">
+        <f>C156+$C$101</f>
+        <v>45426.347222222226</v>
+      </c>
       <c r="D157" s="117"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="123"/>
-      <c r="H157" s="123"/>
-      <c r="I157" s="9"/>
-      <c r="J157" s="9"/>
-      <c r="K157" s="121"/>
+      <c r="F157" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G157" s="123">
+        <f>$D$156</f>
+        <v>-29.6</v>
+      </c>
+      <c r="H157" s="123">
+        <f>$D$161</f>
+        <v>-29.4</v>
+      </c>
+      <c r="I157" s="122">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="K157" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L157" s="112"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B03</v>
@@ -5204,18 +6629,35 @@
       <c r="B158" s="53">
         <v>-30</v>
       </c>
-      <c r="C158" s="68"/>
+      <c r="C158" s="68">
+        <f t="shared" ref="C158:C165" si="24">C157+$C$101</f>
+        <v>45426.354166666672</v>
+      </c>
       <c r="D158" s="117"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="123"/>
-      <c r="H158" s="123"/>
-      <c r="I158" s="9"/>
-      <c r="J158" s="9"/>
-      <c r="K158" s="121"/>
+      <c r="F158" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G158" s="123">
+        <f t="shared" ref="G158:G160" si="25">$D$156</f>
+        <v>-29.6</v>
+      </c>
+      <c r="H158" s="123">
+        <f t="shared" ref="H158:H160" si="26">$D$161</f>
+        <v>-29.4</v>
+      </c>
+      <c r="I158" s="122">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="J158" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K158" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L158" s="112"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B04</v>
@@ -5223,18 +6665,35 @@
       <c r="B159" s="53">
         <v>-30</v>
       </c>
-      <c r="C159" s="68"/>
+      <c r="C159" s="68">
+        <f t="shared" si="24"/>
+        <v>45426.361111111117</v>
+      </c>
       <c r="D159" s="117"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="123"/>
-      <c r="H159" s="123"/>
-      <c r="I159" s="9"/>
-      <c r="J159" s="9"/>
-      <c r="K159" s="121"/>
+      <c r="F159" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G159" s="123">
+        <f t="shared" si="25"/>
+        <v>-29.6</v>
+      </c>
+      <c r="H159" s="123">
+        <f t="shared" si="26"/>
+        <v>-29.4</v>
+      </c>
+      <c r="I159" s="122">
+        <v>0.36249999999999999</v>
+      </c>
+      <c r="J159" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="K159" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L159" s="112"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B05</v>
@@ -5242,18 +6701,35 @@
       <c r="B160" s="53">
         <v>-30</v>
       </c>
-      <c r="C160" s="68"/>
+      <c r="C160" s="68">
+        <f t="shared" si="24"/>
+        <v>45426.368055555562</v>
+      </c>
       <c r="D160" s="117"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="123"/>
-      <c r="H160" s="123"/>
-      <c r="I160" s="9"/>
-      <c r="J160" s="9"/>
-      <c r="K160" s="121"/>
+      <c r="F160" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G160" s="123">
+        <f t="shared" si="25"/>
+        <v>-29.6</v>
+      </c>
+      <c r="H160" s="123">
+        <f t="shared" si="26"/>
+        <v>-29.4</v>
+      </c>
+      <c r="I160" s="122">
+        <v>0.37013888888888891</v>
+      </c>
+      <c r="J160" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="K160" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L160" s="112"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B06</v>
@@ -5261,18 +6737,39 @@
       <c r="B161" s="53">
         <v>-30</v>
       </c>
-      <c r="C161" s="68"/>
-      <c r="D161" s="117"/>
-      <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="123"/>
-      <c r="H161" s="123"/>
-      <c r="I161" s="9"/>
-      <c r="J161" s="9"/>
-      <c r="K161" s="121"/>
+      <c r="C161" s="68">
+        <f t="shared" si="24"/>
+        <v>45426.375000000007</v>
+      </c>
+      <c r="D161" s="117">
+        <v>-29.4</v>
+      </c>
+      <c r="E161" s="122">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="F161" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="G161" s="123">
+        <f>$D$156</f>
+        <v>-29.6</v>
+      </c>
+      <c r="H161" s="123">
+        <f>$D$164</f>
+        <v>-28.5</v>
+      </c>
+      <c r="I161" s="122">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="K161" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L161" s="112"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B07</v>
@@ -5280,18 +6777,35 @@
       <c r="B162" s="53">
         <v>-30</v>
       </c>
-      <c r="C162" s="68"/>
+      <c r="C162" s="68">
+        <f t="shared" si="24"/>
+        <v>45426.381944444453</v>
+      </c>
       <c r="D162" s="117"/>
       <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="123"/>
-      <c r="H162" s="123"/>
-      <c r="I162" s="9"/>
-      <c r="J162" s="9"/>
-      <c r="K162" s="121"/>
+      <c r="F162" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G162" s="123">
+        <f t="shared" ref="G162:G163" si="27">$D$156</f>
+        <v>-29.6</v>
+      </c>
+      <c r="H162" s="123">
+        <f t="shared" ref="H162:H163" si="28">$D$164</f>
+        <v>-28.5</v>
+      </c>
+      <c r="I162" s="122">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="J162" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="K162" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L162" s="112"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B08</v>
@@ -5299,18 +6813,35 @@
       <c r="B163" s="53">
         <v>-30</v>
       </c>
-      <c r="C163" s="68"/>
+      <c r="C163" s="68">
+        <f t="shared" si="24"/>
+        <v>45426.388888888898</v>
+      </c>
       <c r="D163" s="117"/>
       <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="123"/>
-      <c r="H163" s="123"/>
-      <c r="I163" s="9"/>
-      <c r="J163" s="9"/>
-      <c r="K163" s="121"/>
+      <c r="F163" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G163" s="123">
+        <f t="shared" si="27"/>
+        <v>-29.6</v>
+      </c>
+      <c r="H163" s="123">
+        <f t="shared" si="28"/>
+        <v>-28.5</v>
+      </c>
+      <c r="I163" s="122">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="K163" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L163" s="112"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A164" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B09</v>
@@ -5318,18 +6849,29 @@
       <c r="B164" s="53">
         <v>-30</v>
       </c>
-      <c r="C164" s="68"/>
-      <c r="D164" s="117"/>
-      <c r="E164" s="9"/>
+      <c r="C164" s="68">
+        <f t="shared" si="24"/>
+        <v>45426.395833333343</v>
+      </c>
+      <c r="D164" s="117">
+        <v>-28.5</v>
+      </c>
+      <c r="E164" s="122">
+        <v>0.4236111111111111</v>
+      </c>
       <c r="F164" s="9"/>
       <c r="G164" s="123"/>
       <c r="H164" s="123"/>
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
-      <c r="K164" s="121"/>
-      <c r="L164" s="112"/>
-    </row>
-    <row r="165" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="K164" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="L164" s="112" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" s="64" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="33" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B10</v>
@@ -5337,7 +6879,10 @@
       <c r="B165" s="54">
         <v>-30</v>
       </c>
-      <c r="C165" s="71"/>
+      <c r="C165" s="71">
+        <f t="shared" si="24"/>
+        <v>45426.402777777788</v>
+      </c>
       <c r="D165" s="119"/>
       <c r="E165" s="16"/>
       <c r="F165" s="16"/>
@@ -5345,7 +6890,9 @@
       <c r="H165" s="130"/>
       <c r="I165" s="16"/>
       <c r="J165" s="16"/>
-      <c r="K165" s="131"/>
+      <c r="K165" s="131" t="s">
+        <v>135</v>
+      </c>
       <c r="L165" s="132"/>
     </row>
     <row r="166" spans="1:12" ht="51" x14ac:dyDescent="0.2">
@@ -5362,7 +6909,7 @@
       <c r="D166" s="120">
         <v>-23.2</v>
       </c>
-      <c r="E166" s="151">
+      <c r="E166" s="146">
         <v>0.32777777777777778</v>
       </c>
       <c r="F166" s="49" t="s">
@@ -5376,10 +6923,10 @@
         <f>$D$166</f>
         <v>-23.2</v>
       </c>
-      <c r="I166" s="151">
+      <c r="I166" s="146">
         <v>0.33055555555555555</v>
       </c>
-      <c r="J166" s="152" t="s">
+      <c r="J166" s="147" t="s">
         <v>187</v>
       </c>
       <c r="K166" s="125" t="s">
@@ -5396,7 +6943,7 @@
         <v>-20</v>
       </c>
       <c r="C167" s="68">
-        <f t="shared" ref="C167:C175" si="20">C166+$C$101</f>
+        <f t="shared" ref="C167:C175" si="29">C166+$C$101</f>
         <v>45358.329861111109</v>
       </c>
       <c r="D167" s="117"/>
@@ -5406,11 +6953,11 @@
         <v>Between A06 and A01</v>
       </c>
       <c r="G167" s="123">
-        <f t="shared" ref="G167:G175" si="21">$D$171</f>
+        <f t="shared" ref="G167:G175" si="30">$D$171</f>
         <v>-24.6</v>
       </c>
       <c r="H167" s="123">
-        <f t="shared" ref="H167:H171" si="22">$D$166</f>
+        <f t="shared" ref="H167:H171" si="31">$D$166</f>
         <v>-23.2</v>
       </c>
       <c r="I167" s="122">
@@ -5433,21 +6980,21 @@
         <v>-20</v>
       </c>
       <c r="C168" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>45358.336805555555</v>
       </c>
       <c r="D168" s="117"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9" t="str">
-        <f t="shared" ref="F168:F171" si="23">$F$166</f>
+        <f t="shared" ref="F168:F171" si="32">$F$166</f>
         <v>Between A06 and A01</v>
       </c>
       <c r="G168" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-24.6</v>
       </c>
       <c r="H168" s="123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>-23.2</v>
       </c>
       <c r="I168" s="122">
@@ -5470,21 +7017,21 @@
         <v>-20</v>
       </c>
       <c r="C169" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>45358.34375</v>
       </c>
       <c r="D169" s="117"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>Between A06 and A01</v>
       </c>
       <c r="G169" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-24.6</v>
       </c>
       <c r="H169" s="123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>-23.2</v>
       </c>
       <c r="I169" s="122">
@@ -5507,21 +7054,21 @@
         <v>-20</v>
       </c>
       <c r="C170" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>45358.350694444445</v>
       </c>
       <c r="D170" s="117"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>Between A06 and A01</v>
       </c>
       <c r="G170" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-24.6</v>
       </c>
       <c r="H170" s="123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>-23.2</v>
       </c>
       <c r="I170" s="122">
@@ -5544,7 +7091,7 @@
         <v>-20</v>
       </c>
       <c r="C171" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>45358.357638888891</v>
       </c>
       <c r="D171" s="117">
@@ -5554,15 +7101,15 @@
         <v>0.36666666666666664</v>
       </c>
       <c r="F171" s="9" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="32"/>
         <v>Between A06 and A01</v>
       </c>
       <c r="G171" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-24.6</v>
       </c>
       <c r="H171" s="123">
-        <f t="shared" si="22"/>
+        <f t="shared" si="31"/>
         <v>-23.2</v>
       </c>
       <c r="I171" s="122">
@@ -5587,7 +7134,7 @@
         <v>-20</v>
       </c>
       <c r="C172" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>45358.364583333336</v>
       </c>
       <c r="D172" s="117"/>
@@ -5596,7 +7143,7 @@
         <v>174</v>
       </c>
       <c r="G172" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-24.6</v>
       </c>
       <c r="H172" s="123">
@@ -5623,7 +7170,7 @@
         <v>-20</v>
       </c>
       <c r="C173" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>45358.371527777781</v>
       </c>
       <c r="D173" s="117"/>
@@ -5633,11 +7180,11 @@
         <v>Between A06 and A10</v>
       </c>
       <c r="G173" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-24.6</v>
       </c>
       <c r="H173" s="123">
-        <f t="shared" ref="H173:H175" si="24">$D$175</f>
+        <f t="shared" ref="H173:H175" si="33">$D$175</f>
         <v>-19.600000000000001</v>
       </c>
       <c r="I173" s="122">
@@ -5660,7 +7207,7 @@
         <v>-20</v>
       </c>
       <c r="C174" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>45358.378472222226</v>
       </c>
       <c r="D174" s="117"/>
@@ -5670,11 +7217,11 @@
         <v>Between A06 and A10</v>
       </c>
       <c r="G174" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-24.6</v>
       </c>
       <c r="H174" s="123">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>-19.600000000000001</v>
       </c>
       <c r="I174" s="122">
@@ -5697,7 +7244,7 @@
         <v>-20</v>
       </c>
       <c r="C175" s="71">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>45358.385416666672</v>
       </c>
       <c r="D175" s="119">
@@ -5710,11 +7257,11 @@
         <v>175</v>
       </c>
       <c r="G175" s="130">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>-24.6</v>
       </c>
       <c r="H175" s="130">
-        <f t="shared" si="24"/>
+        <f t="shared" si="33"/>
         <v>-19.600000000000001</v>
       </c>
       <c r="I175" s="137">
@@ -5730,7 +7277,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="29" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B01</v>
@@ -5739,17 +7286,33 @@
         <v>-20</v>
       </c>
       <c r="C176" s="77"/>
-      <c r="D176" s="116"/>
-      <c r="E176" s="22"/>
-      <c r="F176" s="22"/>
-      <c r="G176" s="128"/>
-      <c r="H176" s="128"/>
+      <c r="D176" s="116">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="E176" s="70">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F176" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G176" s="128">
+        <f>$D$176</f>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="H176" s="128">
+        <f>$D$182</f>
+        <v>-19.600000000000001</v>
+      </c>
       <c r="I176" s="22"/>
       <c r="J176" s="22"/>
-      <c r="K176" s="129"/>
-      <c r="L176" s="115"/>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K176" s="129" t="s">
+        <v>283</v>
+      </c>
+      <c r="L176" s="115" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B02</v>
@@ -5760,15 +7323,25 @@
       <c r="C177" s="68"/>
       <c r="D177" s="117"/>
       <c r="E177" s="9"/>
-      <c r="F177" s="9"/>
-      <c r="G177" s="123"/>
-      <c r="H177" s="123"/>
+      <c r="F177" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G177" s="123">
+        <f>$D$176</f>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="H177" s="123">
+        <f>$D$182</f>
+        <v>-19.600000000000001</v>
+      </c>
       <c r="I177" s="9"/>
       <c r="J177" s="9"/>
-      <c r="K177" s="121"/>
+      <c r="K177" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L177" s="112"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B03</v>
@@ -5779,15 +7352,25 @@
       <c r="C178" s="68"/>
       <c r="D178" s="117"/>
       <c r="E178" s="9"/>
-      <c r="F178" s="9"/>
-      <c r="G178" s="123"/>
-      <c r="H178" s="123"/>
+      <c r="F178" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G178" s="123">
+        <f t="shared" ref="G178:G185" si="34">$D$176</f>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="H178" s="123">
+        <f t="shared" ref="H178:H182" si="35">$D$182</f>
+        <v>-19.600000000000001</v>
+      </c>
       <c r="I178" s="9"/>
       <c r="J178" s="9"/>
-      <c r="K178" s="121"/>
+      <c r="K178" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L178" s="112"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B04</v>
@@ -5798,15 +7381,25 @@
       <c r="C179" s="68"/>
       <c r="D179" s="117"/>
       <c r="E179" s="9"/>
-      <c r="F179" s="9"/>
-      <c r="G179" s="123"/>
-      <c r="H179" s="123"/>
+      <c r="F179" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G179" s="123">
+        <f t="shared" si="34"/>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="H179" s="123">
+        <f t="shared" si="35"/>
+        <v>-19.600000000000001</v>
+      </c>
       <c r="I179" s="9"/>
       <c r="J179" s="9"/>
-      <c r="K179" s="121"/>
+      <c r="K179" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L179" s="112"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A180" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B05</v>
@@ -5817,15 +7410,25 @@
       <c r="C180" s="68"/>
       <c r="D180" s="117"/>
       <c r="E180" s="9"/>
-      <c r="F180" s="9"/>
-      <c r="G180" s="123"/>
-      <c r="H180" s="123"/>
+      <c r="F180" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G180" s="123">
+        <f t="shared" si="34"/>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="H180" s="123">
+        <f t="shared" si="35"/>
+        <v>-19.600000000000001</v>
+      </c>
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
-      <c r="K180" s="121"/>
+      <c r="K180" s="121" t="s">
+        <v>284</v>
+      </c>
       <c r="L180" s="112"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B06</v>
@@ -5836,15 +7439,25 @@
       <c r="C181" s="68"/>
       <c r="D181" s="117"/>
       <c r="E181" s="9"/>
-      <c r="F181" s="9"/>
-      <c r="G181" s="123"/>
-      <c r="H181" s="123"/>
+      <c r="F181" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G181" s="123">
+        <f t="shared" si="34"/>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="H181" s="123">
+        <f t="shared" si="35"/>
+        <v>-19.600000000000001</v>
+      </c>
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
-      <c r="K181" s="121"/>
+      <c r="K181" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L181" s="112"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B07</v>
@@ -5853,17 +7466,31 @@
         <v>-20</v>
       </c>
       <c r="C182" s="68"/>
-      <c r="D182" s="117"/>
-      <c r="E182" s="9"/>
-      <c r="F182" s="9"/>
-      <c r="G182" s="123"/>
-      <c r="H182" s="123"/>
+      <c r="D182" s="117">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="E182" s="122">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G182" s="123">
+        <f t="shared" si="34"/>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="H182" s="123">
+        <f t="shared" si="35"/>
+        <v>-19.600000000000001</v>
+      </c>
       <c r="I182" s="9"/>
       <c r="J182" s="9"/>
-      <c r="K182" s="121"/>
+      <c r="K182" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L182" s="112"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B08</v>
@@ -5874,15 +7501,25 @@
       <c r="C183" s="68"/>
       <c r="D183" s="117"/>
       <c r="E183" s="9"/>
-      <c r="F183" s="9"/>
-      <c r="G183" s="123"/>
-      <c r="H183" s="123"/>
+      <c r="F183" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G183" s="123">
+        <f t="shared" si="34"/>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="H183" s="123">
+        <f>$D$185</f>
+        <v>-19</v>
+      </c>
       <c r="I183" s="9"/>
       <c r="J183" s="9"/>
-      <c r="K183" s="121"/>
+      <c r="K183" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L183" s="112"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B09</v>
@@ -5893,15 +7530,25 @@
       <c r="C184" s="68"/>
       <c r="D184" s="117"/>
       <c r="E184" s="9"/>
-      <c r="F184" s="9"/>
-      <c r="G184" s="123"/>
-      <c r="H184" s="123"/>
+      <c r="F184" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G184" s="123">
+        <f t="shared" si="34"/>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="H184" s="123">
+        <f t="shared" ref="H184:H185" si="36">$D$185</f>
+        <v>-19</v>
+      </c>
       <c r="I184" s="9"/>
       <c r="J184" s="9"/>
-      <c r="K184" s="121"/>
+      <c r="K184" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L184" s="112"/>
     </row>
-    <row r="185" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="33" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B10</v>
@@ -5910,15 +7557,31 @@
         <v>-20</v>
       </c>
       <c r="C185" s="71"/>
-      <c r="D185" s="119"/>
-      <c r="E185" s="16"/>
-      <c r="F185" s="16"/>
-      <c r="G185" s="130"/>
-      <c r="H185" s="130"/>
+      <c r="D185" s="119">
+        <v>-19</v>
+      </c>
+      <c r="E185" s="137">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F185" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G185" s="123">
+        <f t="shared" si="34"/>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="H185" s="123">
+        <f t="shared" si="36"/>
+        <v>-19</v>
+      </c>
       <c r="I185" s="16"/>
       <c r="J185" s="16"/>
-      <c r="K185" s="131"/>
-      <c r="L185" s="132"/>
+      <c r="K185" s="131" t="s">
+        <v>286</v>
+      </c>
+      <c r="L185" s="132" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="186" spans="1:12" ht="102" x14ac:dyDescent="0.2">
       <c r="A186" s="29" t="str">
@@ -5945,7 +7608,7 @@
         <v>-9.9</v>
       </c>
       <c r="H186" s="123">
-        <f t="shared" ref="H186:H189" si="25">$D$190</f>
+        <f t="shared" ref="H186:H189" si="37">$D$190</f>
         <v>-6.4</v>
       </c>
       <c r="I186" s="70">
@@ -5970,7 +7633,7 @@
         <v>-10</v>
       </c>
       <c r="C187" s="68">
-        <f t="shared" ref="C187:C195" si="26">C186+$C$101</f>
+        <f t="shared" ref="C187:C205" si="38">C186+$C$101</f>
         <v>45358.548611111109</v>
       </c>
       <c r="D187" s="117"/>
@@ -5983,7 +7646,7 @@
         <v>-9.9</v>
       </c>
       <c r="H187" s="123">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>-6.4</v>
       </c>
       <c r="I187" s="122">
@@ -6006,7 +7669,7 @@
         <v>-10</v>
       </c>
       <c r="C188" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>45358.555555555555</v>
       </c>
       <c r="D188" s="117"/>
@@ -6015,11 +7678,11 @@
         <v>205</v>
       </c>
       <c r="G188" s="123">
-        <f t="shared" ref="G188:G194" si="27">$D$186</f>
+        <f t="shared" ref="G188:G194" si="39">$D$186</f>
         <v>-9.9</v>
       </c>
       <c r="H188" s="123">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>-6.4</v>
       </c>
       <c r="I188" s="122">
@@ -6044,7 +7707,7 @@
         <v>-10</v>
       </c>
       <c r="C189" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>45358.5625</v>
       </c>
       <c r="D189" s="117"/>
@@ -6053,11 +7716,11 @@
         <v>205</v>
       </c>
       <c r="G189" s="123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>-9.9</v>
       </c>
       <c r="H189" s="123">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>-6.4</v>
       </c>
       <c r="I189" s="122">
@@ -6080,7 +7743,7 @@
         <v>-10</v>
       </c>
       <c r="C190" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>45358.569444444445</v>
       </c>
       <c r="D190" s="117">
@@ -6093,7 +7756,7 @@
         <v>205</v>
       </c>
       <c r="G190" s="123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>-9.9</v>
       </c>
       <c r="H190" s="123">
@@ -6115,14 +7778,14 @@
     </row>
     <row r="191" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="31" t="str">
-        <f t="shared" ref="A191:A245" si="28">A171</f>
+        <f t="shared" ref="A191:A245" si="40">A171</f>
         <v>UCT_AST9AH_A06</v>
       </c>
       <c r="B191" s="53">
         <v>-10</v>
       </c>
       <c r="C191" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>45358.576388888891</v>
       </c>
       <c r="D191" s="117"/>
@@ -6131,7 +7794,7 @@
         <v>229</v>
       </c>
       <c r="G191" s="123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>-9.9</v>
       </c>
       <c r="H191" s="123">
@@ -6153,14 +7816,14 @@
     </row>
     <row r="192" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A07</v>
       </c>
       <c r="B192" s="53">
         <v>-10</v>
       </c>
       <c r="C192" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>45358.583333333336</v>
       </c>
       <c r="D192" s="117"/>
@@ -6170,11 +7833,11 @@
         <v>Between A01 and A10</v>
       </c>
       <c r="G192" s="123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>-9.9</v>
       </c>
       <c r="H192" s="123">
-        <f t="shared" ref="H192:H195" si="29">$D$195</f>
+        <f t="shared" ref="H192:H195" si="41">$D$195</f>
         <v>-1</v>
       </c>
       <c r="I192" s="122">
@@ -6190,28 +7853,28 @@
     </row>
     <row r="193" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A08</v>
       </c>
       <c r="B193" s="53">
         <v>-10</v>
       </c>
       <c r="C193" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>45358.590277777781</v>
       </c>
       <c r="D193" s="117"/>
       <c r="E193" s="9"/>
       <c r="F193" s="9" t="str">
-        <f t="shared" ref="F193:F195" si="30">$F$191</f>
+        <f t="shared" ref="F193:F195" si="42">$F$191</f>
         <v>Between A01 and A10</v>
       </c>
       <c r="G193" s="123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>-9.9</v>
       </c>
       <c r="H193" s="123">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="I193" s="122">
@@ -6227,28 +7890,28 @@
     </row>
     <row r="194" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A09</v>
       </c>
       <c r="B194" s="53">
         <v>-10</v>
       </c>
       <c r="C194" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>45358.597222222226</v>
       </c>
       <c r="D194" s="117"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>Between A01 and A10</v>
       </c>
       <c r="G194" s="123">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>-9.9</v>
       </c>
       <c r="H194" s="123">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="I194" s="122">
@@ -6264,14 +7927,14 @@
     </row>
     <row r="195" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A10</v>
       </c>
       <c r="B195" s="54">
         <v>-10</v>
       </c>
       <c r="C195" s="71">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>45358.604166666672</v>
       </c>
       <c r="D195" s="119">
@@ -6279,7 +7942,7 @@
       </c>
       <c r="E195" s="16"/>
       <c r="F195" s="9" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>Between A01 and A10</v>
       </c>
       <c r="G195" s="130">
@@ -6287,7 +7950,7 @@
         <v>-9.9</v>
       </c>
       <c r="H195" s="123">
-        <f t="shared" si="29"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="I195" s="137">
@@ -6301,199 +7964,377 @@
         <v>215</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A196" s="29" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B01</v>
       </c>
       <c r="B196" s="73">
         <v>-10</v>
       </c>
-      <c r="C196" s="77"/>
-      <c r="D196" s="116"/>
+      <c r="C196" s="77">
+        <v>45427.333333333336</v>
+      </c>
+      <c r="D196" s="116">
+        <v>-9.8000000000000007</v>
+      </c>
       <c r="E196" s="22"/>
-      <c r="F196" s="22"/>
-      <c r="G196" s="128"/>
-      <c r="H196" s="128"/>
-      <c r="I196" s="22"/>
-      <c r="J196" s="22"/>
-      <c r="K196" s="129"/>
-      <c r="L196" s="115"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F196" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G196" s="128">
+        <f>$D$196</f>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H196" s="128">
+        <f>$D$201</f>
+        <v>-8.4</v>
+      </c>
+      <c r="I196" s="70">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="J196" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="K196" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="L196" s="115" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B02</v>
       </c>
       <c r="B197" s="53">
         <v>-10</v>
       </c>
-      <c r="C197" s="68"/>
+      <c r="C197" s="68">
+        <f t="shared" si="38"/>
+        <v>45427.340277777781</v>
+      </c>
       <c r="D197" s="117"/>
       <c r="E197" s="9"/>
-      <c r="F197" s="9"/>
-      <c r="G197" s="123"/>
-      <c r="H197" s="123"/>
-      <c r="I197" s="9"/>
-      <c r="J197" s="9"/>
-      <c r="K197" s="121"/>
+      <c r="F197" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G197" s="123">
+        <f>$D$196</f>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H197" s="123">
+        <f>$D$201</f>
+        <v>-8.4</v>
+      </c>
+      <c r="I197" s="122">
+        <v>0.34722222222222221</v>
+      </c>
+      <c r="J197" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="K197" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L197" s="112"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B03</v>
       </c>
       <c r="B198" s="53">
         <v>-10</v>
       </c>
-      <c r="C198" s="68"/>
+      <c r="C198" s="68">
+        <f t="shared" si="38"/>
+        <v>45427.347222222226</v>
+      </c>
       <c r="D198" s="117"/>
       <c r="E198" s="9"/>
-      <c r="F198" s="9"/>
-      <c r="G198" s="123"/>
-      <c r="H198" s="123"/>
-      <c r="I198" s="9"/>
-      <c r="J198" s="9"/>
-      <c r="K198" s="121"/>
+      <c r="F198" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G198" s="123">
+        <f t="shared" ref="G198:G205" si="43">$D$196</f>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H198" s="123">
+        <f t="shared" ref="H198:H205" si="44">$D$201</f>
+        <v>-8.4</v>
+      </c>
+      <c r="I198" s="122">
+        <v>0.35486111111111113</v>
+      </c>
+      <c r="J198" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="K198" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L198" s="112"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B04</v>
       </c>
       <c r="B199" s="53">
         <v>-10</v>
       </c>
-      <c r="C199" s="68"/>
+      <c r="C199" s="68">
+        <f t="shared" si="38"/>
+        <v>45427.354166666672</v>
+      </c>
       <c r="D199" s="117"/>
       <c r="E199" s="9"/>
-      <c r="F199" s="9"/>
-      <c r="G199" s="123"/>
-      <c r="H199" s="123"/>
-      <c r="I199" s="9"/>
-      <c r="J199" s="9"/>
-      <c r="K199" s="121"/>
+      <c r="F199" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G199" s="123">
+        <f t="shared" si="43"/>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H199" s="123">
+        <f t="shared" si="44"/>
+        <v>-8.4</v>
+      </c>
+      <c r="I199" s="122">
+        <v>0.36180555555555555</v>
+      </c>
+      <c r="J199" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="K199" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L199" s="112"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B05</v>
       </c>
       <c r="B200" s="53">
         <v>-10</v>
       </c>
-      <c r="C200" s="68"/>
-      <c r="D200" s="117"/>
+      <c r="C200" s="68">
+        <f t="shared" si="38"/>
+        <v>45427.361111111117</v>
+      </c>
       <c r="E200" s="9"/>
-      <c r="F200" s="9"/>
-      <c r="G200" s="123"/>
-      <c r="H200" s="123"/>
-      <c r="I200" s="9"/>
-      <c r="J200" s="9"/>
-      <c r="K200" s="121"/>
+      <c r="F200" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G200" s="123">
+        <f t="shared" si="43"/>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H200" s="123">
+        <f t="shared" si="44"/>
+        <v>-8.4</v>
+      </c>
+      <c r="I200" s="122">
+        <v>0.36875000000000002</v>
+      </c>
+      <c r="J200" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="K200" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L200" s="112"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A201" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B06</v>
       </c>
       <c r="B201" s="53">
         <v>-10</v>
       </c>
-      <c r="C201" s="68"/>
-      <c r="D201" s="117"/>
+      <c r="C201" s="68">
+        <f t="shared" si="38"/>
+        <v>45427.368055555562</v>
+      </c>
+      <c r="D201" s="117">
+        <v>-8.4</v>
+      </c>
       <c r="E201" s="9"/>
-      <c r="F201" s="9"/>
-      <c r="G201" s="123"/>
-      <c r="H201" s="123"/>
-      <c r="I201" s="9"/>
-      <c r="J201" s="9"/>
-      <c r="K201" s="121"/>
-      <c r="L201" s="112"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F201" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G201" s="123">
+        <f t="shared" si="43"/>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H201" s="123">
+        <f t="shared" si="44"/>
+        <v>-8.4</v>
+      </c>
+      <c r="I201" s="122">
+        <v>0.37569444444444444</v>
+      </c>
+      <c r="J201" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="K201" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="L201" s="112" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B07</v>
       </c>
       <c r="B202" s="53">
         <v>-10</v>
       </c>
-      <c r="C202" s="68"/>
+      <c r="C202" s="68">
+        <f t="shared" si="38"/>
+        <v>45427.375000000007</v>
+      </c>
       <c r="D202" s="117"/>
       <c r="E202" s="9"/>
-      <c r="F202" s="9"/>
-      <c r="G202" s="123"/>
-      <c r="H202" s="123"/>
-      <c r="I202" s="9"/>
-      <c r="J202" s="9"/>
-      <c r="K202" s="121"/>
+      <c r="F202" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G202" s="123">
+        <f t="shared" si="43"/>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H202" s="123">
+        <f t="shared" si="44"/>
+        <v>-8.4</v>
+      </c>
+      <c r="I202" s="122">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="J202" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="K202" s="121" t="s">
+        <v>291</v>
+      </c>
       <c r="L202" s="112"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B08</v>
       </c>
       <c r="B203" s="53">
         <v>-10</v>
       </c>
-      <c r="C203" s="68"/>
+      <c r="C203" s="68">
+        <f t="shared" si="38"/>
+        <v>45427.381944444453</v>
+      </c>
       <c r="D203" s="117"/>
       <c r="E203" s="9"/>
-      <c r="F203" s="9"/>
-      <c r="G203" s="123"/>
-      <c r="H203" s="123"/>
-      <c r="I203" s="9"/>
-      <c r="J203" s="9"/>
-      <c r="K203" s="121"/>
+      <c r="F203" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G203" s="123">
+        <f t="shared" si="43"/>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H203" s="123">
+        <f t="shared" si="44"/>
+        <v>-8.4</v>
+      </c>
+      <c r="I203" s="122">
+        <v>0.39861111111111114</v>
+      </c>
+      <c r="J203" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="K203" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L203" s="112"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B09</v>
       </c>
       <c r="B204" s="53">
         <v>-10</v>
       </c>
-      <c r="C204" s="68"/>
+      <c r="C204" s="68">
+        <f t="shared" si="38"/>
+        <v>45427.388888888898</v>
+      </c>
       <c r="D204" s="117"/>
       <c r="E204" s="9"/>
-      <c r="F204" s="9"/>
-      <c r="G204" s="123"/>
-      <c r="H204" s="123"/>
-      <c r="I204" s="9"/>
-      <c r="J204" s="9"/>
-      <c r="K204" s="121"/>
-      <c r="L204" s="112"/>
+      <c r="F204" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G204" s="123">
+        <f t="shared" si="43"/>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H204" s="123">
+        <f t="shared" si="44"/>
+        <v>-8.4</v>
+      </c>
+      <c r="I204" s="122">
+        <v>0.40555555555555556</v>
+      </c>
+      <c r="J204" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="K204" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="L204" s="112" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="205" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B10</v>
       </c>
       <c r="B205" s="54">
         <v>-10</v>
       </c>
-      <c r="C205" s="71"/>
-      <c r="D205" s="119"/>
+      <c r="C205" s="68">
+        <f t="shared" si="38"/>
+        <v>45427.395833333343</v>
+      </c>
+      <c r="D205" s="119">
+        <v>-9.6</v>
+      </c>
       <c r="E205" s="16"/>
-      <c r="F205" s="16"/>
-      <c r="G205" s="130"/>
-      <c r="H205" s="130"/>
-      <c r="I205" s="16"/>
-      <c r="J205" s="16"/>
+      <c r="F205" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G205" s="123">
+        <f t="shared" si="43"/>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H205" s="123">
+        <f t="shared" si="44"/>
+        <v>-8.4</v>
+      </c>
+      <c r="I205" s="137">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="J205" s="16" t="s">
+        <v>303</v>
+      </c>
       <c r="K205" s="131"/>
       <c r="L205" s="132"/>
     </row>
     <row r="206" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A206" s="29" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A01</v>
       </c>
       <c r="B206" s="73">
@@ -6516,7 +8357,7 @@
         <v>0.5</v>
       </c>
       <c r="H206" s="123">
-        <f t="shared" ref="H206:H211" si="31">$D$211</f>
+        <f t="shared" ref="H206" si="45">$D$211</f>
         <v>3</v>
       </c>
       <c r="I206" s="70">
@@ -6534,14 +8375,14 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A02</v>
       </c>
       <c r="B207" s="53">
         <v>0</v>
       </c>
       <c r="C207" s="68">
-        <f t="shared" ref="C207:C215" si="32">C206+$C$101</f>
+        <f t="shared" ref="C207:C215" si="46">C206+$C$101</f>
         <v>45359.340277777781</v>
       </c>
       <c r="D207" s="117"/>
@@ -6567,14 +8408,14 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A03</v>
       </c>
       <c r="B208" s="53">
         <v>0</v>
       </c>
       <c r="C208" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>45359.347222222226</v>
       </c>
       <c r="D208" s="117"/>
@@ -6583,11 +8424,11 @@
         <v>130</v>
       </c>
       <c r="G208" s="123">
-        <f t="shared" ref="G208:G215" si="33">$D$206</f>
+        <f t="shared" ref="G208:G215" si="47">$D$206</f>
         <v>0.5</v>
       </c>
       <c r="H208" s="123">
-        <f t="shared" ref="H208:H211" si="34">$D$211</f>
+        <f t="shared" ref="H208:H211" si="48">$D$211</f>
         <v>3</v>
       </c>
       <c r="I208" s="122">
@@ -6601,14 +8442,14 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A04</v>
       </c>
       <c r="B209" s="53">
         <v>0</v>
       </c>
       <c r="C209" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>45359.354166666672</v>
       </c>
       <c r="D209" s="117"/>
@@ -6617,11 +8458,11 @@
         <v>130</v>
       </c>
       <c r="G209" s="123">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>0.5</v>
       </c>
       <c r="H209" s="123">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="I209" s="122">
@@ -6635,14 +8476,14 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A05</v>
       </c>
       <c r="B210" s="53">
         <v>0</v>
       </c>
       <c r="C210" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>45359.361111111117</v>
       </c>
       <c r="D210" s="117"/>
@@ -6651,11 +8492,11 @@
         <v>130</v>
       </c>
       <c r="G210" s="123">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>0.5</v>
       </c>
       <c r="H210" s="123">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="I210" s="122">
@@ -6669,14 +8510,14 @@
     </row>
     <row r="211" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A06</v>
       </c>
       <c r="B211" s="53">
         <v>0</v>
       </c>
       <c r="C211" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>45359.368055555562</v>
       </c>
       <c r="D211" s="117">
@@ -6689,11 +8530,11 @@
         <v>130</v>
       </c>
       <c r="G211" s="123">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>0.5</v>
       </c>
       <c r="H211" s="123">
-        <f t="shared" si="34"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="I211" s="122">
@@ -6709,14 +8550,14 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A07</v>
       </c>
       <c r="B212" s="53">
         <v>0</v>
       </c>
       <c r="C212" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>45359.375000000007</v>
       </c>
       <c r="D212" s="117"/>
@@ -6725,7 +8566,7 @@
         <v>229</v>
       </c>
       <c r="G212" s="123">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>0.5</v>
       </c>
       <c r="H212" s="123">
@@ -6743,14 +8584,14 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A08</v>
       </c>
       <c r="B213" s="53">
         <v>0</v>
       </c>
       <c r="C213" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>45359.381944444453</v>
       </c>
       <c r="D213" s="117"/>
@@ -6760,11 +8601,11 @@
         <v>Between A01 and A10</v>
       </c>
       <c r="G213" s="123">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>0.5</v>
       </c>
       <c r="H213" s="123">
-        <f t="shared" ref="H213:H215" si="35">$D$215</f>
+        <f t="shared" ref="H213:H215" si="49">$D$215</f>
         <v>5.7</v>
       </c>
       <c r="I213" s="122">
@@ -6778,28 +8619,28 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A09</v>
       </c>
       <c r="B214" s="53">
         <v>0</v>
       </c>
       <c r="C214" s="68">
-        <f t="shared" si="32"/>
+        <f t="shared" si="46"/>
         <v>45359.388888888898</v>
       </c>
       <c r="D214" s="117"/>
       <c r="E214" s="9"/>
       <c r="F214" s="9" t="str">
-        <f t="shared" ref="F214:F215" si="36">$F$212</f>
+        <f t="shared" ref="F214:F215" si="50">$F$212</f>
         <v>Between A01 and A10</v>
       </c>
       <c r="G214" s="123">
-        <f t="shared" si="33"/>
+        <f t="shared" si="47"/>
         <v>0.5</v>
       </c>
       <c r="H214" s="123">
-        <f t="shared" si="35"/>
+        <f t="shared" si="49"/>
         <v>5.7</v>
       </c>
       <c r="I214" s="122">
@@ -6812,66 +8653,86 @@
       <c r="L214" s="112"/>
     </row>
     <row r="215" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="33" t="str">
-        <f t="shared" si="28"/>
+      <c r="A215" s="74" t="str">
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A10</v>
       </c>
-      <c r="B215" s="54">
+      <c r="B215" s="143">
         <v>0</v>
       </c>
-      <c r="C215" s="71">
-        <f t="shared" si="32"/>
+      <c r="C215" s="75">
+        <f t="shared" si="46"/>
         <v>45359.395833333343</v>
       </c>
-      <c r="D215" s="119">
+      <c r="D215" s="118">
         <v>5.7</v>
       </c>
-      <c r="E215" s="137">
+      <c r="E215" s="153">
         <v>0.40763888888888888</v>
       </c>
-      <c r="F215" s="9" t="str">
-        <f t="shared" si="36"/>
+      <c r="F215" s="76" t="str">
+        <f t="shared" si="50"/>
         <v>Between A01 and A10</v>
       </c>
-      <c r="G215" s="123">
-        <f t="shared" si="33"/>
+      <c r="G215" s="126">
+        <f t="shared" si="47"/>
         <v>0.5</v>
       </c>
-      <c r="H215" s="123">
-        <f t="shared" si="35"/>
+      <c r="H215" s="126">
+        <f t="shared" si="49"/>
         <v>5.7</v>
       </c>
-      <c r="I215" s="137">
+      <c r="I215" s="153">
         <v>0.40763888888888888</v>
       </c>
-      <c r="J215" s="108" t="s">
+      <c r="J215" s="144" t="s">
         <v>228</v>
       </c>
-      <c r="K215" s="131"/>
-      <c r="L215" s="132"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K215" s="127"/>
+      <c r="L215" s="133"/>
+    </row>
+    <row r="216" spans="1:12" s="59" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A216" s="29" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B01</v>
       </c>
       <c r="B216" s="73">
         <v>0</v>
       </c>
       <c r="C216" s="77"/>
-      <c r="D216" s="116"/>
-      <c r="E216" s="22"/>
-      <c r="F216" s="22"/>
-      <c r="G216" s="128"/>
-      <c r="H216" s="128"/>
-      <c r="I216" s="22"/>
-      <c r="J216" s="22"/>
-      <c r="K216" s="129"/>
-      <c r="L216" s="115"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D216" s="116">
+        <v>0</v>
+      </c>
+      <c r="E216" s="70">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="F216" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G216" s="128">
+        <f t="shared" ref="G216" si="51">$D$216</f>
+        <v>0</v>
+      </c>
+      <c r="H216" s="128">
+        <f t="shared" ref="H216" si="52">$D$221</f>
+        <v>3.1</v>
+      </c>
+      <c r="I216" s="70">
+        <v>0.58888888888888891</v>
+      </c>
+      <c r="J216" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="K216" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="L216" s="115" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B02</v>
       </c>
       <c r="B217" s="53">
@@ -6880,17 +8741,31 @@
       <c r="C217" s="68"/>
       <c r="D217" s="117"/>
       <c r="E217" s="9"/>
-      <c r="F217" s="9"/>
-      <c r="G217" s="123"/>
-      <c r="H217" s="123"/>
-      <c r="I217" s="9"/>
-      <c r="J217" s="9"/>
-      <c r="K217" s="121"/>
+      <c r="F217" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G217" s="123">
+        <f>$D$216</f>
+        <v>0</v>
+      </c>
+      <c r="H217" s="123">
+        <f>$D$221</f>
+        <v>3.1</v>
+      </c>
+      <c r="I217" s="122">
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="J217" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="K217" s="121" t="s">
+        <v>305</v>
+      </c>
       <c r="L217" s="112"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B03</v>
       </c>
       <c r="B218" s="53">
@@ -6899,17 +8774,31 @@
       <c r="C218" s="68"/>
       <c r="D218" s="117"/>
       <c r="E218" s="9"/>
-      <c r="F218" s="9"/>
-      <c r="G218" s="123"/>
-      <c r="H218" s="123"/>
-      <c r="I218" s="9"/>
-      <c r="J218" s="9"/>
-      <c r="K218" s="121"/>
+      <c r="F218" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G218" s="123">
+        <f t="shared" ref="G218:G225" si="53">$D$216</f>
+        <v>0</v>
+      </c>
+      <c r="H218" s="123">
+        <f t="shared" ref="H218:H221" si="54">$D$221</f>
+        <v>3.1</v>
+      </c>
+      <c r="I218" s="122">
+        <v>0.60277777777777775</v>
+      </c>
+      <c r="J218" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="K218" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L218" s="112"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B04</v>
       </c>
       <c r="B219" s="53">
@@ -6918,17 +8807,31 @@
       <c r="C219" s="68"/>
       <c r="D219" s="117"/>
       <c r="E219" s="9"/>
-      <c r="F219" s="9"/>
-      <c r="G219" s="123"/>
-      <c r="H219" s="123"/>
-      <c r="I219" s="9"/>
-      <c r="J219" s="9"/>
-      <c r="K219" s="121"/>
+      <c r="F219" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G219" s="123">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H219" s="123">
+        <f t="shared" si="54"/>
+        <v>3.1</v>
+      </c>
+      <c r="I219" s="122">
+        <v>0.60972222222222228</v>
+      </c>
+      <c r="J219" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="K219" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L219" s="112"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B05</v>
       </c>
       <c r="B220" s="53">
@@ -6937,36 +8840,70 @@
       <c r="C220" s="68"/>
       <c r="D220" s="117"/>
       <c r="E220" s="9"/>
-      <c r="F220" s="9"/>
-      <c r="G220" s="123"/>
-      <c r="H220" s="123"/>
-      <c r="I220" s="9"/>
-      <c r="J220" s="9"/>
-      <c r="K220" s="121"/>
+      <c r="F220" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G220" s="123">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H220" s="123">
+        <f t="shared" si="54"/>
+        <v>3.1</v>
+      </c>
+      <c r="I220" s="122">
+        <v>0.61597222222222225</v>
+      </c>
+      <c r="J220" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K220" s="121" t="s">
+        <v>306</v>
+      </c>
       <c r="L220" s="112"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B06</v>
       </c>
       <c r="B221" s="53">
         <v>0</v>
       </c>
       <c r="C221" s="68"/>
-      <c r="D221" s="117"/>
-      <c r="E221" s="9"/>
-      <c r="F221" s="9"/>
-      <c r="G221" s="123"/>
-      <c r="H221" s="123"/>
-      <c r="I221" s="9"/>
-      <c r="J221" s="9"/>
-      <c r="K221" s="121"/>
-      <c r="L221" s="112"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D221" s="117">
+        <v>3.1</v>
+      </c>
+      <c r="E221" s="122">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="F221" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G221" s="123">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H221" s="123">
+        <f t="shared" si="54"/>
+        <v>3.1</v>
+      </c>
+      <c r="I221" s="122">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="J221" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="K221" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="L221" s="112" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B07</v>
       </c>
       <c r="B222" s="53">
@@ -6975,17 +8912,31 @@
       <c r="C222" s="68"/>
       <c r="D222" s="117"/>
       <c r="E222" s="9"/>
-      <c r="F222" s="9"/>
-      <c r="G222" s="123"/>
-      <c r="H222" s="123"/>
-      <c r="I222" s="9"/>
-      <c r="J222" s="9"/>
-      <c r="K222" s="121"/>
+      <c r="F222" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G222" s="123">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H222" s="123">
+        <f>$D$225</f>
+        <v>6</v>
+      </c>
+      <c r="I222" s="122">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="J222" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="K222" s="121" t="s">
+        <v>308</v>
+      </c>
       <c r="L222" s="112"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B08</v>
       </c>
       <c r="B223" s="53">
@@ -6994,17 +8945,31 @@
       <c r="C223" s="68"/>
       <c r="D223" s="117"/>
       <c r="E223" s="9"/>
-      <c r="F223" s="9"/>
-      <c r="G223" s="123"/>
-      <c r="H223" s="123"/>
-      <c r="I223" s="9"/>
-      <c r="J223" s="9"/>
-      <c r="K223" s="121"/>
+      <c r="F223" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G223" s="123">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H223" s="123">
+        <f t="shared" ref="H223:H225" si="55">$D$225</f>
+        <v>6</v>
+      </c>
+      <c r="I223" s="122">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="J223" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="K223" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L223" s="112"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B09</v>
       </c>
       <c r="B224" s="53">
@@ -7013,78 +8978,112 @@
       <c r="C224" s="68"/>
       <c r="D224" s="117"/>
       <c r="E224" s="9"/>
-      <c r="F224" s="9"/>
-      <c r="G224" s="123"/>
-      <c r="H224" s="123"/>
-      <c r="I224" s="9"/>
-      <c r="J224" s="9"/>
-      <c r="K224" s="121"/>
+      <c r="F224" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G224" s="123">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H224" s="123">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+      <c r="I224" s="122">
+        <v>0.64375000000000004</v>
+      </c>
+      <c r="J224" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="K224" s="121" t="s">
+        <v>309</v>
+      </c>
       <c r="L224" s="112"/>
     </row>
-    <row r="225" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="74" t="str">
-        <f t="shared" si="28"/>
+    <row r="225" spans="1:12" s="64" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="33" t="str">
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B10</v>
       </c>
-      <c r="B225" s="143">
+      <c r="B225" s="54">
         <v>0</v>
       </c>
-      <c r="C225" s="75"/>
-      <c r="D225" s="118"/>
-      <c r="E225" s="76"/>
-      <c r="F225" s="76"/>
-      <c r="G225" s="126"/>
-      <c r="H225" s="126"/>
-      <c r="I225" s="76"/>
-      <c r="J225" s="76"/>
-      <c r="K225" s="127"/>
-      <c r="L225" s="133"/>
+      <c r="C225" s="71"/>
+      <c r="D225" s="119">
+        <v>6</v>
+      </c>
+      <c r="E225" s="137">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="F225" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="G225" s="130">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H225" s="130">
+        <f t="shared" si="55"/>
+        <v>6</v>
+      </c>
+      <c r="I225" s="137">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="J225" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="K225" s="131" t="s">
+        <v>309</v>
+      </c>
+      <c r="L225" s="132" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="226" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A226" s="29" t="str">
-        <f t="shared" si="28"/>
+      <c r="A226" s="52" t="str">
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A01</v>
       </c>
-      <c r="B226" s="73">
+      <c r="B226" s="72">
         <v>25</v>
       </c>
-      <c r="C226" s="77">
+      <c r="C226" s="67">
         <v>45359.541666666664</v>
       </c>
-      <c r="D226" s="116"/>
-      <c r="E226" s="22"/>
-      <c r="F226" s="22" t="s">
+      <c r="D226" s="120"/>
+      <c r="E226" s="49"/>
+      <c r="F226" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="G226" s="128">
+      <c r="G226" s="124">
         <v>25</v>
       </c>
-      <c r="H226" s="128">
+      <c r="H226" s="124">
         <v>27.2</v>
       </c>
-      <c r="I226" s="70">
+      <c r="I226" s="146">
         <v>0.55069444444444449</v>
       </c>
-      <c r="J226" s="22" t="s">
+      <c r="J226" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="K226" s="129" t="s">
+      <c r="K226" s="125" t="s">
         <v>254</v>
       </c>
-      <c r="L226" s="115" t="s">
+      <c r="L226" s="134" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A02</v>
       </c>
       <c r="B227" s="53">
         <v>26</v>
       </c>
       <c r="C227" s="68">
-        <f t="shared" ref="C227:C235" si="37">C226+$C$101</f>
+        <f t="shared" ref="C227:C245" si="56">C226+$C$101</f>
         <v>45359.548611111109</v>
       </c>
       <c r="D227" s="117"/>
@@ -7111,14 +9110,14 @@
     </row>
     <row r="228" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A03</v>
       </c>
       <c r="B228" s="53">
         <v>25</v>
       </c>
       <c r="C228" s="68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="56"/>
         <v>45359.555555555555</v>
       </c>
       <c r="D228" s="117"/>
@@ -7145,14 +9144,14 @@
     </row>
     <row r="229" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A04</v>
       </c>
       <c r="B229" s="53">
         <v>25</v>
       </c>
       <c r="C229" s="68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="56"/>
         <v>45359.5625</v>
       </c>
       <c r="D229" s="117"/>
@@ -7179,14 +9178,14 @@
     </row>
     <row r="230" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A05</v>
       </c>
       <c r="B230" s="53">
         <v>25</v>
       </c>
       <c r="C230" s="68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="56"/>
         <v>45359.569444444445</v>
       </c>
       <c r="D230" s="117"/>
@@ -7213,14 +9212,14 @@
     </row>
     <row r="231" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A06</v>
       </c>
       <c r="B231" s="53">
         <v>25</v>
       </c>
       <c r="C231" s="68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="56"/>
         <v>45359.576388888891</v>
       </c>
       <c r="D231" s="117"/>
@@ -7249,14 +9248,14 @@
     </row>
     <row r="232" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A07</v>
       </c>
       <c r="B232" s="53">
         <v>25</v>
       </c>
       <c r="C232" s="68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="56"/>
         <v>45359.583333333336</v>
       </c>
       <c r="D232" s="117"/>
@@ -7283,14 +9282,14 @@
     </row>
     <row r="233" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A08</v>
       </c>
       <c r="B233" s="53">
         <v>25</v>
       </c>
       <c r="C233" s="68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="56"/>
         <v>45359.590277777781</v>
       </c>
       <c r="D233" s="117"/>
@@ -7317,14 +9316,14 @@
     </row>
     <row r="234" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A09</v>
       </c>
       <c r="B234" s="53">
         <v>25</v>
       </c>
       <c r="C234" s="68">
-        <f t="shared" si="37"/>
+        <f t="shared" si="56"/>
         <v>45359.597222222226</v>
       </c>
       <c r="D234" s="117"/>
@@ -7351,14 +9350,14 @@
     </row>
     <row r="235" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_A10</v>
       </c>
       <c r="B235" s="54">
         <v>25</v>
       </c>
       <c r="C235" s="71">
-        <f t="shared" si="37"/>
+        <f t="shared" si="56"/>
         <v>45359.604166666672</v>
       </c>
       <c r="D235" s="119"/>
@@ -7383,195 +9382,343 @@
       </c>
       <c r="L235" s="132"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A236" s="29" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B01</v>
       </c>
       <c r="B236" s="73">
         <v>25</v>
       </c>
-      <c r="C236" s="77"/>
+      <c r="C236" s="77">
+        <v>45427.65625</v>
+      </c>
       <c r="D236" s="116"/>
       <c r="E236" s="22"/>
-      <c r="F236" s="22"/>
-      <c r="G236" s="128"/>
-      <c r="H236" s="128"/>
-      <c r="I236" s="22"/>
-      <c r="J236" s="22"/>
-      <c r="K236" s="129"/>
-      <c r="L236" s="115"/>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F236" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G236" s="128">
+        <v>27.8</v>
+      </c>
+      <c r="H236" s="128">
+        <v>27.8</v>
+      </c>
+      <c r="I236" s="70">
+        <v>0.65763888888888888</v>
+      </c>
+      <c r="J236" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="K236" s="129" t="s">
+        <v>150</v>
+      </c>
+      <c r="L236" s="115" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B02</v>
       </c>
       <c r="B237" s="53">
         <v>25</v>
       </c>
-      <c r="C237" s="68"/>
+      <c r="C237" s="68">
+        <f t="shared" si="56"/>
+        <v>45427.663194444445</v>
+      </c>
       <c r="D237" s="117"/>
       <c r="E237" s="9"/>
-      <c r="F237" s="9"/>
-      <c r="G237" s="123"/>
-      <c r="H237" s="123"/>
-      <c r="I237" s="9"/>
-      <c r="J237" s="9"/>
-      <c r="K237" s="121"/>
+      <c r="F237" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G237" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="H237" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="I237" s="122">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="J237" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="K237" s="121" t="s">
+        <v>311</v>
+      </c>
       <c r="L237" s="112"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B03</v>
       </c>
       <c r="B238" s="53">
         <v>25</v>
       </c>
-      <c r="C238" s="68"/>
+      <c r="C238" s="68">
+        <f t="shared" si="56"/>
+        <v>45427.670138888891</v>
+      </c>
       <c r="D238" s="117"/>
       <c r="E238" s="9"/>
-      <c r="F238" s="9"/>
-      <c r="G238" s="123"/>
-      <c r="H238" s="123"/>
-      <c r="I238" s="9"/>
-      <c r="J238" s="9"/>
-      <c r="K238" s="121"/>
+      <c r="F238" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G238" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="H238" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="I238" s="122">
+        <v>0.67152777777777772</v>
+      </c>
+      <c r="J238" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="K238" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L238" s="112"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B04</v>
       </c>
       <c r="B239" s="53">
         <v>25</v>
       </c>
-      <c r="C239" s="68"/>
+      <c r="C239" s="68">
+        <f t="shared" si="56"/>
+        <v>45427.677083333336</v>
+      </c>
       <c r="D239" s="117"/>
       <c r="E239" s="9"/>
-      <c r="F239" s="9"/>
-      <c r="G239" s="123"/>
-      <c r="H239" s="123"/>
-      <c r="I239" s="9"/>
-      <c r="J239" s="9"/>
-      <c r="K239" s="121"/>
+      <c r="F239" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G239" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="H239" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="I239" s="122">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="J239" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="K239" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L239" s="112"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B05</v>
       </c>
       <c r="B240" s="53">
         <v>25</v>
       </c>
-      <c r="C240" s="68"/>
+      <c r="C240" s="68">
+        <f t="shared" si="56"/>
+        <v>45427.684027777781</v>
+      </c>
       <c r="D240" s="117"/>
       <c r="E240" s="9"/>
-      <c r="F240" s="9"/>
-      <c r="G240" s="123"/>
-      <c r="H240" s="123"/>
-      <c r="I240" s="9"/>
-      <c r="J240" s="9"/>
-      <c r="K240" s="121"/>
+      <c r="F240" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G240" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="H240" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="I240" s="122">
+        <v>0.69305555555555554</v>
+      </c>
+      <c r="J240" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="K240" s="121" t="s">
+        <v>150</v>
+      </c>
       <c r="L240" s="112"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B06</v>
       </c>
       <c r="B241" s="53">
         <v>25</v>
       </c>
-      <c r="C241" s="68"/>
+      <c r="C241" s="68">
+        <f t="shared" si="56"/>
+        <v>45427.690972222226</v>
+      </c>
       <c r="D241" s="117"/>
       <c r="E241" s="9"/>
-      <c r="F241" s="9"/>
-      <c r="G241" s="123"/>
-      <c r="H241" s="123"/>
-      <c r="I241" s="9"/>
-      <c r="J241" s="9"/>
-      <c r="K241" s="121"/>
-      <c r="L241" s="112"/>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F241" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G241" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="H241" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="I241" s="122">
+        <v>0.69930555555555551</v>
+      </c>
+      <c r="J241" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="K241" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="L241" s="112" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B07</v>
       </c>
       <c r="B242" s="53">
         <v>25</v>
       </c>
-      <c r="C242" s="68"/>
+      <c r="C242" s="68">
+        <f t="shared" si="56"/>
+        <v>45427.697916666672</v>
+      </c>
       <c r="D242" s="117"/>
       <c r="E242" s="9"/>
-      <c r="F242" s="9"/>
-      <c r="G242" s="123"/>
-      <c r="H242" s="123"/>
-      <c r="I242" s="9"/>
-      <c r="J242" s="9"/>
-      <c r="K242" s="121"/>
+      <c r="F242" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G242" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="H242" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="I242" s="122">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="J242" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="K242" s="121" t="s">
+        <v>332</v>
+      </c>
       <c r="L242" s="112"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B08</v>
       </c>
       <c r="B243" s="53">
         <v>25</v>
       </c>
-      <c r="C243" s="68"/>
+      <c r="C243" s="68">
+        <f t="shared" si="56"/>
+        <v>45427.704861111117</v>
+      </c>
       <c r="D243" s="117"/>
       <c r="E243" s="9"/>
-      <c r="F243" s="9"/>
-      <c r="G243" s="123"/>
-      <c r="H243" s="123"/>
+      <c r="F243" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G243" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="H243" s="123">
+        <v>27.8</v>
+      </c>
       <c r="I243" s="9"/>
-      <c r="J243" s="9"/>
-      <c r="K243" s="121"/>
-      <c r="L243" s="112"/>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J243" s="108" t="s">
+        <v>329</v>
+      </c>
+      <c r="K243" s="121" t="s">
+        <v>333</v>
+      </c>
+      <c r="L243" s="132" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A244" s="31" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B09</v>
       </c>
       <c r="B244" s="53">
         <v>25</v>
       </c>
-      <c r="C244" s="68"/>
+      <c r="C244" s="68">
+        <f t="shared" si="56"/>
+        <v>45427.711805555562</v>
+      </c>
       <c r="D244" s="117"/>
       <c r="E244" s="9"/>
-      <c r="F244" s="9"/>
-      <c r="G244" s="123"/>
-      <c r="H244" s="123"/>
+      <c r="F244" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G244" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="H244" s="123">
+        <v>27.8</v>
+      </c>
       <c r="I244" s="9"/>
-      <c r="J244" s="9"/>
-      <c r="K244" s="121"/>
+      <c r="J244" s="108" t="s">
+        <v>330</v>
+      </c>
+      <c r="K244" s="121" t="s">
+        <v>340</v>
+      </c>
       <c r="L244" s="112"/>
     </row>
-    <row r="245" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="33" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>UCT_AST9AH_B10</v>
       </c>
       <c r="B245" s="54">
         <v>25</v>
       </c>
-      <c r="C245" s="71"/>
+      <c r="C245" s="68">
+        <f t="shared" si="56"/>
+        <v>45427.718750000007</v>
+      </c>
       <c r="D245" s="119"/>
       <c r="E245" s="16"/>
-      <c r="F245" s="16"/>
-      <c r="G245" s="130"/>
-      <c r="H245" s="130"/>
+      <c r="F245" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="G245" s="130">
+        <v>27.8</v>
+      </c>
+      <c r="H245" s="130">
+        <v>27.8</v>
+      </c>
       <c r="I245" s="16"/>
-      <c r="J245" s="16"/>
-      <c r="K245" s="131"/>
-      <c r="L245" s="132"/>
+      <c r="J245" s="108" t="s">
+        <v>331</v>
+      </c>
+      <c r="K245" s="131" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="247" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="113" t="s">
@@ -7642,17 +9789,17 @@
     </row>
     <row r="263" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="264" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E264" s="145" t="s">
+      <c r="E264" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="F264" s="146"/>
-      <c r="I264" s="144"/>
-      <c r="J264" s="144"/>
-      <c r="K264" s="144"/>
-      <c r="L264" s="144"/>
-      <c r="M264" s="144"/>
-      <c r="N264" s="144"/>
-      <c r="O264" s="144"/>
+      <c r="F264" s="156"/>
+      <c r="I264" s="154"/>
+      <c r="J264" s="154"/>
+      <c r="K264" s="154"/>
+      <c r="L264" s="154"/>
+      <c r="M264" s="154"/>
+      <c r="N264" s="154"/>
+      <c r="O264" s="154"/>
     </row>
     <row r="265" spans="1:15" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="50" t="s">
@@ -7912,7 +10059,7 @@
         <v>UCT_AST9AH_A04</v>
       </c>
       <c r="B284" s="68">
-        <f t="shared" ref="B284" si="38">B278+$C$260</f>
+        <f t="shared" ref="B284" si="57">B278+$C$260</f>
         <v>45357.458333333343</v>
       </c>
       <c r="C284" s="83" t="s">
@@ -7984,7 +10131,7 @@
         <v>UCT_AST9AH_A05</v>
       </c>
       <c r="B290" s="68">
-        <f t="shared" ref="B290" si="39">B284+$C$260</f>
+        <f t="shared" ref="B290" si="58">B284+$C$260</f>
         <v>45357.479166666679</v>
       </c>
       <c r="C290" s="83" t="s">
@@ -8056,7 +10203,7 @@
         <v>UCT_AST9AH_A06</v>
       </c>
       <c r="B296" s="68">
-        <f t="shared" ref="B296" si="40">B290+$C$260</f>
+        <f t="shared" ref="B296" si="59">B290+$C$260</f>
         <v>45357.500000000015</v>
       </c>
       <c r="C296" s="83" t="s">
@@ -8128,7 +10275,7 @@
         <v>UCT_AST9AH_A07</v>
       </c>
       <c r="B302" s="68">
-        <f t="shared" ref="B302" si="41">B296+$C$260</f>
+        <f t="shared" ref="B302" si="60">B296+$C$260</f>
         <v>45357.52083333335</v>
       </c>
       <c r="C302" s="83" t="s">
@@ -8200,7 +10347,7 @@
         <v>UCT_AST9AH_A08</v>
       </c>
       <c r="B308" s="68">
-        <f t="shared" ref="B308" si="42">B302+$C$260</f>
+        <f t="shared" ref="B308" si="61">B302+$C$260</f>
         <v>45357.541666666686</v>
       </c>
       <c r="C308" s="83" t="s">
@@ -8272,7 +10419,7 @@
         <v>UCT_AST9AH_A09</v>
       </c>
       <c r="B314" s="68">
-        <f t="shared" ref="B314" si="43">B308+$C$260</f>
+        <f t="shared" ref="B314" si="62">B308+$C$260</f>
         <v>45357.562500000022</v>
       </c>
       <c r="C314" s="83" t="s">
@@ -8344,7 +10491,7 @@
         <v>UCT_AST9AH_A10</v>
       </c>
       <c r="B320" s="68">
-        <f t="shared" ref="B320" si="44">B314+$C$260</f>
+        <f t="shared" ref="B320" si="63">B314+$C$260</f>
         <v>45357.583333333358</v>
       </c>
       <c r="C320" s="83" t="s">
@@ -9114,31 +11261,219 @@
       <formula>NOW()</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C61">
+    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
+      <formula>$D$61="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C61:C62">
-    <cfRule type="cellIs" dxfId="4" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="greaterThan">
       <formula>NOW()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>NOW()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:C65">
-    <cfRule type="cellIs" dxfId="2" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
       <formula>NOW()</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>NOW()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
-    <cfRule type="expression" dxfId="0" priority="15" stopIfTrue="1">
-      <formula>$D$61="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{BF63D43C-AA45-C44C-924F-4BD0F60D6CEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598D2069-00D6-B049-BA5E-D047819A7E56}">
+  <dimension ref="A4:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>Data!A79</f>
+        <v>UCT_AST9AH_B01</v>
+      </c>
+      <c r="B5" s="157">
+        <f>Data!E79</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="158">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>Data!A80</f>
+        <v>UCT_AST9AH_B02</v>
+      </c>
+      <c r="B6" s="157">
+        <f>Data!E80</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="C6" s="158">
+        <v>12.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>Data!A81</f>
+        <v>UCT_AST9AH_B03</v>
+      </c>
+      <c r="B7" s="157">
+        <f>Data!E81</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="C7" s="158">
+        <v>12.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>Data!A82</f>
+        <v>UCT_AST9AH_B04</v>
+      </c>
+      <c r="B8" s="157">
+        <f>Data!E82</f>
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="158">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>Data!A83</f>
+        <v>UCT_AST9AH_B05</v>
+      </c>
+      <c r="B9" s="157">
+        <f>Data!E83</f>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="C9" s="158">
+        <v>12.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>Data!A84</f>
+        <v>UCT_AST9AH_B06</v>
+      </c>
+      <c r="B10" s="157">
+        <f>Data!E84</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C10" s="158">
+        <v>12.21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>Data!A85</f>
+        <v>UCT_AST9AH_B07</v>
+      </c>
+      <c r="B11" s="157">
+        <f>Data!E85</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C11" s="158">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>Data!A86</f>
+        <v>UCT_AST9AH_B08</v>
+      </c>
+      <c r="B12" s="157">
+        <f>Data!E86</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="C12" s="158">
+        <v>12.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>Data!A87</f>
+        <v>UCT_AST9AH_B09</v>
+      </c>
+      <c r="B13" s="157">
+        <f>Data!E87</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="C13" s="158">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>Data!A88</f>
+        <v>UCT_AST9AH_B10</v>
+      </c>
+      <c r="B14" s="157">
+        <f>Data!E88</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="C14" s="158">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="C16" s="159">
+        <v>45428.34375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17">
+        <v>-19.3</v>
+      </c>
+      <c r="C17" s="159">
+        <v>45428.677083333336</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9414,16 +11749,16 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{901EC520-2D98-477B-91AE-691A6EF8A951}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="f7122e4b-9ebe-4e7f-8fe9-d038fef3055f"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="760f229c-99bf-4186-a7de-2d3c0bf5f7b2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/UCT AST9AH Measurements and Observations.xlsx
+++ b/Data/UCT AST9AH Measurements and Observations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud.sharepoint.com/sites/PolarPowerSupplyProject/Shared Documents/General/Experiments/SISPS-AST9AH-EIS/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrence/GitHub/SISPS-AST9AH-EIS/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="766" documentId="13_ncr:1_{90C35BE5-2C2B-B846-BB04-5AF570ABE74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{719BB034-DCB5-174A-855C-0BB091ECC81B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA4FB34-9954-5F45-8C33-D55113CE899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="1" xr2:uid="{2D714440-C168-0944-94A3-C5B7A6F22ECE}"/>
+    <workbookView xWindow="-59460" yWindow="-28320" windowWidth="51200" windowHeight="28320" xr2:uid="{2D714440-C168-0944-94A3-C5B7A6F22ECE}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="345">
   <si>
     <t>March 2024</t>
   </si>
@@ -1084,10 +1084,6 @@
     <t>B01-B08 Eth Glycol</t>
   </si>
   <si>
-    <t>Batteries dried and staged as prior completes EIS.
-After EIS B01-B08 placed back at -20°C for OCV test next morning on 16May. B01-B03 then placed in water bath to heat up (all else brought up in air).</t>
-  </si>
-  <si>
     <t>Placed momentrily in water bath but removed when audible noise heard.</t>
   </si>
   <si>
@@ -1104,6 +1100,14 @@
   </si>
   <si>
     <t>B09-B10 Eth Glycol</t>
+  </si>
+  <si>
+    <t>ARCHIVED. This table is injested by analysis scripts. Further format modifications may break fragile logic.</t>
+  </si>
+  <si>
+    <t>Batteries dried and staged as prior completes EIS.
+After EIS B01-B08 placed back at -20°C for OCV test next morning on 16May. B01-B03 then placed in water bath to heat up (all else brought up in air).
+Failed to measure full range of ambiant temperatures. Final room temperature take at the end of experimentation as point value.</t>
   </si>
 </sst>
 </file>
@@ -1128,9 +1132,9 @@
     <numFmt numFmtId="178" formatCode="0.000"/>
     <numFmt numFmtId="179" formatCode="0.0&quot;°C&quot;"/>
     <numFmt numFmtId="180" formatCode="0.00&quot;sg&quot;"/>
-    <numFmt numFmtId="182" formatCode="00.00&quot;V&quot;"/>
+    <numFmt numFmtId="181" formatCode="00.00&quot;V&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1209,6 +1213,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1779,7 +1791,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2006,6 +2018,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2013,9 +2028,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
@@ -2121,7 +2136,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3369,10 +3384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3482702-7117-A44F-801D-5A642D2CA644}">
-  <dimension ref="A1:O385"/>
+  <dimension ref="A1:O386"/>
   <sheetViews>
-    <sheetView topLeftCell="G222" zoomScale="86" workbookViewId="0">
-      <selection activeCell="L245" sqref="L245"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="86" workbookViewId="0">
+      <selection activeCell="L238" sqref="L238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3402,98 +3417,92 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A3" s="160" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:2" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="41">
-        <v>45352</v>
-      </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -3504,7 +3513,7 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -3512,10 +3521,10 @@
         <v>45352</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -3526,29 +3535,29 @@
         <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="41">
-        <v>45353</v>
+        <v>45352</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="41">
-        <v>45355</v>
+        <v>45353</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -3559,7 +3568,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3570,7 +3579,7 @@
         <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -3581,166 +3590,144 @@
         <v>46</v>
       </c>
       <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="41">
+        <v>45355</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:3" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="99"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60" t="s">
+    <row r="30" spans="1:3" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="99"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="56" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B32" s="20">
         <v>45355.5</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C32" s="62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+    <row r="33" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="65">
+      <c r="B33" s="65">
         <v>45363.5</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C33" s="66" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:12" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+    <row r="34" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:12" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B35" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C35" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D35" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E35" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F35" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G35" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="24" t="s">
+      <c r="H35" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="24" t="s">
+      <c r="I35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24" t="s">
+      <c r="J35" s="24"/>
+      <c r="K35" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L34" s="48" t="s">
+      <c r="L35" s="48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="88" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B36" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C36" s="25">
         <v>0</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D36" s="25">
         <v>0</v>
       </c>
-      <c r="E35" s="26">
-        <f>D35-C35</f>
+      <c r="E36" s="26">
+        <f>D36-C36</f>
         <v>0</v>
       </c>
-      <c r="F35" s="104">
+      <c r="F36" s="104">
         <v>2.78016</v>
       </c>
-      <c r="G35" s="96"/>
-      <c r="H35" s="12">
-        <f t="shared" ref="H35:H44" si="0">(G35-F35)/F35</f>
+      <c r="G36" s="96"/>
+      <c r="H36" s="12">
+        <f t="shared" ref="H36:H45" si="0">(G36-F36)/F36</f>
         <v>-1</v>
       </c>
-      <c r="I35" s="27" t="s">
+      <c r="I36" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28" t="s">
+      <c r="J36" s="27"/>
+      <c r="K36" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L35" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="31" t="str">
-        <f>A35</f>
-        <v>Asterion HR12-9</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="14">
-        <f t="shared" ref="E36:E54" si="1">D36-C36</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="105">
-        <v>2.7762099999999998</v>
-      </c>
-      <c r="G36" s="97"/>
-      <c r="H36" s="12">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L36" s="15" t="s">
+      <c r="L36" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="str">
-        <f t="shared" ref="A37:A54" si="2">A36</f>
+        <f>A36</f>
         <v>Asterion HR12-9</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E37:E55" si="1">D37-C37</f>
         <v>0</v>
       </c>
       <c r="F37" s="105">
-        <v>2.76172</v>
+        <v>2.7762099999999998</v>
       </c>
       <c r="G37" s="97"/>
       <c r="H37" s="12">
@@ -3760,11 +3747,11 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A38:A55" si="2">A37</f>
         <v>Asterion HR12-9</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -3773,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="105">
-        <v>2.76877</v>
+        <v>2.76172</v>
       </c>
       <c r="G38" s="97"/>
       <c r="H38" s="12">
@@ -3797,7 +3784,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -3806,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="105">
-        <v>2.8359999999999999</v>
+        <v>2.76877</v>
       </c>
       <c r="G39" s="97"/>
       <c r="H39" s="12">
@@ -3830,7 +3817,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -3839,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="105">
-        <v>2.7717100000000001</v>
+        <v>2.8359999999999999</v>
       </c>
       <c r="G40" s="97"/>
       <c r="H40" s="12">
@@ -3863,7 +3850,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -3872,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="105">
-        <v>2.7770999999999999</v>
+        <v>2.7717100000000001</v>
       </c>
       <c r="G41" s="97"/>
       <c r="H41" s="12">
@@ -3896,7 +3883,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -3905,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="105">
-        <v>2.7640799999999999</v>
+        <v>2.7770999999999999</v>
       </c>
       <c r="G42" s="97"/>
       <c r="H42" s="12">
@@ -3929,7 +3916,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -3937,8 +3924,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F43" s="107">
-        <v>2.75346</v>
+      <c r="F43" s="105">
+        <v>2.7640799999999999</v>
       </c>
       <c r="G43" s="97"/>
       <c r="H43" s="12">
@@ -3962,7 +3949,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -3970,8 +3957,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F44" s="105">
-        <v>2.7809699999999999</v>
+      <c r="F44" s="107">
+        <v>2.75346</v>
       </c>
       <c r="G44" s="97"/>
       <c r="H44" s="12">
@@ -3995,7 +3982,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -4004,19 +3991,23 @@
         <v>0</v>
       </c>
       <c r="F45" s="105">
-        <v>2.7748499999999998</v>
+        <v>2.7809699999999999</v>
       </c>
       <c r="G45" s="97"/>
       <c r="H45" s="12">
-        <f>(G45-F45)/F45</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="I45" s="9">
-        <v>7</v>
-      </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="15"/>
+      <c r="I45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="31" t="str">
@@ -4024,7 +4015,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -4033,15 +4024,15 @@
         <v>0</v>
       </c>
       <c r="F46" s="105">
-        <v>2.7733699999999999</v>
+        <v>2.7748499999999998</v>
       </c>
       <c r="G46" s="97"/>
       <c r="H46" s="12">
-        <f t="shared" ref="H46:H54" si="3">(G46-F46)/F46</f>
+        <f>(G46-F46)/F46</f>
         <v>-1</v>
       </c>
       <c r="I46" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
@@ -4053,7 +4044,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -4062,15 +4053,15 @@
         <v>0</v>
       </c>
       <c r="F47" s="105">
-        <v>2.7837800000000001</v>
+        <v>2.7733699999999999</v>
       </c>
       <c r="G47" s="97"/>
       <c r="H47" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H47:H55" si="3">(G47-F47)/F47</f>
         <v>-1</v>
       </c>
       <c r="I47" s="9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -4082,7 +4073,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -4091,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="105">
-        <v>2.7556099999999999</v>
+        <v>2.7837800000000001</v>
       </c>
       <c r="G48" s="97"/>
       <c r="H48" s="12">
@@ -4099,7 +4090,7 @@
         <v>-1</v>
       </c>
       <c r="I48" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -4111,7 +4102,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -4120,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="105">
-        <v>2.7665099999999998</v>
+        <v>2.7556099999999999</v>
       </c>
       <c r="G49" s="97"/>
       <c r="H49" s="12">
@@ -4128,7 +4119,7 @@
         <v>-1</v>
       </c>
       <c r="I49" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -4140,7 +4131,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -4149,14 +4140,16 @@
         <v>0</v>
       </c>
       <c r="F50" s="105">
-        <v>2.76803</v>
+        <v>2.7665099999999998</v>
       </c>
       <c r="G50" s="97"/>
       <c r="H50" s="12">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="I50" s="9"/>
+      <c r="I50" s="9">
+        <v>15</v>
+      </c>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="15"/>
@@ -4167,7 +4160,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -4176,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="105">
-        <v>2.7915199999999998</v>
+        <v>2.76803</v>
       </c>
       <c r="G51" s="97"/>
       <c r="H51" s="12">
@@ -4194,7 +4187,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
@@ -4203,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="105">
-        <v>2.7892600000000001</v>
+        <v>2.7915199999999998</v>
       </c>
       <c r="G52" s="97"/>
       <c r="H52" s="12">
@@ -4221,7 +4214,7 @@
         <v>Asterion HR12-9</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -4230,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="105">
-        <v>2.7850899999999998</v>
+        <v>2.7892600000000001</v>
       </c>
       <c r="G53" s="97"/>
       <c r="H53" s="12">
@@ -4242,303 +4235,301 @@
       <c r="K53" s="9"/>
       <c r="L53" s="15"/>
     </row>
-    <row r="54" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="31" t="str">
         <f t="shared" si="2"/>
         <v>Asterion HR12-9</v>
       </c>
-      <c r="B54" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="18">
+      <c r="B54" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F54" s="106">
-        <v>2.782</v>
-      </c>
-      <c r="G54" s="98"/>
+      <c r="F54" s="105">
+        <v>2.7850899999999998</v>
+      </c>
+      <c r="G54" s="97"/>
       <c r="H54" s="12">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="19"/>
-    </row>
-    <row r="56" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="s">
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="15"/>
+    </row>
+    <row r="55" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>Asterion HR12-9</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="106">
+        <v>2.782</v>
+      </c>
+      <c r="G55" s="98"/>
+      <c r="H55" s="12">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="19"/>
+    </row>
+    <row r="57" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:12" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="55" t="s">
+    <row r="60" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="60" t="s">
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="60" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="61"/>
-      <c r="B61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="20">
-        <v>45355.479166666664</v>
-      </c>
-      <c r="D61" s="62" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="61"/>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C62" s="20">
-        <v>45363.5</v>
+        <v>45355.479166666664</v>
       </c>
       <c r="D62" s="62" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="56" t="s">
+      <c r="A63" s="61"/>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="20">
+        <v>45363.5</v>
+      </c>
+      <c r="D63" s="62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="63"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="56"/>
-      <c r="B64" t="s">
+      <c r="C64" s="20"/>
+      <c r="D64" s="63"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="56"/>
+      <c r="B65" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C65" s="20">
         <v>45355.701388888891</v>
       </c>
-      <c r="D64" s="62" t="s">
+      <c r="D65" s="62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="64" t="s">
+    <row r="66" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="57"/>
+      <c r="B66" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="65">
+      <c r="C66" s="65">
         <v>45363.701388888891</v>
       </c>
-      <c r="D65" s="66" t="s">
+      <c r="D66" s="66" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C66" s="20"/>
-    </row>
-    <row r="67" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L67" s="20"/>
-    </row>
-    <row r="68" spans="1:12" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="47" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C67" s="20"/>
+    </row>
+    <row r="68" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L68" s="20"/>
+    </row>
+    <row r="69" spans="1:12" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B69" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C69" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D69" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="24" t="s">
+      <c r="E69" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F68" s="24" t="s">
+      <c r="F69" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G68" s="24" t="s">
+      <c r="G69" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H68" s="48" t="s">
+      <c r="H69" s="48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="str">
-        <f t="shared" ref="A69:A88" si="4">B35</f>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="29" t="str">
+        <f t="shared" ref="A70:A89" si="4">B36</f>
         <v>UCT_AST9AH_A01</v>
       </c>
-      <c r="B69" s="42" t="s">
+      <c r="B70" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C70" s="35">
         <v>0</v>
       </c>
-      <c r="D69" s="92">
-        <f>MINUTE(C69)+HOUR(C69)*60</f>
+      <c r="D70" s="92">
+        <f>MINUTE(C70)+HOUR(C70)*60</f>
         <v>0</v>
       </c>
-      <c r="E69" s="40">
+      <c r="E70" s="40">
         <v>1</v>
       </c>
-      <c r="F69" s="22">
+      <c r="F70" s="22">
         <v>15</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G70" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="H69" s="23" t="s">
+      <c r="H70" s="23" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A70" s="31" t="str">
-        <f t="shared" si="4"/>
-        <v>UCT_AST9AH_A02</v>
-      </c>
-      <c r="B70" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="C70" s="36">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="D70" s="93">
-        <f t="shared" ref="D70:D88" si="5">MINUTE(C70)+HOUR(C70)*60</f>
-        <v>40</v>
-      </c>
-      <c r="E70" s="38">
-        <f>(9-B70*D70/60)/9</f>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="F70" s="9">
-        <v>14</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H70" s="15"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_A03</v>
+        <v>UCT_AST9AH_A02</v>
       </c>
       <c r="B71" s="43">
         <v>0.9</v>
       </c>
       <c r="C71" s="36">
-        <v>5.5555555555555601E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="D71" s="93">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <f t="shared" ref="D71:D89" si="5">MINUTE(C71)+HOUR(C71)*60</f>
+        <v>40</v>
       </c>
       <c r="E71" s="38">
-        <f t="shared" ref="E71:E88" si="6">(9-B71*D71/60)/9</f>
-        <v>0.8666666666666667</v>
+        <f>(9-B71*D71/60)/9</f>
+        <v>0.93333333333333335</v>
       </c>
       <c r="F71" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H71" s="15"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_A04</v>
+        <v>UCT_AST9AH_A03</v>
       </c>
       <c r="B72" s="43">
         <v>0.9</v>
       </c>
       <c r="C72" s="36">
-        <v>8.3333333333333301E-2</v>
+        <v>5.5555555555555601E-2</v>
       </c>
       <c r="D72" s="93">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E72" s="38">
-        <f t="shared" si="6"/>
-        <v>0.8</v>
+        <f t="shared" ref="E72:E89" si="6">(9-B72*D72/60)/9</f>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F72" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H72" s="15"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_A05</v>
+        <v>UCT_AST9AH_A04</v>
       </c>
       <c r="B73" s="43">
         <v>0.9</v>
       </c>
       <c r="C73" s="36">
-        <v>0.11111111111111099</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="D73" s="93">
         <f t="shared" si="5"/>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E73" s="38">
         <f t="shared" si="6"/>
-        <v>0.73333333333333328</v>
+        <v>0.8</v>
       </c>
       <c r="F73" s="9">
         <v>15</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>140</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H73" s="15"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_A06</v>
+        <v>UCT_AST9AH_A05</v>
       </c>
       <c r="B74" s="43">
         <v>0.9</v>
       </c>
       <c r="C74" s="36">
-        <v>0.13888888888888901</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="D74" s="93">
         <f t="shared" si="5"/>
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E74" s="38">
         <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="F74" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H74" s="15" t="s">
         <v>140</v>
@@ -4547,27 +4538,27 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_A07</v>
+        <v>UCT_AST9AH_A06</v>
       </c>
       <c r="B75" s="43">
         <v>0.9</v>
       </c>
       <c r="C75" s="36">
-        <v>0.16666666666666699</v>
+        <v>0.13888888888888901</v>
       </c>
       <c r="D75" s="93">
         <f t="shared" si="5"/>
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E75" s="38">
         <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F75" s="9">
-        <v>13</v>
-      </c>
-      <c r="G75" s="108" t="s">
-        <v>105</v>
+        <v>14</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="H75" s="15" t="s">
         <v>140</v>
@@ -4576,27 +4567,27 @@
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_A08</v>
+        <v>UCT_AST9AH_A07</v>
       </c>
       <c r="B76" s="43">
         <v>0.9</v>
       </c>
       <c r="C76" s="36">
-        <v>0.194444444444444</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="D76" s="93">
         <f t="shared" si="5"/>
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="E76" s="38">
         <f t="shared" si="6"/>
-        <v>0.53333333333333333</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F76" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" s="108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H76" s="15" t="s">
         <v>140</v>
@@ -4605,135 +4596,138 @@
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_A09</v>
+        <v>UCT_AST9AH_A08</v>
       </c>
       <c r="B77" s="43">
         <v>0.9</v>
       </c>
       <c r="C77" s="36">
-        <v>0.22222222222222199</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="D77" s="93">
         <f t="shared" si="5"/>
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="E77" s="38">
         <f t="shared" si="6"/>
-        <v>0.46666666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="F77" s="9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G77" s="108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H77" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="74" t="str">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>UCT_AST9AH_A09</v>
+      </c>
+      <c r="B78" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="C78" s="36">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="D78" s="93">
+        <f t="shared" si="5"/>
+        <v>320</v>
+      </c>
+      <c r="E78" s="38">
+        <f t="shared" si="6"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F78" s="9">
+        <v>7</v>
+      </c>
+      <c r="G78" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="74" t="str">
         <f t="shared" si="4"/>
         <v>UCT_AST9AH_A10</v>
       </c>
-      <c r="B78" s="89">
+      <c r="B79" s="89">
         <v>0.9</v>
       </c>
-      <c r="C78" s="90">
+      <c r="C79" s="90">
         <v>0.25</v>
       </c>
-      <c r="D78" s="94">
+      <c r="D79" s="94">
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="E78" s="91">
+      <c r="E79" s="91">
         <f t="shared" si="6"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="F78" s="76">
+      <c r="F79" s="76">
         <v>8</v>
       </c>
-      <c r="G78" s="144" t="s">
+      <c r="G79" s="144" t="s">
         <v>108</v>
       </c>
-      <c r="H78" s="145" t="s">
+      <c r="H79" s="145" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="29" t="str">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="29" t="str">
         <f t="shared" si="4"/>
         <v>UCT_AST9AH_B01</v>
       </c>
-      <c r="B79" s="42">
+      <c r="B80" s="42">
         <v>0.9</v>
       </c>
-      <c r="C79" s="35">
+      <c r="C80" s="35">
         <v>0</v>
       </c>
-      <c r="D79" s="92">
+      <c r="D80" s="92">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E79" s="40">
+      <c r="E80" s="40">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="F79" s="22">
-        <f t="shared" ref="F79:F82" si="7">I45</f>
+      <c r="F80" s="22">
+        <f t="shared" ref="F80:F83" si="7">I46</f>
         <v>7</v>
       </c>
-      <c r="G79" s="22"/>
-      <c r="H79" s="23"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="31" t="str">
-        <f t="shared" si="4"/>
-        <v>UCT_AST9AH_B02</v>
-      </c>
-      <c r="B80" s="43">
-        <v>0.9</v>
-      </c>
-      <c r="C80" s="36">
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="D80" s="93">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="E80" s="38">
-        <f t="shared" si="6"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="F80" s="9">
-        <f t="shared" si="7"/>
-        <v>8</v>
-      </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="15"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="23"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_B03</v>
+        <v>UCT_AST9AH_B02</v>
       </c>
       <c r="B81" s="43">
         <v>0.9</v>
       </c>
       <c r="C81" s="36">
-        <v>5.5555555555555601E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="D81" s="93">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E81" s="38">
         <f t="shared" si="6"/>
-        <v>0.8666666666666667</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="F81" s="9">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="15"/>
@@ -4741,25 +4735,25 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_B04</v>
+        <v>UCT_AST9AH_B03</v>
       </c>
       <c r="B82" s="43">
         <v>0.9</v>
       </c>
       <c r="C82" s="36">
-        <v>8.3333333333333301E-2</v>
+        <v>5.5555555555555601E-2</v>
       </c>
       <c r="D82" s="93">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="E82" s="38">
         <f t="shared" si="6"/>
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="F82" s="9">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="15"/>
@@ -4767,25 +4761,25 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_B05</v>
+        <v>UCT_AST9AH_B04</v>
       </c>
       <c r="B83" s="43">
         <v>0.9</v>
       </c>
       <c r="C83" s="36">
-        <v>0.11111111111111099</v>
+        <v>8.3333333333333301E-2</v>
       </c>
       <c r="D83" s="93">
         <f t="shared" si="5"/>
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="E83" s="38">
         <f t="shared" si="6"/>
-        <v>0.73333333333333328</v>
+        <v>0.8</v>
       </c>
       <c r="F83" s="9">
-        <f>I49</f>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="15"/>
@@ -4793,44 +4787,47 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_B06</v>
+        <v>UCT_AST9AH_B05</v>
       </c>
       <c r="B84" s="43">
         <v>0.9</v>
       </c>
       <c r="C84" s="36">
-        <v>0.13888888888888901</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="D84" s="93">
         <f t="shared" si="5"/>
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="E84" s="38">
         <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F84" s="9"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="F84" s="9">
+        <f>I50</f>
+        <v>15</v>
+      </c>
       <c r="G84" s="9"/>
       <c r="H84" s="15"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_B07</v>
+        <v>UCT_AST9AH_B06</v>
       </c>
       <c r="B85" s="43">
         <v>0.9</v>
       </c>
       <c r="C85" s="36">
-        <v>0.16666666666666699</v>
+        <v>0.13888888888888901</v>
       </c>
       <c r="D85" s="93">
         <f t="shared" si="5"/>
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E85" s="38">
         <f t="shared" si="6"/>
-        <v>0.60000000000000009</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
@@ -4839,21 +4836,21 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_B08</v>
+        <v>UCT_AST9AH_B07</v>
       </c>
       <c r="B86" s="43">
         <v>0.9</v>
       </c>
       <c r="C86" s="36">
-        <v>0.194444444444444</v>
+        <v>0.16666666666666699</v>
       </c>
       <c r="D86" s="93">
         <f t="shared" si="5"/>
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="E86" s="38">
         <f t="shared" si="6"/>
-        <v>0.53333333333333333</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -4862,249 +4859,242 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="31" t="str">
         <f t="shared" si="4"/>
-        <v>UCT_AST9AH_B09</v>
+        <v>UCT_AST9AH_B08</v>
       </c>
       <c r="B87" s="43">
         <v>0.9</v>
       </c>
       <c r="C87" s="36">
-        <v>0.22222222222222199</v>
+        <v>0.194444444444444</v>
       </c>
       <c r="D87" s="93">
         <f t="shared" si="5"/>
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="E87" s="38">
         <f t="shared" si="6"/>
-        <v>0.46666666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="15"/>
     </row>
-    <row r="88" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="str">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>UCT_AST9AH_B09</v>
+      </c>
+      <c r="B88" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="C88" s="36">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="D88" s="93">
+        <f t="shared" si="5"/>
+        <v>320</v>
+      </c>
+      <c r="E88" s="38">
+        <f t="shared" si="6"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="33" t="str">
         <f t="shared" si="4"/>
         <v>UCT_AST9AH_B10</v>
       </c>
-      <c r="B88" s="44">
+      <c r="B89" s="44">
         <v>0.9</v>
       </c>
-      <c r="C88" s="37">
+      <c r="C89" s="37">
         <v>0.25</v>
       </c>
-      <c r="D88" s="95">
+      <c r="D89" s="95">
         <f t="shared" si="5"/>
         <v>360</v>
       </c>
-      <c r="E88" s="39">
+      <c r="E89" s="39">
         <f t="shared" si="6"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="19"/>
-    </row>
-    <row r="90" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
-        <v>55</v>
-      </c>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="19"/>
     </row>
     <row r="91" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+    <row r="96" spans="1:8" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A97" s="55" t="s">
+    <row r="97" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B97" s="114">
+      <c r="B98" s="114">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G97" s="111"/>
-    </row>
-    <row r="98" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="57" t="s">
+      <c r="G98" s="111"/>
+    </row>
+    <row r="99" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B98" s="58">
+      <c r="B99" s="58">
         <v>2</v>
       </c>
-      <c r="G98" s="109"/>
-      <c r="K98" s="46"/>
-    </row>
-    <row r="99" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
+      <c r="G99" s="109"/>
       <c r="K99" s="46"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" s="55" t="s">
+    <row r="100" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="K100" s="46"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B100" s="59"/>
-      <c r="C100" s="78"/>
-      <c r="G100" s="46"/>
-      <c r="K100" s="46"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A101" s="56"/>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="59"/>
+      <c r="C101" s="78"/>
+      <c r="G101" s="46"/>
+      <c r="K101" s="46"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="56"/>
+      <c r="B102" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C101" s="79">
+      <c r="C102" s="79">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="G101" s="111"/>
-      <c r="K101" s="46"/>
-    </row>
-    <row r="102" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="57"/>
-      <c r="B102" s="81" t="s">
+      <c r="G102" s="111"/>
+      <c r="K102" s="46"/>
+    </row>
+    <row r="103" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="57"/>
+      <c r="B103" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C102" s="80">
+      <c r="C103" s="80">
         <v>0.125</v>
       </c>
-      <c r="G102" s="46"/>
-      <c r="K102" s="110"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="G103" s="110"/>
-    </row>
-    <row r="104" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="45"/>
+      <c r="G103" s="46"/>
+      <c r="K103" s="110"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="5"/>
+      <c r="G104" s="110"/>
     </row>
     <row r="105" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="50" t="s">
+      <c r="B105" s="45"/>
+    </row>
+    <row r="106" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="51" t="s">
+      <c r="B106" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C105" s="51" t="s">
+      <c r="C106" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D105" s="51" t="s">
+      <c r="D106" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="E105" s="51" t="s">
+      <c r="E106" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="F105" s="51" t="s">
+      <c r="F106" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="G105" s="51" t="s">
+      <c r="G106" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="H105" s="51" t="s">
+      <c r="H106" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="I105" s="51" t="s">
+      <c r="I106" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="J105" s="51" t="s">
+      <c r="J106" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="K105" s="51" t="s">
+      <c r="K106" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="L105" s="151" t="s">
+      <c r="L106" s="151" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A106" s="52" t="str">
-        <f t="shared" ref="A106:A125" si="8">A69</f>
+    <row r="107" spans="1:15" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A107" s="52" t="str">
+        <f t="shared" ref="A107:A126" si="8">A70</f>
         <v>UCT_AST9AH_A01</v>
       </c>
-      <c r="B106" s="72">
+      <c r="B107" s="72">
         <v>25</v>
       </c>
-      <c r="C106" s="149">
-        <f t="shared" ref="C106:C113" si="9">$C$61+C69</f>
+      <c r="C107" s="149">
+        <f t="shared" ref="C107:C114" si="9">$C$62+C70</f>
         <v>45355.479166666664</v>
       </c>
-      <c r="D106" s="120"/>
-      <c r="E106" s="146"/>
-      <c r="F106" s="148"/>
-      <c r="G106" s="124">
+      <c r="D107" s="120"/>
+      <c r="E107" s="146"/>
+      <c r="F107" s="148"/>
+      <c r="G107" s="124">
         <v>25</v>
       </c>
-      <c r="H106" s="124">
+      <c r="H107" s="124">
         <v>28</v>
       </c>
-      <c r="I106" s="49"/>
-      <c r="J106" s="49" t="s">
+      <c r="I107" s="49"/>
+      <c r="J107" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="K106" s="125" t="s">
+      <c r="K107" s="125" t="s">
         <v>123</v>
       </c>
-      <c r="L106" s="150" t="s">
+      <c r="L107" s="150" t="s">
         <v>253</v>
       </c>
-      <c r="N106"/>
-      <c r="O106"/>
-    </row>
-    <row r="107" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A107" s="31" t="str">
-        <f t="shared" si="8"/>
-        <v>UCT_AST9AH_A02</v>
-      </c>
-      <c r="B107" s="53">
-        <v>25</v>
-      </c>
-      <c r="C107" s="68">
-        <f t="shared" si="9"/>
-        <v>45355.506944444445</v>
-      </c>
-      <c r="D107" s="117"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="123">
-        <v>25</v>
-      </c>
-      <c r="H107" s="123">
-        <v>28</v>
-      </c>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="K107" s="121" t="s">
-        <v>145</v>
-      </c>
-      <c r="L107" s="112"/>
+      <c r="N107"/>
+      <c r="O107"/>
     </row>
     <row r="108" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_A03</v>
+        <v>UCT_AST9AH_A02</v>
       </c>
       <c r="B108" s="53">
         <v>25</v>
       </c>
       <c r="C108" s="68">
         <f t="shared" si="9"/>
-        <v>45355.534722222219</v>
+        <v>45355.506944444445</v>
       </c>
       <c r="D108" s="117"/>
       <c r="E108" s="9"/>
@@ -5117,24 +5107,24 @@
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K108" s="121" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="L108" s="112"/>
     </row>
     <row r="109" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_A04</v>
+        <v>UCT_AST9AH_A03</v>
       </c>
       <c r="B109" s="53">
         <v>25</v>
       </c>
       <c r="C109" s="68">
         <f t="shared" si="9"/>
-        <v>45355.5625</v>
+        <v>45355.534722222219</v>
       </c>
       <c r="D109" s="117"/>
       <c r="E109" s="9"/>
@@ -5147,24 +5137,24 @@
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K109" s="121" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L109" s="112"/>
     </row>
     <row r="110" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_A05</v>
+        <v>UCT_AST9AH_A04</v>
       </c>
       <c r="B110" s="53">
         <v>25</v>
       </c>
       <c r="C110" s="68">
         <f t="shared" si="9"/>
-        <v>45355.590277777774</v>
+        <v>45355.5625</v>
       </c>
       <c r="D110" s="117"/>
       <c r="E110" s="9"/>
@@ -5177,24 +5167,24 @@
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K110" s="121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L110" s="112"/>
     </row>
     <row r="111" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_A06</v>
+        <v>UCT_AST9AH_A05</v>
       </c>
       <c r="B111" s="53">
         <v>25</v>
       </c>
       <c r="C111" s="68">
         <f t="shared" si="9"/>
-        <v>45355.618055555555</v>
+        <v>45355.590277777774</v>
       </c>
       <c r="D111" s="117"/>
       <c r="E111" s="9"/>
@@ -5207,7 +5197,7 @@
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K111" s="121" t="s">
         <v>111</v>
@@ -5217,14 +5207,14 @@
     <row r="112" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_A07</v>
+        <v>UCT_AST9AH_A06</v>
       </c>
       <c r="B112" s="53">
         <v>25</v>
       </c>
       <c r="C112" s="68">
         <f t="shared" si="9"/>
-        <v>45355.645833333328</v>
+        <v>45355.618055555555</v>
       </c>
       <c r="D112" s="117"/>
       <c r="E112" s="9"/>
@@ -5237,7 +5227,7 @@
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K112" s="121" t="s">
         <v>111</v>
@@ -5247,14 +5237,14 @@
     <row r="113" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_A08</v>
+        <v>UCT_AST9AH_A07</v>
       </c>
       <c r="B113" s="53">
         <v>25</v>
       </c>
       <c r="C113" s="68">
         <f t="shared" si="9"/>
-        <v>45355.673611111109</v>
+        <v>45355.645833333328</v>
       </c>
       <c r="D113" s="117"/>
       <c r="E113" s="9"/>
@@ -5267,7 +5257,7 @@
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K113" s="121" t="s">
         <v>111</v>
@@ -5277,13 +5267,14 @@
     <row r="114" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_A09</v>
+        <v>UCT_AST9AH_A08</v>
       </c>
       <c r="B114" s="53">
         <v>25</v>
       </c>
       <c r="C114" s="68">
-        <v>45356.375</v>
+        <f t="shared" si="9"/>
+        <v>45355.673611111109</v>
       </c>
       <c r="D114" s="117"/>
       <c r="E114" s="9"/>
@@ -5296,86 +5287,98 @@
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K114" s="121" t="s">
         <v>111</v>
       </c>
       <c r="L114" s="112"/>
     </row>
-    <row r="115" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="str">
+    <row r="115" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>UCT_AST9AH_A09</v>
+      </c>
+      <c r="B115" s="53">
+        <v>25</v>
+      </c>
+      <c r="C115" s="68">
+        <v>45356.375</v>
+      </c>
+      <c r="D115" s="117"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="123">
+        <v>25</v>
+      </c>
+      <c r="H115" s="123">
+        <v>28</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="K115" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="L115" s="112"/>
+    </row>
+    <row r="116" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="33" t="str">
         <f t="shared" si="8"/>
         <v>UCT_AST9AH_A10</v>
       </c>
-      <c r="B115" s="54">
+      <c r="B116" s="54">
         <v>25</v>
       </c>
-      <c r="C115" s="71">
+      <c r="C116" s="71">
         <v>45356.381944444445</v>
       </c>
-      <c r="D115" s="119"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="123">
+      <c r="D116" s="119"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="123">
         <v>25</v>
       </c>
-      <c r="H115" s="123">
+      <c r="H116" s="123">
         <v>28</v>
       </c>
-      <c r="I115" s="16"/>
-      <c r="J115" s="16" t="s">
+      <c r="I116" s="16"/>
+      <c r="J116" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="K115" s="131" t="s">
+      <c r="K116" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="L115" s="132"/>
-    </row>
-    <row r="116" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A116" s="29" t="str">
+      <c r="L116" s="132"/>
+    </row>
+    <row r="117" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="29" t="str">
         <f t="shared" si="8"/>
         <v>UCT_AST9AH_B01</v>
       </c>
-      <c r="B116" s="53">
-        <v>25</v>
-      </c>
-      <c r="C116" s="69"/>
-      <c r="D116" s="116"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="128"/>
-      <c r="H116" s="128"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
-      <c r="K116" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="L116" s="115"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A117" s="31" t="str">
-        <f t="shared" si="8"/>
-        <v>UCT_AST9AH_B02</v>
-      </c>
       <c r="B117" s="53">
         <v>25</v>
       </c>
-      <c r="C117" s="68"/>
-      <c r="D117" s="117"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="123"/>
-      <c r="H117" s="123"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="9"/>
-      <c r="K117" s="121"/>
-      <c r="L117" s="112"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="116"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="128"/>
+      <c r="H117" s="128"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="K117" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="L117" s="115"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_B03</v>
+        <v>UCT_AST9AH_B02</v>
       </c>
       <c r="B118" s="53">
         <v>25</v>
@@ -5387,14 +5390,16 @@
       <c r="G118" s="123"/>
       <c r="H118" s="123"/>
       <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
+      <c r="J118" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="K118" s="121"/>
       <c r="L118" s="112"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_B04</v>
+        <v>UCT_AST9AH_B03</v>
       </c>
       <c r="B119" s="53">
         <v>25</v>
@@ -5406,14 +5411,16 @@
       <c r="G119" s="123"/>
       <c r="H119" s="123"/>
       <c r="I119" s="9"/>
-      <c r="J119" s="9"/>
+      <c r="J119" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="K119" s="121"/>
       <c r="L119" s="112"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_B05</v>
+        <v>UCT_AST9AH_B04</v>
       </c>
       <c r="B120" s="53">
         <v>25</v>
@@ -5425,14 +5432,16 @@
       <c r="G120" s="123"/>
       <c r="H120" s="123"/>
       <c r="I120" s="9"/>
-      <c r="J120" s="9"/>
+      <c r="J120" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="K120" s="121"/>
       <c r="L120" s="112"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_B06</v>
+        <v>UCT_AST9AH_B05</v>
       </c>
       <c r="B121" s="53">
         <v>25</v>
@@ -5444,14 +5453,16 @@
       <c r="G121" s="123"/>
       <c r="H121" s="123"/>
       <c r="I121" s="9"/>
-      <c r="J121" s="9"/>
+      <c r="J121" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="K121" s="121"/>
       <c r="L121" s="112"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_B07</v>
+        <v>UCT_AST9AH_B06</v>
       </c>
       <c r="B122" s="53">
         <v>25</v>
@@ -5463,14 +5474,16 @@
       <c r="G122" s="123"/>
       <c r="H122" s="123"/>
       <c r="I122" s="9"/>
-      <c r="J122" s="9"/>
+      <c r="J122" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="K122" s="121"/>
       <c r="L122" s="112"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_B08</v>
+        <v>UCT_AST9AH_B07</v>
       </c>
       <c r="B123" s="53">
         <v>25</v>
@@ -5482,14 +5495,16 @@
       <c r="G123" s="123"/>
       <c r="H123" s="123"/>
       <c r="I123" s="9"/>
-      <c r="J123" s="9"/>
+      <c r="J123" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="K123" s="121"/>
       <c r="L123" s="112"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="31" t="str">
         <f t="shared" si="8"/>
-        <v>UCT_AST9AH_B09</v>
+        <v>UCT_AST9AH_B08</v>
       </c>
       <c r="B124" s="53">
         <v>25</v>
@@ -5501,117 +5516,106 @@
       <c r="G124" s="123"/>
       <c r="H124" s="123"/>
       <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
+      <c r="J124" s="9" t="s">
+        <v>135</v>
+      </c>
       <c r="K124" s="121"/>
       <c r="L124" s="112"/>
     </row>
-    <row r="125" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="74" t="str">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>UCT_AST9AH_B09</v>
+      </c>
+      <c r="B125" s="53">
+        <v>25</v>
+      </c>
+      <c r="C125" s="68"/>
+      <c r="D125" s="117"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="123"/>
+      <c r="H125" s="123"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K125" s="121"/>
+      <c r="L125" s="112"/>
+    </row>
+    <row r="126" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="74" t="str">
         <f t="shared" si="8"/>
         <v>UCT_AST9AH_B10</v>
       </c>
-      <c r="B125" s="53">
+      <c r="B126" s="53">
         <v>25</v>
       </c>
-      <c r="C125" s="75"/>
-      <c r="D125" s="118"/>
-      <c r="E125" s="76"/>
-      <c r="F125" s="76"/>
-      <c r="G125" s="126"/>
-      <c r="H125" s="126"/>
-      <c r="I125" s="76"/>
-      <c r="J125" s="76"/>
-      <c r="K125" s="127"/>
-      <c r="L125" s="133"/>
-    </row>
-    <row r="126" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A126" s="29" t="str">
-        <f>A106</f>
+      <c r="C126" s="75"/>
+      <c r="D126" s="118"/>
+      <c r="E126" s="76"/>
+      <c r="F126" s="76"/>
+      <c r="G126" s="126"/>
+      <c r="H126" s="126"/>
+      <c r="I126" s="76"/>
+      <c r="J126" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="K126" s="127"/>
+      <c r="L126" s="133"/>
+    </row>
+    <row r="127" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A127" s="29" t="str">
+        <f>A107</f>
         <v>UCT_AST9AH_A01</v>
       </c>
-      <c r="B126" s="73">
+      <c r="B127" s="73">
         <v>-40</v>
       </c>
-      <c r="C126" s="69">
+      <c r="C127" s="69">
         <v>45356.395833333336</v>
       </c>
-      <c r="D126" s="116">
+      <c r="D127" s="116">
         <v>-38.799999999999997</v>
       </c>
-      <c r="E126" s="70">
+      <c r="E127" s="70">
         <v>0.39930555555555558</v>
       </c>
-      <c r="F126" s="22" t="s">
+      <c r="F127" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="G126" s="128">
-        <f>$D$126</f>
+      <c r="G127" s="128">
+        <f>$D$127</f>
         <v>-38.799999999999997</v>
       </c>
-      <c r="H126" s="128">
-        <f>$D$131</f>
+      <c r="H127" s="128">
+        <f>$D$132</f>
         <v>-32.4</v>
       </c>
-      <c r="I126" s="70">
+      <c r="I127" s="70">
         <v>0.39791666666666664</v>
       </c>
-      <c r="J126" s="22" t="s">
+      <c r="J127" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="K126" s="129" t="s">
+      <c r="K127" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="L126" s="115" t="s">
+      <c r="L127" s="115" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A127" s="31" t="str">
-        <f t="shared" ref="A127:A190" si="10">A107</f>
-        <v>UCT_AST9AH_A02</v>
-      </c>
-      <c r="B127" s="53">
-        <v>-40</v>
-      </c>
-      <c r="C127" s="68">
-        <f t="shared" ref="C127:C133" si="11">C126+$C$101</f>
-        <v>45356.402777777781</v>
-      </c>
-      <c r="D127" s="117"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G127" s="123">
-        <f t="shared" ref="G127:G132" si="12">$D$126</f>
-        <v>-38.799999999999997</v>
-      </c>
-      <c r="H127" s="123">
-        <f t="shared" ref="H127:H130" si="13">$D$131</f>
-        <v>-32.4</v>
-      </c>
-      <c r="I127" s="122">
-        <v>0.40486111111111112</v>
-      </c>
-      <c r="J127" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="K127" s="121" t="s">
-        <v>120</v>
-      </c>
-      <c r="L127" s="112"/>
     </row>
     <row r="128" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A03</v>
+        <f t="shared" ref="A128:A191" si="10">A108</f>
+        <v>UCT_AST9AH_A02</v>
       </c>
       <c r="B128" s="53">
         <v>-40</v>
       </c>
       <c r="C128" s="68">
-        <f>C127+$C$101</f>
-        <v>45356.409722222226</v>
+        <f t="shared" ref="C128:C134" si="11">C127+$C$102</f>
+        <v>45356.402777777781</v>
       </c>
       <c r="D128" s="117"/>
       <c r="E128" s="9"/>
@@ -5619,18 +5623,18 @@
         <v>133</v>
       </c>
       <c r="G128" s="123">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G128:G133" si="12">$D$127</f>
         <v>-38.799999999999997</v>
       </c>
       <c r="H128" s="123">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="H128:H131" si="13">$D$132</f>
         <v>-32.4</v>
       </c>
       <c r="I128" s="122">
-        <v>0.41180555555555554</v>
+        <v>0.40486111111111112</v>
       </c>
       <c r="J128" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K128" s="121" t="s">
         <v>120</v>
@@ -5640,14 +5644,14 @@
     <row r="129" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A04</v>
+        <v>UCT_AST9AH_A03</v>
       </c>
       <c r="B129" s="53">
         <v>-40</v>
       </c>
       <c r="C129" s="68">
-        <f t="shared" si="11"/>
-        <v>45356.416666666672</v>
+        <f>C128+$C$102</f>
+        <v>45356.409722222226</v>
       </c>
       <c r="D129" s="117"/>
       <c r="E129" s="9"/>
@@ -5663,10 +5667,10 @@
         <v>-32.4</v>
       </c>
       <c r="I129" s="122">
-        <v>0.45347222222222222</v>
+        <v>0.41180555555555554</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K129" s="121" t="s">
         <v>120</v>
@@ -5676,14 +5680,14 @@
     <row r="130" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A05</v>
+        <v>UCT_AST9AH_A04</v>
       </c>
       <c r="B130" s="53">
         <v>-40</v>
       </c>
       <c r="C130" s="68">
         <f t="shared" si="11"/>
-        <v>45356.423611111117</v>
+        <v>45356.416666666672</v>
       </c>
       <c r="D130" s="117"/>
       <c r="E130" s="9"/>
@@ -5699,242 +5703,247 @@
         <v>-32.4</v>
       </c>
       <c r="I130" s="122">
-        <v>0.42569444444444443</v>
+        <v>0.45347222222222222</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K130" s="121" t="s">
         <v>120</v>
       </c>
       <c r="L130" s="112"/>
     </row>
-    <row r="131" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A06</v>
+        <v>UCT_AST9AH_A05</v>
       </c>
       <c r="B131" s="53">
         <v>-40</v>
       </c>
       <c r="C131" s="68">
         <f t="shared" si="11"/>
-        <v>45356.430555555562</v>
-      </c>
-      <c r="D131" s="117">
+        <v>45356.423611111117</v>
+      </c>
+      <c r="D131" s="117"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G131" s="123">
+        <f t="shared" si="12"/>
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="H131" s="123">
+        <f t="shared" si="13"/>
         <v>-32.4</v>
       </c>
-      <c r="E131" s="122">
-        <v>0.43055555555555558</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="G131" s="123">
-        <f>$D$126</f>
-        <v>-38.799999999999997</v>
-      </c>
-      <c r="H131" s="123">
-        <f>$D$133</f>
-        <v>-27.8</v>
-      </c>
       <c r="I131" s="122">
-        <v>0.43263888888888891</v>
-      </c>
-      <c r="J131" s="108" t="s">
-        <v>128</v>
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="K131" s="121" t="s">
-        <v>152</v>
-      </c>
-      <c r="L131" s="112" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+      <c r="L131" s="112"/>
+    </row>
+    <row r="132" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A07</v>
+        <v>UCT_AST9AH_A06</v>
       </c>
       <c r="B132" s="53">
         <v>-40</v>
       </c>
       <c r="C132" s="68">
         <f t="shared" si="11"/>
-        <v>45356.437500000007</v>
-      </c>
-      <c r="D132" s="117"/>
-      <c r="E132" s="9"/>
+        <v>45356.430555555562</v>
+      </c>
+      <c r="D132" s="117">
+        <v>-32.4</v>
+      </c>
+      <c r="E132" s="122">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="F132" s="9" t="s">
         <v>139</v>
       </c>
       <c r="G132" s="123">
+        <f>$D$127</f>
+        <v>-38.799999999999997</v>
+      </c>
+      <c r="H132" s="123">
+        <f>$D$134</f>
+        <v>-27.8</v>
+      </c>
+      <c r="I132" s="122">
+        <v>0.43263888888888891</v>
+      </c>
+      <c r="J132" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="K132" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="L132" s="112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A133" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>UCT_AST9AH_A07</v>
+      </c>
+      <c r="B133" s="53">
+        <v>-40</v>
+      </c>
+      <c r="C133" s="68">
+        <f t="shared" si="11"/>
+        <v>45356.437500000007</v>
+      </c>
+      <c r="D133" s="117"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G133" s="123">
         <f t="shared" si="12"/>
         <v>-38.799999999999997</v>
       </c>
-      <c r="H132" s="123">
-        <f t="shared" ref="H132" si="14">$D$133</f>
+      <c r="H133" s="123">
+        <f t="shared" ref="H133" si="14">$D$134</f>
         <v>-27.8</v>
       </c>
-      <c r="I132" s="122">
+      <c r="I133" s="122">
         <v>0.43958333333333333</v>
       </c>
-      <c r="J132" s="108" t="s">
+      <c r="J133" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="K132" s="121" t="s">
+      <c r="K133" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="L132" s="112"/>
-    </row>
-    <row r="133" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A133" s="31" t="str">
+      <c r="L133" s="112"/>
+    </row>
+    <row r="134" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A134" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_A08</v>
       </c>
-      <c r="B133" s="53">
+      <c r="B134" s="53">
         <v>-40</v>
       </c>
-      <c r="C133" s="68">
+      <c r="C134" s="68">
         <f t="shared" si="11"/>
         <v>45356.444444444453</v>
       </c>
-      <c r="D133" s="117">
+      <c r="D134" s="117">
         <v>-27.8</v>
       </c>
-      <c r="E133" s="122">
+      <c r="E134" s="122">
         <v>0.44444444444444442</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F134" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G133" s="123"/>
-      <c r="H133" s="123"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="K133" s="121" t="s">
-        <v>146</v>
-      </c>
-      <c r="L133" s="112"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A134" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A09</v>
-      </c>
-      <c r="B134" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C134" s="68"/>
-      <c r="D134" s="117"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
       <c r="G134" s="123"/>
       <c r="H134" s="123"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K134" s="121"/>
+      <c r="K134" s="121" t="s">
+        <v>146</v>
+      </c>
       <c r="L134" s="112"/>
     </row>
-    <row r="135" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="33" t="str">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>UCT_AST9AH_A09</v>
+      </c>
+      <c r="B135" s="53">
+        <v>-40</v>
+      </c>
+      <c r="C135" s="68"/>
+      <c r="D135" s="117"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="123"/>
+      <c r="H135" s="123"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K135" s="121"/>
+      <c r="L135" s="112"/>
+    </row>
+    <row r="136" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="33" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_A10</v>
       </c>
-      <c r="B135" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C135" s="71"/>
-      <c r="D135" s="119"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="16"/>
-      <c r="G135" s="130"/>
-      <c r="H135" s="130"/>
-      <c r="I135" s="16"/>
-      <c r="J135" s="16" t="s">
+      <c r="B136" s="53">
+        <v>-40</v>
+      </c>
+      <c r="C136" s="71"/>
+      <c r="D136" s="119"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="130"/>
+      <c r="H136" s="130"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="K135" s="131"/>
-      <c r="L135" s="132"/>
-    </row>
-    <row r="136" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A136" s="52" t="str">
+      <c r="K136" s="131"/>
+      <c r="L136" s="132"/>
+    </row>
+    <row r="137" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A137" s="52" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B01</v>
       </c>
-      <c r="B136" s="72">
+      <c r="B137" s="72">
         <v>-40</v>
       </c>
-      <c r="C136" s="67"/>
-      <c r="D136" s="120">
+      <c r="C137" s="67"/>
+      <c r="D137" s="120">
         <v>-39.299999999999997</v>
       </c>
-      <c r="E136" s="146">
+      <c r="E137" s="146">
         <v>0.5</v>
       </c>
-      <c r="F136" s="152" t="s">
+      <c r="F137" s="152" t="s">
         <v>262</v>
       </c>
-      <c r="G136" s="124">
-        <f>$D$136</f>
+      <c r="G137" s="124">
+        <f>$D$137</f>
         <v>-39.299999999999997</v>
       </c>
-      <c r="H136" s="124">
-        <f>$D$141</f>
+      <c r="H137" s="124">
+        <f>$D$142</f>
         <v>-30.9</v>
       </c>
-      <c r="I136" s="146">
+      <c r="I137" s="146">
         <v>0.5</v>
       </c>
-      <c r="J136" s="49" t="s">
+      <c r="J137" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="K136" s="125" t="s">
+      <c r="K137" s="125" t="s">
         <v>150</v>
       </c>
-      <c r="L136" s="134" t="s">
+      <c r="L137" s="134" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A137" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B02</v>
-      </c>
-      <c r="B137" s="53">
-        <v>-40</v>
-      </c>
-      <c r="C137" s="68"/>
-      <c r="D137" s="117"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="G137" s="124">
-        <f t="shared" ref="G137:G139" si="15">$D$136</f>
-        <v>-39.299999999999997</v>
-      </c>
-      <c r="H137" s="124">
-        <f t="shared" ref="H137:H139" si="16">$D$141</f>
-        <v>-30.9</v>
-      </c>
-      <c r="I137" s="122">
-        <v>0.5083333333333333</v>
-      </c>
-      <c r="J137" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="K137" s="121"/>
-      <c r="L137" s="112"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B03</v>
+        <v>UCT_AST9AH_B02</v>
       </c>
       <c r="B138" s="53">
         <v>-40</v>
@@ -5946,26 +5955,26 @@
         <v>262</v>
       </c>
       <c r="G138" s="124">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="G138:G140" si="15">$D$137</f>
         <v>-39.299999999999997</v>
       </c>
       <c r="H138" s="124">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="H138:H140" si="16">$D$142</f>
         <v>-30.9</v>
       </c>
       <c r="I138" s="122">
-        <v>0.51597222222222228</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K138" s="121"/>
       <c r="L138" s="112"/>
     </row>
-    <row r="139" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B04</v>
+        <v>UCT_AST9AH_B03</v>
       </c>
       <c r="B139" s="53">
         <v>-40</v>
@@ -5985,20 +5994,18 @@
         <v>-30.9</v>
       </c>
       <c r="I139" s="122">
-        <v>0.5229166666666667</v>
+        <v>0.51597222222222228</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K139" s="121"/>
-      <c r="L139" s="112" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="L139" s="112"/>
+    </row>
+    <row r="140" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B05</v>
+        <v>UCT_AST9AH_B04</v>
       </c>
       <c r="B140" s="53">
         <v>-40</v>
@@ -6006,340 +6013,336 @@
       <c r="C140" s="68"/>
       <c r="D140" s="117"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="135" t="s">
-        <v>261</v>
-      </c>
-      <c r="G140" s="123">
-        <f>$D$136</f>
+      <c r="F140" s="49" t="s">
+        <v>262</v>
+      </c>
+      <c r="G140" s="124">
+        <f t="shared" si="15"/>
         <v>-39.299999999999997</v>
       </c>
-      <c r="H140" s="123">
-        <f>$D$143</f>
-        <v>-28.6</v>
+      <c r="H140" s="124">
+        <f t="shared" si="16"/>
+        <v>-30.9</v>
       </c>
       <c r="I140" s="122">
-        <v>0.58125000000000004</v>
+        <v>0.5229166666666667</v>
       </c>
       <c r="J140" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K140" s="121" t="s">
-        <v>260</v>
-      </c>
-      <c r="L140" s="112"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="K140" s="121"/>
+      <c r="L140" s="112" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B06</v>
+        <v>UCT_AST9AH_B05</v>
       </c>
       <c r="B141" s="53">
         <v>-40</v>
       </c>
       <c r="C141" s="68"/>
-      <c r="D141" s="117">
-        <v>-30.9</v>
-      </c>
-      <c r="E141" s="122">
-        <v>0.5395833333333333</v>
-      </c>
-      <c r="F141" s="9" t="s">
+      <c r="D141" s="117"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="135" t="s">
         <v>261</v>
       </c>
       <c r="G141" s="123">
-        <f>$D$136</f>
+        <f>$D$137</f>
         <v>-39.299999999999997</v>
       </c>
       <c r="H141" s="123">
-        <f>$D$143</f>
+        <f>$D$144</f>
         <v>-28.6</v>
       </c>
       <c r="I141" s="122">
-        <v>0.5395833333333333</v>
+        <v>0.58125000000000004</v>
       </c>
       <c r="J141" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="K141" s="121"/>
+        <v>269</v>
+      </c>
+      <c r="K141" s="121" t="s">
+        <v>260</v>
+      </c>
       <c r="L141" s="112"/>
     </row>
-    <row r="142" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B07</v>
+        <v>UCT_AST9AH_B06</v>
       </c>
       <c r="B142" s="53">
         <v>-40</v>
       </c>
       <c r="C142" s="68"/>
-      <c r="D142" s="117"/>
-      <c r="E142" s="9"/>
+      <c r="D142" s="117">
+        <v>-30.9</v>
+      </c>
+      <c r="E142" s="122">
+        <v>0.5395833333333333</v>
+      </c>
       <c r="F142" s="9" t="s">
         <v>261</v>
       </c>
       <c r="G142" s="123">
-        <f t="shared" ref="G142:G143" si="17">$D$136</f>
+        <f>$D$137</f>
         <v>-39.299999999999997</v>
       </c>
       <c r="H142" s="123">
-        <f t="shared" ref="H142:H143" si="18">$D$143</f>
+        <f>$D$144</f>
         <v>-28.6</v>
       </c>
       <c r="I142" s="122">
-        <v>0.55555555555555558</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="K142" s="121" t="s">
-        <v>259</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="K142" s="121"/>
       <c r="L142" s="112"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B08</v>
+        <v>UCT_AST9AH_B07</v>
       </c>
       <c r="B143" s="53">
         <v>-40</v>
       </c>
       <c r="C143" s="68"/>
-      <c r="D143" s="117">
-        <v>-28.6</v>
-      </c>
-      <c r="E143" s="122">
-        <v>0.5625</v>
-      </c>
+      <c r="D143" s="117"/>
+      <c r="E143" s="9"/>
       <c r="F143" s="9" t="s">
         <v>261</v>
       </c>
       <c r="G143" s="123">
+        <f t="shared" ref="G143:G144" si="17">$D$137</f>
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="H143" s="123">
+        <f t="shared" ref="H143:H144" si="18">$D$144</f>
+        <v>-28.6</v>
+      </c>
+      <c r="I143" s="122">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J143" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="K143" s="121" t="s">
+        <v>259</v>
+      </c>
+      <c r="L143" s="112"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>UCT_AST9AH_B08</v>
+      </c>
+      <c r="B144" s="53">
+        <v>-40</v>
+      </c>
+      <c r="C144" s="68"/>
+      <c r="D144" s="117">
+        <v>-28.6</v>
+      </c>
+      <c r="E144" s="122">
+        <v>0.5625</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G144" s="123">
         <f t="shared" si="17"/>
         <v>-39.299999999999997</v>
       </c>
-      <c r="H143" s="123">
+      <c r="H144" s="123">
         <f t="shared" si="18"/>
         <v>-28.6</v>
       </c>
-      <c r="I143" s="122">
+      <c r="I144" s="122">
         <v>0.5625</v>
       </c>
-      <c r="J143" s="9" t="s">
+      <c r="J144" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="K143" s="121"/>
-      <c r="L143" s="112"/>
-    </row>
-    <row r="144" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A144" s="31" t="str">
+      <c r="K144" s="121"/>
+      <c r="L144" s="112"/>
+    </row>
+    <row r="145" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A145" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B09</v>
       </c>
-      <c r="B144" s="53">
+      <c r="B145" s="53">
         <v>-40</v>
       </c>
-      <c r="C144" s="68"/>
-      <c r="D144" s="117"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="123"/>
-      <c r="H144" s="123"/>
-      <c r="I144" s="122"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="121" t="s">
+      <c r="C145" s="68"/>
+      <c r="D145" s="117"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="123"/>
+      <c r="H145" s="123"/>
+      <c r="I145" s="122"/>
+      <c r="J145" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="L144" s="112" t="s">
+      <c r="K145" s="121"/>
+      <c r="L145" s="112" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="33" t="str">
+    <row r="146" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="33" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B10</v>
       </c>
-      <c r="B145" s="54">
+      <c r="B146" s="54">
         <v>-40</v>
       </c>
-      <c r="C145" s="71"/>
-      <c r="D145" s="119"/>
-      <c r="E145" s="16"/>
-      <c r="F145" s="16"/>
-      <c r="G145" s="130"/>
-      <c r="H145" s="130"/>
-      <c r="I145" s="16"/>
-      <c r="J145" s="16"/>
-      <c r="K145" s="131" t="s">
+      <c r="C146" s="71"/>
+      <c r="D146" s="119"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="130"/>
+      <c r="H146" s="130"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="L145" s="132"/>
-    </row>
-    <row r="146" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A146" s="29" t="str">
+      <c r="K146" s="131"/>
+      <c r="L146" s="132"/>
+    </row>
+    <row r="147" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A147" s="29" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_A01</v>
       </c>
-      <c r="B146" s="73">
+      <c r="B147" s="73">
         <v>-30</v>
       </c>
-      <c r="C146" s="77">
+      <c r="C147" s="77">
         <v>45356.645833333336</v>
       </c>
-      <c r="D146" s="116">
+      <c r="D147" s="116">
         <v>-34.299999999999997</v>
       </c>
-      <c r="E146" s="70">
+      <c r="E147" s="70">
         <v>0.56319444444444444</v>
       </c>
-      <c r="F146" s="136" t="s">
+      <c r="F147" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="G146" s="128">
-        <f>$D$146</f>
+      <c r="G147" s="128">
+        <f>$D$147</f>
         <v>-34.299999999999997</v>
       </c>
-      <c r="H146" s="128">
-        <f>$D$151</f>
+      <c r="H147" s="128">
+        <f>$D$152</f>
         <v>-29</v>
       </c>
-      <c r="I146" s="70">
+      <c r="I147" s="70">
         <v>0.64652777777777781</v>
       </c>
-      <c r="J146" s="108" t="s">
+      <c r="J147" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="K146" s="129" t="s">
+      <c r="K147" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="L146" s="115" t="s">
+      <c r="L147" s="115" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A147" s="31" t="str">
+    <row r="148" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A148" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_A02</v>
       </c>
-      <c r="B147" s="53">
-        <v>-30</v>
-      </c>
-      <c r="C147" s="68">
-        <f t="shared" ref="C147:C153" si="19">C146+$C$101</f>
-        <v>45356.652777777781</v>
-      </c>
-      <c r="D147" s="117"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9" t="str">
-        <f>$F$146</f>
-        <v>Between A01 and A06</v>
-      </c>
-      <c r="G147" s="123">
-        <f>$D$146</f>
-        <v>-34.299999999999997</v>
-      </c>
-      <c r="H147" s="123">
-        <f>$D$151</f>
-        <v>-29</v>
-      </c>
-      <c r="I147" s="122">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="J147" s="108" t="s">
-        <v>179</v>
-      </c>
-      <c r="K147" s="121" t="s">
-        <v>150</v>
-      </c>
-      <c r="L147" s="112"/>
-    </row>
-    <row r="148" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A148" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A03</v>
-      </c>
       <c r="B148" s="53">
         <v>-30</v>
       </c>
       <c r="C148" s="68">
-        <f t="shared" si="19"/>
-        <v>45356.659722222226</v>
+        <f t="shared" ref="C148:C154" si="19">C147+$C$102</f>
+        <v>45356.652777777781</v>
       </c>
       <c r="D148" s="117"/>
       <c r="E148" s="9"/>
       <c r="F148" s="9" t="str">
-        <f t="shared" ref="F148:F151" si="20">$F$146</f>
+        <f>$F$147</f>
         <v>Between A01 and A06</v>
       </c>
       <c r="G148" s="123">
-        <f t="shared" ref="G148:G154" si="21">$D$146</f>
+        <f>$D$147</f>
         <v>-34.299999999999997</v>
       </c>
       <c r="H148" s="123">
-        <f t="shared" ref="H148:H151" si="22">$D$151</f>
+        <f>$D$152</f>
         <v>-29</v>
       </c>
       <c r="I148" s="122">
-        <v>0.66597222222222219</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="J148" s="108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K148" s="121" t="s">
-        <v>162</v>
-      </c>
-      <c r="L148" s="112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="L148" s="112"/>
+    </row>
+    <row r="149" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A149" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A04</v>
+        <v>UCT_AST9AH_A03</v>
       </c>
       <c r="B149" s="53">
         <v>-30</v>
       </c>
       <c r="C149" s="68">
         <f t="shared" si="19"/>
-        <v>45356.666666666672</v>
+        <v>45356.659722222226</v>
       </c>
       <c r="D149" s="117"/>
       <c r="E149" s="9"/>
       <c r="F149" s="9" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="F149:F152" si="20">$F$147</f>
         <v>Between A01 and A06</v>
       </c>
       <c r="G149" s="123">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="G149:G155" si="21">$D$147</f>
         <v>-34.299999999999997</v>
       </c>
       <c r="H149" s="123">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="H149:H152" si="22">$D$152</f>
         <v>-29</v>
       </c>
       <c r="I149" s="122">
-        <v>0.67291666666666672</v>
+        <v>0.66597222222222219</v>
       </c>
       <c r="J149" s="108" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K149" s="121" t="s">
-        <v>150</v>
-      </c>
-      <c r="L149" s="112"/>
+        <v>162</v>
+      </c>
+      <c r="L149" s="112" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="150" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A05</v>
+        <v>UCT_AST9AH_A04</v>
       </c>
       <c r="B150" s="53">
         <v>-30</v>
       </c>
       <c r="C150" s="68">
         <f t="shared" si="19"/>
-        <v>45356.673611111117</v>
+        <v>45356.666666666672</v>
       </c>
       <c r="D150" s="117"/>
       <c r="E150" s="9"/>
@@ -6356,34 +6359,30 @@
         <v>-29</v>
       </c>
       <c r="I150" s="122">
-        <v>0.6791666666666667</v>
+        <v>0.67291666666666672</v>
       </c>
       <c r="J150" s="108" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K150" s="121" t="s">
         <v>150</v>
       </c>
       <c r="L150" s="112"/>
     </row>
-    <row r="151" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A06</v>
+        <v>UCT_AST9AH_A05</v>
       </c>
       <c r="B151" s="53">
         <v>-30</v>
       </c>
       <c r="C151" s="68">
         <f t="shared" si="19"/>
-        <v>45356.680555555562</v>
-      </c>
-      <c r="D151" s="117">
-        <v>-29</v>
-      </c>
-      <c r="E151" s="122">
-        <v>0.68611111111111112</v>
-      </c>
+        <v>45356.673611111117</v>
+      </c>
+      <c r="D151" s="117"/>
+      <c r="E151" s="9"/>
       <c r="F151" s="9" t="str">
         <f t="shared" si="20"/>
         <v>Between A01 and A06</v>
@@ -6397,111 +6396,111 @@
         <v>-29</v>
       </c>
       <c r="I151" s="122">
-        <v>0.68611111111111112</v>
-      </c>
-      <c r="J151" s="9" t="s">
-        <v>183</v>
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="J151" s="108" t="s">
+        <v>182</v>
       </c>
       <c r="K151" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="L151" s="112" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="L151" s="112"/>
+    </row>
+    <row r="152" spans="1:12" ht="68" x14ac:dyDescent="0.2">
       <c r="A152" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A07</v>
+        <v>UCT_AST9AH_A06</v>
       </c>
       <c r="B152" s="53">
         <v>-30</v>
       </c>
       <c r="C152" s="68">
         <f t="shared" si="19"/>
-        <v>45356.687500000007</v>
-      </c>
-      <c r="D152" s="117"/>
-      <c r="E152" s="9"/>
-      <c r="F152" s="135" t="s">
-        <v>168</v>
+        <v>45356.680555555562</v>
+      </c>
+      <c r="D152" s="117">
+        <v>-29</v>
+      </c>
+      <c r="E152" s="122">
+        <v>0.68611111111111112</v>
+      </c>
+      <c r="F152" s="9" t="str">
+        <f t="shared" si="20"/>
+        <v>Between A01 and A06</v>
       </c>
       <c r="G152" s="123">
         <f t="shared" si="21"/>
         <v>-34.299999999999997</v>
       </c>
       <c r="H152" s="123">
-        <f>$D$154</f>
-        <v>-27</v>
+        <f t="shared" si="22"/>
+        <v>-29</v>
       </c>
       <c r="I152" s="122">
-        <v>0.69236111111111109</v>
-      </c>
-      <c r="J152" s="108" t="s">
-        <v>184</v>
+        <v>0.68611111111111112</v>
+      </c>
+      <c r="J152" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="K152" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="L152" s="112"/>
+      <c r="L152" s="112" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="153" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A08</v>
+        <v>UCT_AST9AH_A07</v>
       </c>
       <c r="B153" s="53">
         <v>-30</v>
       </c>
       <c r="C153" s="68">
         <f t="shared" si="19"/>
-        <v>45356.694444444453</v>
+        <v>45356.687500000007</v>
       </c>
       <c r="D153" s="117"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="9" t="str">
-        <f>$F$152</f>
-        <v>Between A01 and A09</v>
+      <c r="F153" s="135" t="s">
+        <v>168</v>
       </c>
       <c r="G153" s="123">
         <f t="shared" si="21"/>
         <v>-34.299999999999997</v>
       </c>
       <c r="H153" s="123">
-        <f t="shared" ref="H153:H154" si="23">$D$154</f>
+        <f>$D$155</f>
         <v>-27</v>
       </c>
       <c r="I153" s="122">
-        <v>0.69930555555555551</v>
+        <v>0.69236111111111109</v>
       </c>
       <c r="J153" s="108" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K153" s="121" t="s">
         <v>150</v>
       </c>
       <c r="L153" s="112"/>
     </row>
-    <row r="154" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A09</v>
+        <v>UCT_AST9AH_A08</v>
       </c>
       <c r="B154" s="53">
         <v>-30</v>
       </c>
       <c r="C154" s="68">
-        <f>C153+$C$101</f>
-        <v>45356.701388888898</v>
-      </c>
-      <c r="D154" s="117">
-        <v>-27</v>
-      </c>
-      <c r="E154" s="122">
-        <v>0.70625000000000004</v>
-      </c>
+        <f t="shared" si="19"/>
+        <v>45356.694444444453</v>
+      </c>
+      <c r="D154" s="117"/>
+      <c r="E154" s="9"/>
       <c r="F154" s="9" t="str">
-        <f>$F$152</f>
+        <f>$F$153</f>
         <v>Between A01 and A09</v>
       </c>
       <c r="G154" s="123">
@@ -6509,129 +6508,136 @@
         <v>-34.299999999999997</v>
       </c>
       <c r="H154" s="123">
+        <f t="shared" ref="H154:H155" si="23">$D$155</f>
+        <v>-27</v>
+      </c>
+      <c r="I154" s="122">
+        <v>0.69930555555555551</v>
+      </c>
+      <c r="J154" s="108" t="s">
+        <v>185</v>
+      </c>
+      <c r="K154" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="L154" s="112"/>
+    </row>
+    <row r="155" spans="1:12" ht="136" x14ac:dyDescent="0.2">
+      <c r="A155" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>UCT_AST9AH_A09</v>
+      </c>
+      <c r="B155" s="53">
+        <v>-30</v>
+      </c>
+      <c r="C155" s="68">
+        <f>C154+$C$102</f>
+        <v>45356.701388888898</v>
+      </c>
+      <c r="D155" s="117">
+        <v>-27</v>
+      </c>
+      <c r="E155" s="122">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="F155" s="9" t="str">
+        <f>$F$153</f>
+        <v>Between A01 and A09</v>
+      </c>
+      <c r="G155" s="123">
+        <f t="shared" si="21"/>
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="H155" s="123">
         <f t="shared" si="23"/>
         <v>-27</v>
       </c>
-      <c r="I154" s="122">
+      <c r="I155" s="122">
         <v>0.71111111111111114</v>
       </c>
-      <c r="J154" s="108" t="s">
+      <c r="J155" s="108" t="s">
         <v>186</v>
       </c>
-      <c r="K154" s="121" t="s">
+      <c r="K155" s="121" t="s">
         <v>165</v>
       </c>
-      <c r="L154" s="112" t="s">
+      <c r="L155" s="112" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="74" t="str">
+    <row r="156" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="74" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_A10</v>
       </c>
-      <c r="B155" s="143"/>
-      <c r="C155" s="75"/>
-      <c r="D155" s="118"/>
-      <c r="E155" s="76"/>
-      <c r="F155" s="76"/>
-      <c r="G155" s="126"/>
-      <c r="H155" s="126"/>
-      <c r="I155" s="76"/>
-      <c r="J155" s="76" t="s">
+      <c r="B156" s="53">
+        <v>-30</v>
+      </c>
+      <c r="C156" s="75"/>
+      <c r="D156" s="118"/>
+      <c r="E156" s="76"/>
+      <c r="F156" s="76"/>
+      <c r="G156" s="126"/>
+      <c r="H156" s="126"/>
+      <c r="I156" s="76"/>
+      <c r="J156" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="K155" s="127"/>
-      <c r="L155" s="133"/>
-    </row>
-    <row r="156" spans="1:12" s="59" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A156" s="29" t="str">
+      <c r="K156" s="127"/>
+      <c r="L156" s="133"/>
+    </row>
+    <row r="157" spans="1:12" s="59" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A157" s="29" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B01</v>
       </c>
-      <c r="B156" s="73">
+      <c r="B157" s="73">
         <v>-30</v>
       </c>
-      <c r="C156" s="77">
+      <c r="C157" s="77">
         <v>45426.340277777781</v>
       </c>
-      <c r="D156" s="116">
+      <c r="D157" s="116">
         <v>-29.6</v>
       </c>
-      <c r="E156" s="70">
+      <c r="E157" s="70">
         <v>0.3347222222222222</v>
       </c>
-      <c r="F156" s="136" t="s">
+      <c r="F157" s="136" t="s">
         <v>262</v>
       </c>
-      <c r="G156" s="128">
-        <f>$D$156</f>
+      <c r="G157" s="128">
+        <f>$D$157</f>
         <v>-29.6</v>
       </c>
-      <c r="H156" s="128">
-        <f>$D$161</f>
+      <c r="H157" s="128">
+        <f>$D$162</f>
         <v>-29.4</v>
       </c>
-      <c r="I156" s="70">
+      <c r="I157" s="70">
         <v>0.34027777777777779</v>
       </c>
-      <c r="J156" s="22" t="s">
+      <c r="J157" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="K156" s="129" t="s">
+      <c r="K157" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="L156" s="115" t="s">
+      <c r="L157" s="115" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A157" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B02</v>
-      </c>
-      <c r="B157" s="53">
-        <v>-30</v>
-      </c>
-      <c r="C157" s="68">
-        <f>C156+$C$101</f>
-        <v>45426.347222222226</v>
-      </c>
-      <c r="D157" s="117"/>
-      <c r="E157" s="9"/>
-      <c r="F157" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="G157" s="123">
-        <f>$D$156</f>
-        <v>-29.6</v>
-      </c>
-      <c r="H157" s="123">
-        <f>$D$161</f>
-        <v>-29.4</v>
-      </c>
-      <c r="I157" s="122">
-        <v>0.34791666666666665</v>
-      </c>
-      <c r="J157" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="K157" s="121" t="s">
-        <v>150</v>
-      </c>
-      <c r="L157" s="112"/>
     </row>
     <row r="158" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B03</v>
+        <v>UCT_AST9AH_B02</v>
       </c>
       <c r="B158" s="53">
         <v>-30</v>
       </c>
       <c r="C158" s="68">
-        <f t="shared" ref="C158:C165" si="24">C157+$C$101</f>
-        <v>45426.354166666672</v>
+        <f>C157+$C$102</f>
+        <v>45426.347222222226</v>
       </c>
       <c r="D158" s="117"/>
       <c r="E158" s="9"/>
@@ -6639,18 +6645,18 @@
         <v>262</v>
       </c>
       <c r="G158" s="123">
-        <f t="shared" ref="G158:G160" si="25">$D$156</f>
+        <f>$D$157</f>
         <v>-29.6</v>
       </c>
       <c r="H158" s="123">
-        <f t="shared" ref="H158:H160" si="26">$D$161</f>
+        <f>$D$162</f>
         <v>-29.4</v>
       </c>
       <c r="I158" s="122">
-        <v>0.35555555555555557</v>
+        <v>0.34791666666666665</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K158" s="121" t="s">
         <v>150</v>
@@ -6660,14 +6666,14 @@
     <row r="159" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B04</v>
+        <v>UCT_AST9AH_B03</v>
       </c>
       <c r="B159" s="53">
         <v>-30</v>
       </c>
       <c r="C159" s="68">
-        <f t="shared" si="24"/>
-        <v>45426.361111111117</v>
+        <f t="shared" ref="C159:C166" si="24">C158+$C$102</f>
+        <v>45426.354166666672</v>
       </c>
       <c r="D159" s="117"/>
       <c r="E159" s="9"/>
@@ -6675,18 +6681,18 @@
         <v>262</v>
       </c>
       <c r="G159" s="123">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="G159:G161" si="25">$D$157</f>
         <v>-29.6</v>
       </c>
       <c r="H159" s="123">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="H159:H161" si="26">$D$162</f>
         <v>-29.4</v>
       </c>
       <c r="I159" s="122">
-        <v>0.36249999999999999</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="J159" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K159" s="121" t="s">
         <v>150</v>
@@ -6696,14 +6702,14 @@
     <row r="160" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B05</v>
+        <v>UCT_AST9AH_B04</v>
       </c>
       <c r="B160" s="53">
         <v>-30</v>
       </c>
       <c r="C160" s="68">
         <f t="shared" si="24"/>
-        <v>45426.368055555562</v>
+        <v>45426.361111111117</v>
       </c>
       <c r="D160" s="117"/>
       <c r="E160" s="9"/>
@@ -6719,10 +6725,10 @@
         <v>-29.4</v>
       </c>
       <c r="I160" s="122">
-        <v>0.37013888888888891</v>
+        <v>0.36249999999999999</v>
       </c>
       <c r="J160" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K160" s="121" t="s">
         <v>150</v>
@@ -6732,37 +6738,33 @@
     <row r="161" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B06</v>
+        <v>UCT_AST9AH_B05</v>
       </c>
       <c r="B161" s="53">
         <v>-30</v>
       </c>
       <c r="C161" s="68">
         <f t="shared" si="24"/>
-        <v>45426.375000000007</v>
-      </c>
-      <c r="D161" s="117">
+        <v>45426.368055555562</v>
+      </c>
+      <c r="D161" s="117"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G161" s="123">
+        <f t="shared" si="25"/>
+        <v>-29.6</v>
+      </c>
+      <c r="H161" s="123">
+        <f t="shared" si="26"/>
         <v>-29.4</v>
       </c>
-      <c r="E161" s="122">
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="F161" s="135" t="s">
-        <v>282</v>
-      </c>
-      <c r="G161" s="123">
-        <f>$D$156</f>
-        <v>-29.6</v>
-      </c>
-      <c r="H161" s="123">
-        <f>$D$164</f>
-        <v>-28.5</v>
-      </c>
       <c r="I161" s="122">
-        <v>0.37777777777777777</v>
+        <v>0.37013888888888891</v>
       </c>
       <c r="J161" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K161" s="121" t="s">
         <v>150</v>
@@ -6772,33 +6774,37 @@
     <row r="162" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B07</v>
+        <v>UCT_AST9AH_B06</v>
       </c>
       <c r="B162" s="53">
         <v>-30</v>
       </c>
       <c r="C162" s="68">
         <f t="shared" si="24"/>
-        <v>45426.381944444453</v>
-      </c>
-      <c r="D162" s="117"/>
-      <c r="E162" s="9"/>
-      <c r="F162" s="9" t="s">
+        <v>45426.375000000007</v>
+      </c>
+      <c r="D162" s="117">
+        <v>-29.4</v>
+      </c>
+      <c r="E162" s="122">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="F162" s="135" t="s">
         <v>282</v>
       </c>
       <c r="G162" s="123">
-        <f t="shared" ref="G162:G163" si="27">$D$156</f>
+        <f>$D$157</f>
         <v>-29.6</v>
       </c>
       <c r="H162" s="123">
-        <f t="shared" ref="H162:H163" si="28">$D$164</f>
+        <f>$D$165</f>
         <v>-28.5</v>
       </c>
       <c r="I162" s="122">
-        <v>0.38541666666666669</v>
+        <v>0.37777777777777777</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K162" s="121" t="s">
         <v>150</v>
@@ -6808,14 +6814,14 @@
     <row r="163" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B08</v>
+        <v>UCT_AST9AH_B07</v>
       </c>
       <c r="B163" s="53">
         <v>-30</v>
       </c>
       <c r="C163" s="68">
         <f t="shared" si="24"/>
-        <v>45426.388888888898</v>
+        <v>45426.381944444453</v>
       </c>
       <c r="D163" s="117"/>
       <c r="E163" s="9"/>
@@ -6823,207 +6829,208 @@
         <v>282</v>
       </c>
       <c r="G163" s="123">
+        <f t="shared" ref="G163:G164" si="27">$D$157</f>
+        <v>-29.6</v>
+      </c>
+      <c r="H163" s="123">
+        <f t="shared" ref="H163:H164" si="28">$D$165</f>
+        <v>-28.5</v>
+      </c>
+      <c r="I163" s="122">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="J163" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="K163" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="L163" s="112"/>
+    </row>
+    <row r="164" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A164" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>UCT_AST9AH_B08</v>
+      </c>
+      <c r="B164" s="53">
+        <v>-30</v>
+      </c>
+      <c r="C164" s="68">
+        <f t="shared" si="24"/>
+        <v>45426.388888888898</v>
+      </c>
+      <c r="D164" s="117"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G164" s="123">
         <f t="shared" si="27"/>
         <v>-29.6</v>
       </c>
-      <c r="H163" s="123">
+      <c r="H164" s="123">
         <f t="shared" si="28"/>
         <v>-28.5</v>
       </c>
-      <c r="I163" s="122">
+      <c r="I164" s="122">
         <v>0.3923611111111111</v>
       </c>
-      <c r="J163" s="9" t="s">
+      <c r="J164" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="K163" s="121" t="s">
+      <c r="K164" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="L163" s="112"/>
-    </row>
-    <row r="164" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A164" s="31" t="str">
+      <c r="L164" s="112"/>
+    </row>
+    <row r="165" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A165" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B09</v>
       </c>
-      <c r="B164" s="53">
+      <c r="B165" s="53">
         <v>-30</v>
       </c>
-      <c r="C164" s="68">
+      <c r="C165" s="68">
         <f t="shared" si="24"/>
         <v>45426.395833333343</v>
       </c>
-      <c r="D164" s="117">
+      <c r="D165" s="117">
         <v>-28.5</v>
       </c>
-      <c r="E164" s="122">
+      <c r="E165" s="122">
         <v>0.4236111111111111</v>
       </c>
-      <c r="F164" s="9"/>
-      <c r="G164" s="123"/>
-      <c r="H164" s="123"/>
-      <c r="I164" s="9"/>
-      <c r="J164" s="9"/>
-      <c r="K164" s="121" t="s">
+      <c r="F165" s="9"/>
+      <c r="G165" s="123"/>
+      <c r="H165" s="123"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K165" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="L164" s="112" t="s">
+      <c r="L165" s="112" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:12" s="64" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="33" t="str">
+    <row r="166" spans="1:12" s="64" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="33" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B10</v>
       </c>
-      <c r="B165" s="54">
+      <c r="B166" s="54">
         <v>-30</v>
       </c>
-      <c r="C165" s="71">
+      <c r="C166" s="71">
         <f t="shared" si="24"/>
         <v>45426.402777777788</v>
       </c>
-      <c r="D165" s="119"/>
-      <c r="E165" s="16"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="130"/>
-      <c r="H165" s="130"/>
-      <c r="I165" s="16"/>
-      <c r="J165" s="16"/>
-      <c r="K165" s="131" t="s">
+      <c r="D166" s="119"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="130"/>
+      <c r="H166" s="130"/>
+      <c r="I166" s="16"/>
+      <c r="J166" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="L165" s="132"/>
-    </row>
-    <row r="166" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A166" s="52" t="str">
+      <c r="K166" s="131"/>
+      <c r="L166" s="132"/>
+    </row>
+    <row r="167" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A167" s="52" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_A01</v>
       </c>
-      <c r="B166" s="72">
+      <c r="B167" s="72">
         <v>-20</v>
       </c>
-      <c r="C166" s="67">
+      <c r="C167" s="67">
         <v>45358.322916666664</v>
       </c>
-      <c r="D166" s="120">
+      <c r="D167" s="120">
         <v>-23.2</v>
       </c>
-      <c r="E166" s="146">
+      <c r="E167" s="146">
         <v>0.32777777777777778</v>
       </c>
-      <c r="F166" s="49" t="s">
+      <c r="F167" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="G166" s="124">
-        <f>$D$171</f>
+      <c r="G167" s="124">
+        <f>$D$172</f>
         <v>-24.6</v>
       </c>
-      <c r="H166" s="124">
-        <f>$D$166</f>
+      <c r="H167" s="124">
+        <f>$D$167</f>
         <v>-23.2</v>
       </c>
-      <c r="I166" s="146">
+      <c r="I167" s="146">
         <v>0.33055555555555555</v>
       </c>
-      <c r="J166" s="147" t="s">
+      <c r="J167" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="K166" s="125" t="s">
+      <c r="K167" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="L166" s="134"/>
-    </row>
-    <row r="167" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A167" s="31" t="str">
+      <c r="L167" s="134"/>
+    </row>
+    <row r="168" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A168" s="31" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_A02</v>
       </c>
-      <c r="B167" s="53">
-        <v>-20</v>
-      </c>
-      <c r="C167" s="68">
-        <f t="shared" ref="C167:C175" si="29">C166+$C$101</f>
-        <v>45358.329861111109</v>
-      </c>
-      <c r="D167" s="117"/>
-      <c r="E167" s="9"/>
-      <c r="F167" s="9" t="str">
-        <f>$F$166</f>
-        <v>Between A06 and A01</v>
-      </c>
-      <c r="G167" s="123">
-        <f t="shared" ref="G167:G175" si="30">$D$171</f>
-        <v>-24.6</v>
-      </c>
-      <c r="H167" s="123">
-        <f t="shared" ref="H167:H171" si="31">$D$166</f>
-        <v>-23.2</v>
-      </c>
-      <c r="I167" s="122">
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="J167" s="108" t="s">
-        <v>188</v>
-      </c>
-      <c r="K167" s="121" t="s">
-        <v>170</v>
-      </c>
-      <c r="L167" s="112"/>
-    </row>
-    <row r="168" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A168" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A03</v>
-      </c>
       <c r="B168" s="53">
         <v>-20</v>
       </c>
       <c r="C168" s="68">
-        <f t="shared" si="29"/>
-        <v>45358.336805555555</v>
+        <f t="shared" ref="C168:C176" si="29">C167+$C$102</f>
+        <v>45358.329861111109</v>
       </c>
       <c r="D168" s="117"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9" t="str">
-        <f t="shared" ref="F168:F171" si="32">$F$166</f>
+        <f>$F$167</f>
         <v>Between A06 and A01</v>
       </c>
       <c r="G168" s="123">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="G168:G176" si="30">$D$172</f>
         <v>-24.6</v>
       </c>
       <c r="H168" s="123">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="H168:H172" si="31">$D$167</f>
         <v>-23.2</v>
       </c>
       <c r="I168" s="122">
-        <v>0.34583333333333333</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="J168" s="108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K168" s="121" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="L168" s="112"/>
     </row>
     <row r="169" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A04</v>
+        <v>UCT_AST9AH_A03</v>
       </c>
       <c r="B169" s="53">
         <v>-20</v>
       </c>
       <c r="C169" s="68">
         <f t="shared" si="29"/>
-        <v>45358.34375</v>
+        <v>45358.336805555555</v>
       </c>
       <c r="D169" s="117"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="F169:F172" si="32">$F$167</f>
         <v>Between A06 and A01</v>
       </c>
       <c r="G169" s="123">
@@ -7035,10 +7042,10 @@
         <v>-23.2</v>
       </c>
       <c r="I169" s="122">
-        <v>0.3527777777777778</v>
+        <v>0.34583333333333333</v>
       </c>
       <c r="J169" s="108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K169" s="121" t="s">
         <v>150</v>
@@ -7048,14 +7055,14 @@
     <row r="170" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A05</v>
+        <v>UCT_AST9AH_A04</v>
       </c>
       <c r="B170" s="53">
         <v>-20</v>
       </c>
       <c r="C170" s="68">
         <f t="shared" si="29"/>
-        <v>45358.350694444445</v>
+        <v>45358.34375</v>
       </c>
       <c r="D170" s="117"/>
       <c r="E170" s="9"/>
@@ -7072,34 +7079,30 @@
         <v>-23.2</v>
       </c>
       <c r="I170" s="122">
-        <v>0.35972222222222222</v>
+        <v>0.3527777777777778</v>
       </c>
       <c r="J170" s="108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K170" s="121" t="s">
         <v>150</v>
       </c>
       <c r="L170" s="112"/>
     </row>
-    <row r="171" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A06</v>
+        <v>UCT_AST9AH_A05</v>
       </c>
       <c r="B171" s="53">
         <v>-20</v>
       </c>
       <c r="C171" s="68">
         <f t="shared" si="29"/>
-        <v>45358.357638888891</v>
-      </c>
-      <c r="D171" s="117">
-        <v>-24.6</v>
-      </c>
-      <c r="E171" s="122">
-        <v>0.36666666666666664</v>
-      </c>
+        <v>45358.350694444445</v>
+      </c>
+      <c r="D171" s="117"/>
+      <c r="E171" s="9"/>
       <c r="F171" s="9" t="str">
         <f t="shared" si="32"/>
         <v>Between A06 and A01</v>
@@ -7113,107 +7116,111 @@
         <v>-23.2</v>
       </c>
       <c r="I171" s="122">
-        <v>0.36666666666666664</v>
+        <v>0.35972222222222222</v>
       </c>
       <c r="J171" s="108" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K171" s="121" t="s">
-        <v>171</v>
-      </c>
-      <c r="L171" s="112" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="L171" s="112"/>
+    </row>
+    <row r="172" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A172" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A07</v>
+        <v>UCT_AST9AH_A06</v>
       </c>
       <c r="B172" s="53">
         <v>-20</v>
       </c>
       <c r="C172" s="68">
         <f t="shared" si="29"/>
-        <v>45358.364583333336</v>
-      </c>
-      <c r="D172" s="117"/>
-      <c r="E172" s="9"/>
-      <c r="F172" s="135" t="s">
-        <v>174</v>
+        <v>45358.357638888891</v>
+      </c>
+      <c r="D172" s="117">
+        <v>-24.6</v>
+      </c>
+      <c r="E172" s="122">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="F172" s="9" t="str">
+        <f t="shared" si="32"/>
+        <v>Between A06 and A01</v>
       </c>
       <c r="G172" s="123">
         <f t="shared" si="30"/>
         <v>-24.6</v>
       </c>
       <c r="H172" s="123">
-        <f>$D$175</f>
-        <v>-19.600000000000001</v>
+        <f t="shared" si="31"/>
+        <v>-23.2</v>
       </c>
       <c r="I172" s="122">
-        <v>0.37430555555555556</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="J172" s="108" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K172" s="121" t="s">
-        <v>172</v>
-      </c>
-      <c r="L172" s="112"/>
+        <v>171</v>
+      </c>
+      <c r="L172" s="112" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="173" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A08</v>
+        <v>UCT_AST9AH_A07</v>
       </c>
       <c r="B173" s="53">
         <v>-20</v>
       </c>
       <c r="C173" s="68">
         <f t="shared" si="29"/>
-        <v>45358.371527777781</v>
+        <v>45358.364583333336</v>
       </c>
       <c r="D173" s="117"/>
       <c r="E173" s="9"/>
-      <c r="F173" s="9" t="str">
-        <f>$F$172</f>
-        <v>Between A06 and A10</v>
+      <c r="F173" s="135" t="s">
+        <v>174</v>
       </c>
       <c r="G173" s="123">
         <f t="shared" si="30"/>
         <v>-24.6</v>
       </c>
       <c r="H173" s="123">
-        <f t="shared" ref="H173:H175" si="33">$D$175</f>
+        <f>$D$176</f>
         <v>-19.600000000000001</v>
       </c>
       <c r="I173" s="122">
-        <v>0.38124999999999998</v>
+        <v>0.37430555555555556</v>
       </c>
       <c r="J173" s="108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K173" s="121" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="L173" s="112"/>
     </row>
-    <row r="174" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A09</v>
+        <v>UCT_AST9AH_A08</v>
       </c>
       <c r="B174" s="53">
         <v>-20</v>
       </c>
       <c r="C174" s="68">
         <f t="shared" si="29"/>
-        <v>45358.378472222226</v>
+        <v>45358.371527777781</v>
       </c>
       <c r="D174" s="117"/>
       <c r="E174" s="9"/>
       <c r="F174" s="9" t="str">
-        <f>$F$172</f>
+        <f>$F$173</f>
         <v>Between A06 and A10</v>
       </c>
       <c r="G174" s="123">
@@ -7221,130 +7228,138 @@
         <v>-24.6</v>
       </c>
       <c r="H174" s="123">
+        <f t="shared" ref="H174:H176" si="33">$D$176</f>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="I174" s="122">
+        <v>0.38124999999999998</v>
+      </c>
+      <c r="J174" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="K174" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="L174" s="112"/>
+    </row>
+    <row r="175" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A175" s="31" t="str">
+        <f t="shared" si="10"/>
+        <v>UCT_AST9AH_A09</v>
+      </c>
+      <c r="B175" s="53">
+        <v>-20</v>
+      </c>
+      <c r="C175" s="68">
+        <f t="shared" si="29"/>
+        <v>45358.378472222226</v>
+      </c>
+      <c r="D175" s="117"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="9" t="str">
+        <f>$F$173</f>
+        <v>Between A06 and A10</v>
+      </c>
+      <c r="G175" s="123">
+        <f t="shared" si="30"/>
+        <v>-24.6</v>
+      </c>
+      <c r="H175" s="123">
         <f t="shared" si="33"/>
         <v>-19.600000000000001</v>
       </c>
-      <c r="I174" s="122">
+      <c r="I175" s="122">
         <v>0.38819444444444445</v>
       </c>
-      <c r="J174" s="108" t="s">
+      <c r="J175" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="K174" s="121" t="s">
+      <c r="K175" s="121" t="s">
         <v>173</v>
       </c>
-      <c r="L174" s="112"/>
-    </row>
-    <row r="175" spans="1:12" ht="137" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="33" t="str">
+      <c r="L175" s="112"/>
+    </row>
+    <row r="176" spans="1:12" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="33" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_A10</v>
       </c>
-      <c r="B175" s="54">
+      <c r="B176" s="54">
         <v>-20</v>
       </c>
-      <c r="C175" s="71">
+      <c r="C176" s="71">
         <f t="shared" si="29"/>
         <v>45358.385416666672</v>
       </c>
-      <c r="D175" s="119">
+      <c r="D176" s="119">
         <v>-19.600000000000001</v>
       </c>
-      <c r="E175" s="137">
+      <c r="E176" s="137">
         <v>0.42499999999999999</v>
       </c>
-      <c r="F175" s="16" t="s">
+      <c r="F176" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="G175" s="130">
+      <c r="G176" s="130">
         <f t="shared" si="30"/>
         <v>-24.6</v>
       </c>
-      <c r="H175" s="130">
+      <c r="H176" s="130">
         <f t="shared" si="33"/>
         <v>-19.600000000000001</v>
       </c>
-      <c r="I175" s="137">
+      <c r="I176" s="137">
         <v>0.41111111111111109</v>
       </c>
-      <c r="J175" s="138" t="s">
+      <c r="J176" s="138" t="s">
         <v>196</v>
       </c>
-      <c r="K175" s="131" t="s">
+      <c r="K176" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="L175" s="132" t="s">
+      <c r="L176" s="132" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A176" s="29" t="str">
+    <row r="177" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A177" s="29" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_B01</v>
       </c>
-      <c r="B176" s="73">
+      <c r="B177" s="73">
         <v>-20</v>
       </c>
-      <c r="C176" s="77"/>
-      <c r="D176" s="116">
+      <c r="C177" s="77"/>
+      <c r="D177" s="116">
         <v>-19.600000000000001</v>
       </c>
-      <c r="E176" s="70">
+      <c r="E177" s="70">
         <v>0.63194444444444442</v>
       </c>
-      <c r="F176" s="22" t="s">
+      <c r="F177" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="G176" s="128">
-        <f>$D$176</f>
+      <c r="G177" s="128">
+        <f>$D$177</f>
         <v>-19.600000000000001</v>
       </c>
-      <c r="H176" s="128">
-        <f>$D$182</f>
+      <c r="H177" s="128">
+        <f>$D$183</f>
         <v>-19.600000000000001</v>
       </c>
-      <c r="I176" s="22"/>
-      <c r="J176" s="22"/>
-      <c r="K176" s="129" t="s">
+      <c r="I177" s="22"/>
+      <c r="J177" s="22"/>
+      <c r="K177" s="129" t="s">
         <v>283</v>
       </c>
-      <c r="L176" s="115" t="s">
+      <c r="L177" s="115" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B02</v>
-      </c>
-      <c r="B177" s="53">
-        <v>-20</v>
-      </c>
-      <c r="C177" s="68"/>
-      <c r="D177" s="117"/>
-      <c r="E177" s="9"/>
-      <c r="F177" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="G177" s="123">
-        <f>$D$176</f>
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="H177" s="123">
-        <f>$D$182</f>
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="I177" s="9"/>
-      <c r="J177" s="9"/>
-      <c r="K177" s="121" t="s">
-        <v>150</v>
-      </c>
-      <c r="L177" s="112"/>
     </row>
     <row r="178" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B03</v>
+        <v>UCT_AST9AH_B02</v>
       </c>
       <c r="B178" s="53">
         <v>-20</v>
@@ -7356,11 +7371,11 @@
         <v>287</v>
       </c>
       <c r="G178" s="123">
-        <f t="shared" ref="G178:G185" si="34">$D$176</f>
+        <f>$D$177</f>
         <v>-19.600000000000001</v>
       </c>
       <c r="H178" s="123">
-        <f t="shared" ref="H178:H182" si="35">$D$182</f>
+        <f>$D$183</f>
         <v>-19.600000000000001</v>
       </c>
       <c r="I178" s="9"/>
@@ -7373,7 +7388,7 @@
     <row r="179" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B04</v>
+        <v>UCT_AST9AH_B03</v>
       </c>
       <c r="B179" s="53">
         <v>-20</v>
@@ -7385,11 +7400,11 @@
         <v>287</v>
       </c>
       <c r="G179" s="123">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="G179:G186" si="34">$D$177</f>
         <v>-19.600000000000001</v>
       </c>
       <c r="H179" s="123">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="H179:H183" si="35">$D$183</f>
         <v>-19.600000000000001</v>
       </c>
       <c r="I179" s="9"/>
@@ -7399,10 +7414,10 @@
       </c>
       <c r="L179" s="112"/>
     </row>
-    <row r="180" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B05</v>
+        <v>UCT_AST9AH_B04</v>
       </c>
       <c r="B180" s="53">
         <v>-20</v>
@@ -7424,14 +7439,14 @@
       <c r="I180" s="9"/>
       <c r="J180" s="9"/>
       <c r="K180" s="121" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="L180" s="112"/>
     </row>
-    <row r="181" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A181" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B06</v>
+        <v>UCT_AST9AH_B05</v>
       </c>
       <c r="B181" s="53">
         <v>-20</v>
@@ -7453,25 +7468,21 @@
       <c r="I181" s="9"/>
       <c r="J181" s="9"/>
       <c r="K181" s="121" t="s">
-        <v>150</v>
+        <v>284</v>
       </c>
       <c r="L181" s="112"/>
     </row>
     <row r="182" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B07</v>
+        <v>UCT_AST9AH_B06</v>
       </c>
       <c r="B182" s="53">
         <v>-20</v>
       </c>
       <c r="C182" s="68"/>
-      <c r="D182" s="117">
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="E182" s="122">
-        <v>0.67708333333333337</v>
-      </c>
+      <c r="D182" s="117"/>
+      <c r="E182" s="9"/>
       <c r="F182" s="9" t="s">
         <v>287</v>
       </c>
@@ -7493,24 +7504,28 @@
     <row r="183" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B08</v>
+        <v>UCT_AST9AH_B07</v>
       </c>
       <c r="B183" s="53">
         <v>-20</v>
       </c>
       <c r="C183" s="68"/>
-      <c r="D183" s="117"/>
-      <c r="E183" s="9"/>
+      <c r="D183" s="117">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="E183" s="122">
+        <v>0.67708333333333337</v>
+      </c>
       <c r="F183" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G183" s="123">
         <f t="shared" si="34"/>
         <v>-19.600000000000001</v>
       </c>
       <c r="H183" s="123">
-        <f>$D$185</f>
-        <v>-19</v>
+        <f t="shared" si="35"/>
+        <v>-19.600000000000001</v>
       </c>
       <c r="I183" s="9"/>
       <c r="J183" s="9"/>
@@ -7522,7 +7537,7 @@
     <row r="184" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B09</v>
+        <v>UCT_AST9AH_B08</v>
       </c>
       <c r="B184" s="53">
         <v>-20</v>
@@ -7538,7 +7553,7 @@
         <v>-19.600000000000001</v>
       </c>
       <c r="H184" s="123">
-        <f t="shared" ref="H184:H185" si="36">$D$185</f>
+        <f>$D$186</f>
         <v>-19</v>
       </c>
       <c r="I184" s="9"/>
@@ -7548,21 +7563,17 @@
       </c>
       <c r="L184" s="112"/>
     </row>
-    <row r="185" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="33" t="str">
+    <row r="185" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A185" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_B10</v>
-      </c>
-      <c r="B185" s="54">
+        <v>UCT_AST9AH_B09</v>
+      </c>
+      <c r="B185" s="53">
         <v>-20</v>
       </c>
-      <c r="C185" s="71"/>
-      <c r="D185" s="119">
-        <v>-19</v>
-      </c>
-      <c r="E185" s="137">
-        <v>0.70138888888888884</v>
-      </c>
+      <c r="C185" s="68"/>
+      <c r="D185" s="117"/>
+      <c r="E185" s="9"/>
       <c r="F185" s="9" t="s">
         <v>288</v>
       </c>
@@ -7571,106 +7582,103 @@
         <v>-19.600000000000001</v>
       </c>
       <c r="H185" s="123">
+        <f t="shared" ref="H185:H186" si="36">$D$186</f>
+        <v>-19</v>
+      </c>
+      <c r="I185" s="9"/>
+      <c r="J185" s="9"/>
+      <c r="K185" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="L185" s="112"/>
+    </row>
+    <row r="186" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="33" t="str">
+        <f t="shared" si="10"/>
+        <v>UCT_AST9AH_B10</v>
+      </c>
+      <c r="B186" s="54">
+        <v>-20</v>
+      </c>
+      <c r="C186" s="71"/>
+      <c r="D186" s="119">
+        <v>-19</v>
+      </c>
+      <c r="E186" s="137">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G186" s="123">
+        <f t="shared" si="34"/>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="H186" s="123">
         <f t="shared" si="36"/>
         <v>-19</v>
       </c>
-      <c r="I185" s="16"/>
-      <c r="J185" s="16"/>
-      <c r="K185" s="131" t="s">
+      <c r="I186" s="16"/>
+      <c r="J186" s="16"/>
+      <c r="K186" s="131" t="s">
         <v>286</v>
       </c>
-      <c r="L185" s="132" t="s">
+      <c r="L186" s="132" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="102" x14ac:dyDescent="0.2">
-      <c r="A186" s="29" t="str">
+    <row r="187" spans="1:12" ht="102" x14ac:dyDescent="0.2">
+      <c r="A187" s="29" t="str">
         <f t="shared" si="10"/>
         <v>UCT_AST9AH_A01</v>
       </c>
-      <c r="B186" s="73">
+      <c r="B187" s="73">
         <v>-10</v>
       </c>
-      <c r="C186" s="77">
+      <c r="C187" s="77">
         <v>45358.541666666664</v>
       </c>
-      <c r="D186" s="116">
+      <c r="D187" s="116">
         <v>-9.9</v>
       </c>
-      <c r="E186" s="70">
+      <c r="E187" s="70">
         <v>0.64652777777777781</v>
       </c>
-      <c r="F186" s="22" t="s">
+      <c r="F187" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="G186" s="128">
-        <f>$D$186</f>
+      <c r="G187" s="128">
+        <f>$D$187</f>
         <v>-9.9</v>
       </c>
-      <c r="H186" s="123">
-        <f t="shared" ref="H186:H189" si="37">$D$190</f>
+      <c r="H187" s="123">
+        <f t="shared" ref="H187:H190" si="37">$D$191</f>
         <v>-6.4</v>
       </c>
-      <c r="I186" s="70">
+      <c r="I187" s="70">
         <v>0.64652777777777781</v>
       </c>
-      <c r="J186" s="108" t="s">
+      <c r="J187" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="K186" s="129" t="s">
+      <c r="K187" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="L186" s="115" t="s">
+      <c r="L187" s="115" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A187" s="31" t="str">
-        <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A02</v>
-      </c>
-      <c r="B187" s="53">
-        <v>-10</v>
-      </c>
-      <c r="C187" s="68">
-        <f t="shared" ref="C187:C205" si="38">C186+$C$101</f>
-        <v>45358.548611111109</v>
-      </c>
-      <c r="D187" s="117"/>
-      <c r="E187" s="9"/>
-      <c r="F187" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="G187" s="123">
-        <f>$D$186</f>
-        <v>-9.9</v>
-      </c>
-      <c r="H187" s="123">
-        <f t="shared" si="37"/>
-        <v>-6.4</v>
-      </c>
-      <c r="I187" s="122">
-        <v>0.65416666666666667</v>
-      </c>
-      <c r="J187" s="108" t="s">
-        <v>204</v>
-      </c>
-      <c r="K187" s="121" t="s">
-        <v>202</v>
-      </c>
-      <c r="L187" s="112"/>
     </row>
     <row r="188" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A03</v>
+        <v>UCT_AST9AH_A02</v>
       </c>
       <c r="B188" s="53">
         <v>-10</v>
       </c>
       <c r="C188" s="68">
-        <f t="shared" si="38"/>
-        <v>45358.555555555555</v>
+        <f t="shared" ref="C188:C206" si="38">C187+$C$102</f>
+        <v>45358.548611111109</v>
       </c>
       <c r="D188" s="117"/>
       <c r="E188" s="9"/>
@@ -7678,7 +7686,7 @@
         <v>205</v>
       </c>
       <c r="G188" s="123">
-        <f t="shared" ref="G188:G194" si="39">$D$186</f>
+        <f>$D$187</f>
         <v>-9.9</v>
       </c>
       <c r="H188" s="123">
@@ -7686,29 +7694,27 @@
         <v>-6.4</v>
       </c>
       <c r="I188" s="122">
-        <v>0.66111111111111109</v>
+        <v>0.65416666666666667</v>
       </c>
       <c r="J188" s="108" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K188" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="L188" s="112" t="s">
-        <v>199</v>
-      </c>
+      <c r="L188" s="112"/>
     </row>
     <row r="189" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A04</v>
+        <v>UCT_AST9AH_A03</v>
       </c>
       <c r="B189" s="53">
         <v>-10</v>
       </c>
       <c r="C189" s="68">
         <f t="shared" si="38"/>
-        <v>45358.5625</v>
+        <v>45358.555555555555</v>
       </c>
       <c r="D189" s="117"/>
       <c r="E189" s="9"/>
@@ -7716,7 +7722,7 @@
         <v>205</v>
       </c>
       <c r="G189" s="123">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="G189:G195" si="39">$D$187</f>
         <v>-9.9</v>
       </c>
       <c r="H189" s="123">
@@ -7724,34 +7730,32 @@
         <v>-6.4</v>
       </c>
       <c r="I189" s="122">
-        <v>0.66874999999999996</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="J189" s="108" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K189" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="L189" s="112"/>
+      <c r="L189" s="112" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="190" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="31" t="str">
         <f t="shared" si="10"/>
-        <v>UCT_AST9AH_A05</v>
+        <v>UCT_AST9AH_A04</v>
       </c>
       <c r="B190" s="53">
         <v>-10</v>
       </c>
       <c r="C190" s="68">
         <f t="shared" si="38"/>
-        <v>45358.569444444445</v>
-      </c>
-      <c r="D190" s="117">
-        <v>-6.4</v>
-      </c>
-      <c r="E190" s="9">
-        <v>16.13</v>
-      </c>
+        <v>45358.5625</v>
+      </c>
+      <c r="D190" s="117"/>
+      <c r="E190" s="9"/>
       <c r="F190" s="9" t="s">
         <v>205</v>
       </c>
@@ -7760,113 +7764,116 @@
         <v>-9.9</v>
       </c>
       <c r="H190" s="123">
-        <f>$D$190</f>
+        <f t="shared" si="37"/>
         <v>-6.4</v>
       </c>
       <c r="I190" s="122">
-        <v>0.67569444444444449</v>
+        <v>0.66874999999999996</v>
       </c>
       <c r="J190" s="108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K190" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="L190" s="112" t="s">
-        <v>208</v>
-      </c>
+      <c r="L190" s="112"/>
     </row>
     <row r="191" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="31" t="str">
-        <f t="shared" ref="A191:A245" si="40">A171</f>
-        <v>UCT_AST9AH_A06</v>
+        <f t="shared" si="10"/>
+        <v>UCT_AST9AH_A05</v>
       </c>
       <c r="B191" s="53">
         <v>-10</v>
       </c>
       <c r="C191" s="68">
         <f t="shared" si="38"/>
-        <v>45358.576388888891</v>
-      </c>
-      <c r="D191" s="117"/>
-      <c r="E191" s="9"/>
+        <v>45358.569444444445</v>
+      </c>
+      <c r="D191" s="117">
+        <v>-6.4</v>
+      </c>
+      <c r="E191" s="9">
+        <v>16.13</v>
+      </c>
       <c r="F191" s="9" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="G191" s="123">
         <f t="shared" si="39"/>
         <v>-9.9</v>
       </c>
       <c r="H191" s="123">
-        <f>$D$195</f>
-        <v>-1</v>
+        <f>$D$191</f>
+        <v>-6.4</v>
       </c>
       <c r="I191" s="122">
-        <v>0.68263888888888891</v>
+        <v>0.67569444444444449</v>
       </c>
       <c r="J191" s="108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K191" s="121" t="s">
         <v>202</v>
       </c>
       <c r="L191" s="112" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="31" t="str">
-        <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A07</v>
+        <f t="shared" ref="A192:A246" si="40">A172</f>
+        <v>UCT_AST9AH_A06</v>
       </c>
       <c r="B192" s="53">
         <v>-10</v>
       </c>
       <c r="C192" s="68">
         <f t="shared" si="38"/>
-        <v>45358.583333333336</v>
+        <v>45358.576388888891</v>
       </c>
       <c r="D192" s="117"/>
       <c r="E192" s="9"/>
-      <c r="F192" s="9" t="str">
-        <f>$F$191</f>
-        <v>Between A01 and A10</v>
+      <c r="F192" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="G192" s="123">
         <f t="shared" si="39"/>
         <v>-9.9</v>
       </c>
       <c r="H192" s="123">
-        <f t="shared" ref="H192:H195" si="41">$D$195</f>
+        <f>$D$196</f>
         <v>-1</v>
       </c>
       <c r="I192" s="122">
-        <v>0.69027777777777777</v>
+        <v>0.68263888888888891</v>
       </c>
       <c r="J192" s="108" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K192" s="121" t="s">
         <v>202</v>
       </c>
-      <c r="L192" s="112"/>
+      <c r="L192" s="112" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="193" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A08</v>
+        <v>UCT_AST9AH_A07</v>
       </c>
       <c r="B193" s="53">
         <v>-10</v>
       </c>
       <c r="C193" s="68">
         <f t="shared" si="38"/>
-        <v>45358.590277777781</v>
+        <v>45358.583333333336</v>
       </c>
       <c r="D193" s="117"/>
       <c r="E193" s="9"/>
       <c r="F193" s="9" t="str">
-        <f t="shared" ref="F193:F195" si="42">$F$191</f>
+        <f>$F$192</f>
         <v>Between A01 and A10</v>
       </c>
       <c r="G193" s="123">
@@ -7874,14 +7881,14 @@
         <v>-9.9</v>
       </c>
       <c r="H193" s="123">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="H193:H196" si="41">$D$196</f>
         <v>-1</v>
       </c>
       <c r="I193" s="122">
-        <v>0.69722222222222219</v>
+        <v>0.69027777777777777</v>
       </c>
       <c r="J193" s="108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K193" s="121" t="s">
         <v>202</v>
@@ -7891,19 +7898,19 @@
     <row r="194" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A09</v>
+        <v>UCT_AST9AH_A08</v>
       </c>
       <c r="B194" s="53">
         <v>-10</v>
       </c>
       <c r="C194" s="68">
         <f t="shared" si="38"/>
-        <v>45358.597222222226</v>
+        <v>45358.590277777781</v>
       </c>
       <c r="D194" s="117"/>
       <c r="E194" s="9"/>
       <c r="F194" s="9" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="F194:F196" si="42">$F$192</f>
         <v>Between A01 and A10</v>
       </c>
       <c r="G194" s="123">
@@ -7915,141 +7922,142 @@
         <v>-1</v>
       </c>
       <c r="I194" s="122">
-        <v>0.70416666666666672</v>
+        <v>0.69722222222222219</v>
       </c>
       <c r="J194" s="108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K194" s="121" t="s">
         <v>202</v>
       </c>
       <c r="L194" s="112"/>
     </row>
-    <row r="195" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="33" t="str">
+    <row r="195" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A195" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A10</v>
-      </c>
-      <c r="B195" s="54">
+        <v>UCT_AST9AH_A09</v>
+      </c>
+      <c r="B195" s="53">
         <v>-10</v>
       </c>
-      <c r="C195" s="71">
+      <c r="C195" s="68">
         <f t="shared" si="38"/>
-        <v>45358.604166666672</v>
-      </c>
-      <c r="D195" s="119">
-        <v>-1</v>
-      </c>
-      <c r="E195" s="16"/>
+        <v>45358.597222222226</v>
+      </c>
+      <c r="D195" s="117"/>
+      <c r="E195" s="9"/>
       <c r="F195" s="9" t="str">
         <f t="shared" si="42"/>
         <v>Between A01 and A10</v>
       </c>
-      <c r="G195" s="130">
-        <f>$D$186</f>
+      <c r="G195" s="123">
+        <f t="shared" si="39"/>
         <v>-9.9</v>
       </c>
       <c r="H195" s="123">
         <f t="shared" si="41"/>
         <v>-1</v>
       </c>
-      <c r="I195" s="137">
+      <c r="I195" s="122">
+        <v>0.70416666666666672</v>
+      </c>
+      <c r="J195" s="108" t="s">
+        <v>213</v>
+      </c>
+      <c r="K195" s="121" t="s">
+        <v>202</v>
+      </c>
+      <c r="L195" s="112"/>
+    </row>
+    <row r="196" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="33" t="str">
+        <f t="shared" si="40"/>
+        <v>UCT_AST9AH_A10</v>
+      </c>
+      <c r="B196" s="54">
+        <v>-10</v>
+      </c>
+      <c r="C196" s="71">
+        <f t="shared" si="38"/>
+        <v>45358.604166666672</v>
+      </c>
+      <c r="D196" s="119">
+        <v>-1</v>
+      </c>
+      <c r="E196" s="16"/>
+      <c r="F196" s="9" t="str">
+        <f t="shared" si="42"/>
+        <v>Between A01 and A10</v>
+      </c>
+      <c r="G196" s="130">
+        <f>$D$187</f>
+        <v>-9.9</v>
+      </c>
+      <c r="H196" s="123">
+        <f t="shared" si="41"/>
+        <v>-1</v>
+      </c>
+      <c r="I196" s="137">
         <v>0.67083333333333328</v>
       </c>
-      <c r="J195" s="108" t="s">
+      <c r="J196" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="K195" s="131"/>
-      <c r="L195" s="132" t="s">
+      <c r="K196" s="131"/>
+      <c r="L196" s="132" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="68" x14ac:dyDescent="0.2">
-      <c r="A196" s="29" t="str">
+    <row r="197" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A197" s="29" t="str">
         <f t="shared" si="40"/>
         <v>UCT_AST9AH_B01</v>
       </c>
-      <c r="B196" s="73">
+      <c r="B197" s="73">
         <v>-10</v>
       </c>
-      <c r="C196" s="77">
+      <c r="C197" s="77">
         <v>45427.333333333336</v>
       </c>
-      <c r="D196" s="116">
+      <c r="D197" s="116">
         <v>-9.8000000000000007</v>
       </c>
-      <c r="E196" s="22"/>
-      <c r="F196" s="22" t="s">
+      <c r="E197" s="22"/>
+      <c r="F197" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="G196" s="128">
-        <f>$D$196</f>
+      <c r="G197" s="128">
+        <f>$D$197</f>
         <v>-9.8000000000000007</v>
       </c>
-      <c r="H196" s="128">
-        <f>$D$201</f>
+      <c r="H197" s="128">
+        <f>$D$202</f>
         <v>-8.4</v>
       </c>
-      <c r="I196" s="70">
+      <c r="I197" s="70">
         <v>0.34027777777777779</v>
       </c>
-      <c r="J196" s="22" t="s">
+      <c r="J197" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="K196" s="129" t="s">
+      <c r="K197" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="L196" s="115" t="s">
+      <c r="L197" s="115" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A197" s="31" t="str">
-        <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B02</v>
-      </c>
-      <c r="B197" s="53">
-        <v>-10</v>
-      </c>
-      <c r="C197" s="68">
-        <f t="shared" si="38"/>
-        <v>45427.340277777781</v>
-      </c>
-      <c r="D197" s="117"/>
-      <c r="E197" s="9"/>
-      <c r="F197" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="G197" s="123">
-        <f>$D$196</f>
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="H197" s="123">
-        <f>$D$201</f>
-        <v>-8.4</v>
-      </c>
-      <c r="I197" s="122">
-        <v>0.34722222222222221</v>
-      </c>
-      <c r="J197" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="K197" s="121" t="s">
-        <v>150</v>
-      </c>
-      <c r="L197" s="112"/>
     </row>
     <row r="198" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B03</v>
+        <v>UCT_AST9AH_B02</v>
       </c>
       <c r="B198" s="53">
         <v>-10</v>
       </c>
       <c r="C198" s="68">
         <f t="shared" si="38"/>
-        <v>45427.347222222226</v>
+        <v>45427.340277777781</v>
       </c>
       <c r="D198" s="117"/>
       <c r="E198" s="9"/>
@@ -8057,18 +8065,18 @@
         <v>262</v>
       </c>
       <c r="G198" s="123">
-        <f t="shared" ref="G198:G205" si="43">$D$196</f>
+        <f>$D$197</f>
         <v>-9.8000000000000007</v>
       </c>
       <c r="H198" s="123">
-        <f t="shared" ref="H198:H205" si="44">$D$201</f>
+        <f>$D$202</f>
         <v>-8.4</v>
       </c>
       <c r="I198" s="122">
-        <v>0.35486111111111113</v>
+        <v>0.34722222222222221</v>
       </c>
       <c r="J198" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K198" s="121" t="s">
         <v>150</v>
@@ -8078,14 +8086,14 @@
     <row r="199" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B04</v>
+        <v>UCT_AST9AH_B03</v>
       </c>
       <c r="B199" s="53">
         <v>-10</v>
       </c>
       <c r="C199" s="68">
         <f t="shared" si="38"/>
-        <v>45427.354166666672</v>
+        <v>45427.347222222226</v>
       </c>
       <c r="D199" s="117"/>
       <c r="E199" s="9"/>
@@ -8093,18 +8101,18 @@
         <v>262</v>
       </c>
       <c r="G199" s="123">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="G199:G206" si="43">$D$197</f>
         <v>-9.8000000000000007</v>
       </c>
       <c r="H199" s="123">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="H199:H206" si="44">$D$202</f>
         <v>-8.4</v>
       </c>
       <c r="I199" s="122">
-        <v>0.36180555555555555</v>
+        <v>0.35486111111111113</v>
       </c>
       <c r="J199" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K199" s="121" t="s">
         <v>150</v>
@@ -8114,15 +8122,16 @@
     <row r="200" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B05</v>
+        <v>UCT_AST9AH_B04</v>
       </c>
       <c r="B200" s="53">
         <v>-10</v>
       </c>
       <c r="C200" s="68">
         <f t="shared" si="38"/>
-        <v>45427.361111111117</v>
-      </c>
+        <v>45427.354166666672</v>
+      </c>
+      <c r="D200" s="117"/>
       <c r="E200" s="9"/>
       <c r="F200" s="9" t="s">
         <v>262</v>
@@ -8136,30 +8145,27 @@
         <v>-8.4</v>
       </c>
       <c r="I200" s="122">
-        <v>0.36875000000000002</v>
+        <v>0.36180555555555555</v>
       </c>
       <c r="J200" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K200" s="121" t="s">
         <v>150</v>
       </c>
       <c r="L200" s="112"/>
     </row>
-    <row r="201" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B06</v>
+        <v>UCT_AST9AH_B05</v>
       </c>
       <c r="B201" s="53">
         <v>-10</v>
       </c>
       <c r="C201" s="68">
         <f t="shared" si="38"/>
-        <v>45427.368055555562</v>
-      </c>
-      <c r="D201" s="117">
-        <v>-8.4</v>
+        <v>45427.361111111117</v>
       </c>
       <c r="E201" s="9"/>
       <c r="F201" s="9" t="s">
@@ -8174,31 +8180,31 @@
         <v>-8.4</v>
       </c>
       <c r="I201" s="122">
-        <v>0.37569444444444444</v>
+        <v>0.36875000000000002</v>
       </c>
       <c r="J201" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K201" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="L201" s="112" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="L201" s="112"/>
+    </row>
+    <row r="202" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A202" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B07</v>
+        <v>UCT_AST9AH_B06</v>
       </c>
       <c r="B202" s="53">
         <v>-10</v>
       </c>
       <c r="C202" s="68">
         <f t="shared" si="38"/>
-        <v>45427.375000000007</v>
-      </c>
-      <c r="D202" s="117"/>
+        <v>45427.368055555562</v>
+      </c>
+      <c r="D202" s="117">
+        <v>-8.4</v>
+      </c>
       <c r="E202" s="9"/>
       <c r="F202" s="9" t="s">
         <v>262</v>
@@ -8212,27 +8218,29 @@
         <v>-8.4</v>
       </c>
       <c r="I202" s="122">
-        <v>0.39027777777777778</v>
+        <v>0.37569444444444444</v>
       </c>
       <c r="J202" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K202" s="121" t="s">
-        <v>291</v>
-      </c>
-      <c r="L202" s="112"/>
-    </row>
-    <row r="203" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="L202" s="112" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A203" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B08</v>
+        <v>UCT_AST9AH_B07</v>
       </c>
       <c r="B203" s="53">
         <v>-10</v>
       </c>
       <c r="C203" s="68">
         <f t="shared" si="38"/>
-        <v>45427.381944444453</v>
+        <v>45427.375000000007</v>
       </c>
       <c r="D203" s="117"/>
       <c r="E203" s="9"/>
@@ -8248,27 +8256,27 @@
         <v>-8.4</v>
       </c>
       <c r="I203" s="122">
-        <v>0.39861111111111114</v>
+        <v>0.39027777777777778</v>
       </c>
       <c r="J203" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K203" s="121" t="s">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c r="L203" s="112"/>
     </row>
-    <row r="204" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B09</v>
+        <v>UCT_AST9AH_B08</v>
       </c>
       <c r="B204" s="53">
         <v>-10</v>
       </c>
       <c r="C204" s="68">
         <f t="shared" si="38"/>
-        <v>45427.388888888898</v>
+        <v>45427.381944444453</v>
       </c>
       <c r="D204" s="117"/>
       <c r="E204" s="9"/>
@@ -8284,34 +8292,30 @@
         <v>-8.4</v>
       </c>
       <c r="I204" s="122">
-        <v>0.40555555555555556</v>
+        <v>0.39861111111111114</v>
       </c>
       <c r="J204" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K204" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="L204" s="112" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="33" t="str">
+      <c r="L204" s="112"/>
+    </row>
+    <row r="205" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A205" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B10</v>
-      </c>
-      <c r="B205" s="54">
+        <v>UCT_AST9AH_B09</v>
+      </c>
+      <c r="B205" s="53">
         <v>-10</v>
       </c>
       <c r="C205" s="68">
         <f t="shared" si="38"/>
-        <v>45427.395833333343</v>
-      </c>
-      <c r="D205" s="119">
-        <v>-9.6</v>
-      </c>
-      <c r="E205" s="16"/>
+        <v>45427.388888888898</v>
+      </c>
+      <c r="D205" s="117"/>
+      <c r="E205" s="9"/>
       <c r="F205" s="9" t="s">
         <v>262</v>
       </c>
@@ -8323,100 +8327,107 @@
         <f t="shared" si="44"/>
         <v>-8.4</v>
       </c>
-      <c r="I205" s="137">
+      <c r="I205" s="122">
+        <v>0.40555555555555556</v>
+      </c>
+      <c r="J205" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="K205" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="L205" s="112" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="33" t="str">
+        <f t="shared" si="40"/>
+        <v>UCT_AST9AH_B10</v>
+      </c>
+      <c r="B206" s="54">
+        <v>-10</v>
+      </c>
+      <c r="C206" s="68">
+        <f t="shared" si="38"/>
+        <v>45427.395833333343</v>
+      </c>
+      <c r="D206" s="119">
+        <v>-9.6</v>
+      </c>
+      <c r="E206" s="16"/>
+      <c r="F206" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G206" s="123">
+        <f t="shared" si="43"/>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="H206" s="123">
+        <f t="shared" si="44"/>
+        <v>-8.4</v>
+      </c>
+      <c r="I206" s="137">
         <v>0.41249999999999998</v>
       </c>
-      <c r="J205" s="16" t="s">
+      <c r="J206" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="K205" s="131"/>
-      <c r="L205" s="132"/>
-    </row>
-    <row r="206" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A206" s="29" t="str">
+      <c r="K206" s="131"/>
+      <c r="L206" s="132"/>
+    </row>
+    <row r="207" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A207" s="29" t="str">
         <f t="shared" si="40"/>
         <v>UCT_AST9AH_A01</v>
       </c>
-      <c r="B206" s="73">
+      <c r="B207" s="73">
         <v>0</v>
       </c>
-      <c r="C206" s="77">
+      <c r="C207" s="77">
         <v>45359.333333333336</v>
       </c>
-      <c r="D206" s="116">
+      <c r="D207" s="116">
         <v>0.5</v>
       </c>
-      <c r="E206" s="70">
+      <c r="E207" s="70">
         <v>0.34444444444444444</v>
       </c>
-      <c r="F206" s="22" t="s">
+      <c r="F207" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G206" s="128">
-        <f>$D$206</f>
+      <c r="G207" s="128">
+        <f>$D$207</f>
         <v>0.5</v>
       </c>
-      <c r="H206" s="123">
-        <f t="shared" ref="H206" si="45">$D$211</f>
+      <c r="H207" s="123">
+        <f t="shared" ref="H207" si="45">$D$212</f>
         <v>3</v>
       </c>
-      <c r="I206" s="70">
+      <c r="I207" s="70">
         <v>0.34444444444444444</v>
       </c>
-      <c r="J206" s="108" t="s">
+      <c r="J207" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="K206" s="121" t="s">
+      <c r="K207" s="121" t="s">
         <v>217</v>
       </c>
-      <c r="L206" s="115" t="s">
+      <c r="L207" s="115" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A207" s="31" t="str">
-        <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A02</v>
-      </c>
-      <c r="B207" s="53">
-        <v>0</v>
-      </c>
-      <c r="C207" s="68">
-        <f t="shared" ref="C207:C215" si="46">C206+$C$101</f>
-        <v>45359.340277777781</v>
-      </c>
-      <c r="D207" s="117"/>
-      <c r="E207" s="9"/>
-      <c r="F207" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="G207" s="123">
-        <f>$D$206</f>
-        <v>0.5</v>
-      </c>
-      <c r="H207" s="123">
-        <f>$D$211</f>
-        <v>3</v>
-      </c>
-      <c r="I207" s="122">
-        <v>0.35138888888888886</v>
-      </c>
-      <c r="J207" s="108" t="s">
-        <v>220</v>
-      </c>
-      <c r="L207" s="112"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A03</v>
+        <v>UCT_AST9AH_A02</v>
       </c>
       <c r="B208" s="53">
         <v>0</v>
       </c>
       <c r="C208" s="68">
-        <f t="shared" si="46"/>
-        <v>45359.347222222226</v>
+        <f t="shared" ref="C208:C216" si="46">C207+$C$102</f>
+        <v>45359.340277777781</v>
       </c>
       <c r="D208" s="117"/>
       <c r="E208" s="9"/>
@@ -8424,33 +8435,32 @@
         <v>130</v>
       </c>
       <c r="G208" s="123">
-        <f t="shared" ref="G208:G215" si="47">$D$206</f>
+        <f>$D$207</f>
         <v>0.5</v>
       </c>
       <c r="H208" s="123">
-        <f t="shared" ref="H208:H211" si="48">$D$211</f>
+        <f>$D$212</f>
         <v>3</v>
       </c>
       <c r="I208" s="122">
-        <v>0.35833333333333334</v>
+        <v>0.35138888888888886</v>
       </c>
       <c r="J208" s="108" t="s">
-        <v>221</v>
-      </c>
-      <c r="K208" s="121"/>
+        <v>220</v>
+      </c>
       <c r="L208" s="112"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A04</v>
+        <v>UCT_AST9AH_A03</v>
       </c>
       <c r="B209" s="53">
         <v>0</v>
       </c>
       <c r="C209" s="68">
         <f t="shared" si="46"/>
-        <v>45359.354166666672</v>
+        <v>45359.347222222226</v>
       </c>
       <c r="D209" s="117"/>
       <c r="E209" s="9"/>
@@ -8458,18 +8468,18 @@
         <v>130</v>
       </c>
       <c r="G209" s="123">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="G209:G216" si="47">$D$207</f>
         <v>0.5</v>
       </c>
       <c r="H209" s="123">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="H209:H212" si="48">$D$212</f>
         <v>3</v>
       </c>
       <c r="I209" s="122">
-        <v>0.36527777777777776</v>
+        <v>0.35833333333333334</v>
       </c>
       <c r="J209" s="108" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K209" s="121"/>
       <c r="L209" s="112"/>
@@ -8477,14 +8487,14 @@
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A05</v>
+        <v>UCT_AST9AH_A04</v>
       </c>
       <c r="B210" s="53">
         <v>0</v>
       </c>
       <c r="C210" s="68">
         <f t="shared" si="46"/>
-        <v>45359.361111111117</v>
+        <v>45359.354166666672</v>
       </c>
       <c r="D210" s="117"/>
       <c r="E210" s="9"/>
@@ -8500,32 +8510,28 @@
         <v>3</v>
       </c>
       <c r="I210" s="122">
-        <v>0.37222222222222223</v>
+        <v>0.36527777777777776</v>
       </c>
       <c r="J210" s="108" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K210" s="121"/>
       <c r="L210" s="112"/>
     </row>
-    <row r="211" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A06</v>
+        <v>UCT_AST9AH_A05</v>
       </c>
       <c r="B211" s="53">
         <v>0</v>
       </c>
       <c r="C211" s="68">
         <f t="shared" si="46"/>
-        <v>45359.368055555562</v>
-      </c>
-      <c r="D211" s="117">
-        <v>3</v>
-      </c>
-      <c r="E211" s="122">
-        <v>0.37916666666666665</v>
-      </c>
+        <v>45359.361111111117</v>
+      </c>
+      <c r="D211" s="117"/>
+      <c r="E211" s="9"/>
       <c r="F211" s="9" t="s">
         <v>130</v>
       </c>
@@ -8538,81 +8544,84 @@
         <v>3</v>
       </c>
       <c r="I211" s="122">
-        <v>0.37916666666666665</v>
+        <v>0.37222222222222223</v>
       </c>
       <c r="J211" s="108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K211" s="121"/>
-      <c r="L211" s="112" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L211" s="112"/>
+    </row>
+    <row r="212" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A07</v>
+        <v>UCT_AST9AH_A06</v>
       </c>
       <c r="B212" s="53">
         <v>0</v>
       </c>
       <c r="C212" s="68">
         <f t="shared" si="46"/>
-        <v>45359.375000000007</v>
-      </c>
-      <c r="D212" s="117"/>
-      <c r="E212" s="9"/>
+        <v>45359.368055555562</v>
+      </c>
+      <c r="D212" s="117">
+        <v>3</v>
+      </c>
+      <c r="E212" s="122">
+        <v>0.37916666666666665</v>
+      </c>
       <c r="F212" s="9" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="G212" s="123">
         <f t="shared" si="47"/>
         <v>0.5</v>
       </c>
       <c r="H212" s="123">
-        <f>$D$215</f>
-        <v>5.7</v>
+        <f t="shared" si="48"/>
+        <v>3</v>
       </c>
       <c r="I212" s="122">
-        <v>0.38680555555555557</v>
+        <v>0.37916666666666665</v>
       </c>
       <c r="J212" s="108" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K212" s="121"/>
-      <c r="L212" s="112"/>
+      <c r="L212" s="112" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A08</v>
+        <v>UCT_AST9AH_A07</v>
       </c>
       <c r="B213" s="53">
         <v>0</v>
       </c>
       <c r="C213" s="68">
         <f t="shared" si="46"/>
-        <v>45359.381944444453</v>
+        <v>45359.375000000007</v>
       </c>
       <c r="D213" s="117"/>
       <c r="E213" s="9"/>
-      <c r="F213" s="9" t="str">
-        <f>$F$212</f>
-        <v>Between A01 and A10</v>
+      <c r="F213" s="9" t="s">
+        <v>229</v>
       </c>
       <c r="G213" s="123">
         <f t="shared" si="47"/>
         <v>0.5</v>
       </c>
       <c r="H213" s="123">
-        <f t="shared" ref="H213:H215" si="49">$D$215</f>
+        <f>$D$216</f>
         <v>5.7</v>
       </c>
       <c r="I213" s="122">
-        <v>0.39374999999999999</v>
+        <v>0.38680555555555557</v>
       </c>
       <c r="J213" s="108" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K213" s="121"/>
       <c r="L213" s="112"/>
@@ -8620,19 +8629,19 @@
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A09</v>
+        <v>UCT_AST9AH_A08</v>
       </c>
       <c r="B214" s="53">
         <v>0</v>
       </c>
       <c r="C214" s="68">
         <f t="shared" si="46"/>
-        <v>45359.388888888898</v>
+        <v>45359.381944444453</v>
       </c>
       <c r="D214" s="117"/>
       <c r="E214" s="9"/>
       <c r="F214" s="9" t="str">
-        <f t="shared" ref="F214:F215" si="50">$F$212</f>
+        <f>$F$213</f>
         <v>Between A01 and A10</v>
       </c>
       <c r="G214" s="123">
@@ -8640,133 +8649,135 @@
         <v>0.5</v>
       </c>
       <c r="H214" s="123">
+        <f t="shared" ref="H214:H216" si="49">$D$216</f>
+        <v>5.7</v>
+      </c>
+      <c r="I214" s="122">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="J214" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="K214" s="121"/>
+      <c r="L214" s="112"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A215" s="31" t="str">
+        <f t="shared" si="40"/>
+        <v>UCT_AST9AH_A09</v>
+      </c>
+      <c r="B215" s="53">
+        <v>0</v>
+      </c>
+      <c r="C215" s="68">
+        <f t="shared" si="46"/>
+        <v>45359.388888888898</v>
+      </c>
+      <c r="D215" s="117"/>
+      <c r="E215" s="9"/>
+      <c r="F215" s="9" t="str">
+        <f t="shared" ref="F215:F216" si="50">$F$213</f>
+        <v>Between A01 and A10</v>
+      </c>
+      <c r="G215" s="123">
+        <f t="shared" si="47"/>
+        <v>0.5</v>
+      </c>
+      <c r="H215" s="123">
         <f t="shared" si="49"/>
         <v>5.7</v>
       </c>
-      <c r="I214" s="122">
+      <c r="I215" s="122">
         <v>0.40069444444444446</v>
       </c>
-      <c r="J214" s="108" t="s">
+      <c r="J215" s="108" t="s">
         <v>227</v>
       </c>
-      <c r="K214" s="121"/>
-      <c r="L214" s="112"/>
-    </row>
-    <row r="215" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="74" t="str">
+      <c r="K215" s="121"/>
+      <c r="L215" s="112"/>
+    </row>
+    <row r="216" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="74" t="str">
         <f t="shared" si="40"/>
         <v>UCT_AST9AH_A10</v>
       </c>
-      <c r="B215" s="143">
+      <c r="B216" s="143">
         <v>0</v>
       </c>
-      <c r="C215" s="75">
+      <c r="C216" s="75">
         <f t="shared" si="46"/>
         <v>45359.395833333343</v>
       </c>
-      <c r="D215" s="118">
+      <c r="D216" s="118">
         <v>5.7</v>
       </c>
-      <c r="E215" s="153">
+      <c r="E216" s="153">
         <v>0.40763888888888888</v>
       </c>
-      <c r="F215" s="76" t="str">
+      <c r="F216" s="76" t="str">
         <f t="shared" si="50"/>
         <v>Between A01 and A10</v>
       </c>
-      <c r="G215" s="126">
+      <c r="G216" s="126">
         <f t="shared" si="47"/>
         <v>0.5</v>
       </c>
-      <c r="H215" s="126">
+      <c r="H216" s="126">
         <f t="shared" si="49"/>
         <v>5.7</v>
       </c>
-      <c r="I215" s="153">
+      <c r="I216" s="153">
         <v>0.40763888888888888</v>
       </c>
-      <c r="J215" s="144" t="s">
+      <c r="J216" s="144" t="s">
         <v>228</v>
       </c>
-      <c r="K215" s="127"/>
-      <c r="L215" s="133"/>
-    </row>
-    <row r="216" spans="1:12" s="59" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A216" s="29" t="str">
+      <c r="K216" s="127"/>
+      <c r="L216" s="133"/>
+    </row>
+    <row r="217" spans="1:12" s="59" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A217" s="29" t="str">
         <f t="shared" si="40"/>
         <v>UCT_AST9AH_B01</v>
       </c>
-      <c r="B216" s="73">
+      <c r="B217" s="73">
         <v>0</v>
       </c>
-      <c r="C216" s="77"/>
-      <c r="D216" s="116">
+      <c r="C217" s="77"/>
+      <c r="D217" s="116">
         <v>0</v>
       </c>
-      <c r="E216" s="70">
+      <c r="E217" s="70">
         <v>0.58888888888888891</v>
       </c>
-      <c r="F216" s="22" t="s">
+      <c r="F217" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="G216" s="128">
-        <f t="shared" ref="G216" si="51">$D$216</f>
+      <c r="G217" s="128">
+        <f t="shared" ref="G217" si="51">$D$217</f>
         <v>0</v>
       </c>
-      <c r="H216" s="128">
-        <f t="shared" ref="H216" si="52">$D$221</f>
+      <c r="H217" s="128">
+        <f t="shared" ref="H217" si="52">$D$222</f>
         <v>3.1</v>
       </c>
-      <c r="I216" s="70">
+      <c r="I217" s="70">
         <v>0.58888888888888891</v>
       </c>
-      <c r="J216" s="22" t="s">
+      <c r="J217" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="K216" s="129" t="s">
+      <c r="K217" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="L216" s="115" t="s">
+      <c r="L217" s="115" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A217" s="31" t="str">
-        <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B02</v>
-      </c>
-      <c r="B217" s="53">
-        <v>0</v>
-      </c>
-      <c r="C217" s="68"/>
-      <c r="D217" s="117"/>
-      <c r="E217" s="9"/>
-      <c r="F217" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="G217" s="123">
-        <f>$D$216</f>
-        <v>0</v>
-      </c>
-      <c r="H217" s="123">
-        <f>$D$221</f>
-        <v>3.1</v>
-      </c>
-      <c r="I217" s="122">
-        <v>0.59583333333333333</v>
-      </c>
-      <c r="J217" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="K217" s="121" t="s">
-        <v>305</v>
-      </c>
-      <c r="L217" s="112"/>
     </row>
     <row r="218" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B03</v>
+        <v>UCT_AST9AH_B02</v>
       </c>
       <c r="B218" s="53">
         <v>0</v>
@@ -8778,28 +8789,28 @@
         <v>262</v>
       </c>
       <c r="G218" s="123">
-        <f t="shared" ref="G218:G225" si="53">$D$216</f>
+        <f>$D$217</f>
         <v>0</v>
       </c>
       <c r="H218" s="123">
-        <f t="shared" ref="H218:H221" si="54">$D$221</f>
+        <f>$D$222</f>
         <v>3.1</v>
       </c>
       <c r="I218" s="122">
-        <v>0.60277777777777775</v>
+        <v>0.59583333333333333</v>
       </c>
       <c r="J218" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K218" s="121" t="s">
-        <v>150</v>
+        <v>305</v>
       </c>
       <c r="L218" s="112"/>
     </row>
     <row r="219" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B04</v>
+        <v>UCT_AST9AH_B03</v>
       </c>
       <c r="B219" s="53">
         <v>0</v>
@@ -8811,18 +8822,18 @@
         <v>262</v>
       </c>
       <c r="G219" s="123">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="G219:G226" si="53">$D$217</f>
         <v>0</v>
       </c>
       <c r="H219" s="123">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="H219:H222" si="54">$D$222</f>
         <v>3.1</v>
       </c>
       <c r="I219" s="122">
-        <v>0.60972222222222228</v>
+        <v>0.60277777777777775</v>
       </c>
       <c r="J219" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K219" s="121" t="s">
         <v>150</v>
@@ -8832,7 +8843,7 @@
     <row r="220" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B05</v>
+        <v>UCT_AST9AH_B04</v>
       </c>
       <c r="B220" s="53">
         <v>0</v>
@@ -8852,31 +8863,27 @@
         <v>3.1</v>
       </c>
       <c r="I220" s="122">
-        <v>0.61597222222222225</v>
+        <v>0.60972222222222228</v>
       </c>
       <c r="J220" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K220" s="121" t="s">
-        <v>306</v>
+        <v>150</v>
       </c>
       <c r="L220" s="112"/>
     </row>
     <row r="221" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B06</v>
+        <v>UCT_AST9AH_B05</v>
       </c>
       <c r="B221" s="53">
         <v>0</v>
       </c>
       <c r="C221" s="68"/>
-      <c r="D221" s="117">
-        <v>3.1</v>
-      </c>
-      <c r="E221" s="122">
-        <v>0.62291666666666667</v>
-      </c>
+      <c r="D221" s="117"/>
+      <c r="E221" s="9"/>
       <c r="F221" s="9" t="s">
         <v>262</v>
       </c>
@@ -8889,55 +8896,59 @@
         <v>3.1</v>
       </c>
       <c r="I221" s="122">
-        <v>0.62361111111111112</v>
+        <v>0.61597222222222225</v>
       </c>
       <c r="J221" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K221" s="121" t="s">
-        <v>150</v>
-      </c>
-      <c r="L221" s="112" t="s">
-        <v>307</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="L221" s="112"/>
     </row>
     <row r="222" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B07</v>
+        <v>UCT_AST9AH_B06</v>
       </c>
       <c r="B222" s="53">
         <v>0</v>
       </c>
       <c r="C222" s="68"/>
-      <c r="D222" s="117"/>
-      <c r="E222" s="9"/>
+      <c r="D222" s="117">
+        <v>3.1</v>
+      </c>
+      <c r="E222" s="122">
+        <v>0.62291666666666667</v>
+      </c>
       <c r="F222" s="9" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="G222" s="123">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H222" s="123">
-        <f>$D$225</f>
-        <v>6</v>
+        <f t="shared" si="54"/>
+        <v>3.1</v>
       </c>
       <c r="I222" s="122">
-        <v>0.62986111111111109</v>
+        <v>0.62361111111111112</v>
       </c>
       <c r="J222" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K222" s="121" t="s">
-        <v>308</v>
-      </c>
-      <c r="L222" s="112"/>
+        <v>150</v>
+      </c>
+      <c r="L222" s="112" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="223" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B08</v>
+        <v>UCT_AST9AH_B07</v>
       </c>
       <c r="B223" s="53">
         <v>0</v>
@@ -8953,24 +8964,24 @@
         <v>0</v>
       </c>
       <c r="H223" s="123">
-        <f t="shared" ref="H223:H225" si="55">$D$225</f>
+        <f>$D$226</f>
         <v>6</v>
       </c>
       <c r="I223" s="122">
-        <v>0.63680555555555551</v>
+        <v>0.62986111111111109</v>
       </c>
       <c r="J223" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K223" s="121" t="s">
-        <v>150</v>
+        <v>308</v>
       </c>
       <c r="L223" s="112"/>
     </row>
     <row r="224" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B09</v>
+        <v>UCT_AST9AH_B08</v>
       </c>
       <c r="B224" s="53">
         <v>0</v>
@@ -8986,139 +8997,138 @@
         <v>0</v>
       </c>
       <c r="H224" s="123">
+        <f t="shared" ref="H224:H226" si="55">$D$226</f>
+        <v>6</v>
+      </c>
+      <c r="I224" s="122">
+        <v>0.63680555555555551</v>
+      </c>
+      <c r="J224" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="K224" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="L224" s="112"/>
+    </row>
+    <row r="225" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A225" s="31" t="str">
+        <f t="shared" si="40"/>
+        <v>UCT_AST9AH_B09</v>
+      </c>
+      <c r="B225" s="53">
+        <v>0</v>
+      </c>
+      <c r="C225" s="68"/>
+      <c r="D225" s="117"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G225" s="123">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H225" s="123">
         <f t="shared" si="55"/>
         <v>6</v>
       </c>
-      <c r="I224" s="122">
+      <c r="I225" s="122">
         <v>0.64375000000000004</v>
       </c>
-      <c r="J224" s="9" t="s">
+      <c r="J225" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="K224" s="121" t="s">
+      <c r="K225" s="121" t="s">
         <v>309</v>
       </c>
-      <c r="L224" s="112"/>
-    </row>
-    <row r="225" spans="1:12" s="64" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="33" t="str">
+      <c r="L225" s="112"/>
+    </row>
+    <row r="226" spans="1:12" s="64" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="33" t="str">
         <f t="shared" si="40"/>
         <v>UCT_AST9AH_B10</v>
       </c>
-      <c r="B225" s="54">
+      <c r="B226" s="54">
         <v>0</v>
       </c>
-      <c r="C225" s="71"/>
-      <c r="D225" s="119">
+      <c r="C226" s="71"/>
+      <c r="D226" s="119">
         <v>6</v>
       </c>
-      <c r="E225" s="137">
+      <c r="E226" s="137">
         <v>0.65694444444444444</v>
       </c>
-      <c r="F225" s="16" t="s">
+      <c r="F226" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="G225" s="130">
+      <c r="G226" s="130">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="H225" s="130">
+      <c r="H226" s="130">
         <f t="shared" si="55"/>
         <v>6</v>
       </c>
-      <c r="I225" s="137">
+      <c r="I226" s="137">
         <v>0.65069444444444446</v>
       </c>
-      <c r="J225" s="16" t="s">
+      <c r="J226" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="K225" s="131" t="s">
+      <c r="K226" s="131" t="s">
         <v>309</v>
       </c>
-      <c r="L225" s="132" t="s">
+      <c r="L226" s="132" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A226" s="52" t="str">
+    <row r="227" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A227" s="52" t="str">
         <f t="shared" si="40"/>
         <v>UCT_AST9AH_A01</v>
       </c>
-      <c r="B226" s="72">
+      <c r="B227" s="72">
         <v>25</v>
       </c>
-      <c r="C226" s="67">
+      <c r="C227" s="67">
         <v>45359.541666666664</v>
       </c>
-      <c r="D226" s="120"/>
-      <c r="E226" s="49"/>
-      <c r="F226" s="49" t="s">
+      <c r="D227" s="120"/>
+      <c r="E227" s="49"/>
+      <c r="F227" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="G226" s="124">
+      <c r="G227" s="124">
         <v>25</v>
       </c>
-      <c r="H226" s="124">
+      <c r="H227" s="124">
         <v>27.2</v>
       </c>
-      <c r="I226" s="146">
+      <c r="I227" s="146">
         <v>0.55069444444444449</v>
       </c>
-      <c r="J226" s="49" t="s">
+      <c r="J227" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="K226" s="125" t="s">
+      <c r="K227" s="125" t="s">
         <v>254</v>
       </c>
-      <c r="L226" s="134" t="s">
+      <c r="L227" s="134" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A227" s="31" t="str">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A228" s="31" t="str">
         <f t="shared" si="40"/>
         <v>UCT_AST9AH_A02</v>
       </c>
-      <c r="B227" s="53">
-        <v>26</v>
-      </c>
-      <c r="C227" s="68">
-        <f t="shared" ref="C227:C245" si="56">C226+$C$101</f>
-        <v>45359.548611111109</v>
-      </c>
-      <c r="D227" s="117"/>
-      <c r="E227" s="9"/>
-      <c r="F227" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="G227" s="123">
-        <v>25</v>
-      </c>
-      <c r="H227" s="123">
-        <v>27.2</v>
-      </c>
-      <c r="I227" s="122">
-        <v>0.55972222222222223</v>
-      </c>
-      <c r="J227" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="K227" t="s">
-        <v>150</v>
-      </c>
-      <c r="L227" s="112"/>
-    </row>
-    <row r="228" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A228" s="31" t="str">
-        <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A03</v>
-      </c>
       <c r="B228" s="53">
         <v>25</v>
       </c>
       <c r="C228" s="68">
-        <f t="shared" si="56"/>
-        <v>45359.555555555555</v>
+        <f t="shared" ref="C228:C246" si="56">C227+$C$102</f>
+        <v>45359.548611111109</v>
       </c>
       <c r="D228" s="117"/>
       <c r="E228" s="9"/>
@@ -9132,12 +9142,12 @@
         <v>27.2</v>
       </c>
       <c r="I228" s="122">
-        <v>0.56805555555555554</v>
+        <v>0.55972222222222223</v>
       </c>
       <c r="J228" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="K228" s="121" t="s">
+        <v>242</v>
+      </c>
+      <c r="K228" t="s">
         <v>150</v>
       </c>
       <c r="L228" s="112"/>
@@ -9145,14 +9155,14 @@
     <row r="229" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A04</v>
+        <v>UCT_AST9AH_A03</v>
       </c>
       <c r="B229" s="53">
         <v>25</v>
       </c>
       <c r="C229" s="68">
         <f t="shared" si="56"/>
-        <v>45359.5625</v>
+        <v>45359.555555555555</v>
       </c>
       <c r="D229" s="117"/>
       <c r="E229" s="9"/>
@@ -9166,10 +9176,10 @@
         <v>27.2</v>
       </c>
       <c r="I229" s="122">
-        <v>0.57499999999999996</v>
+        <v>0.56805555555555554</v>
       </c>
       <c r="J229" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K229" s="121" t="s">
         <v>150</v>
@@ -9179,14 +9189,14 @@
     <row r="230" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A05</v>
+        <v>UCT_AST9AH_A04</v>
       </c>
       <c r="B230" s="53">
         <v>25</v>
       </c>
       <c r="C230" s="68">
         <f t="shared" si="56"/>
-        <v>45359.569444444445</v>
+        <v>45359.5625</v>
       </c>
       <c r="D230" s="117"/>
       <c r="E230" s="9"/>
@@ -9200,10 +9210,10 @@
         <v>27.2</v>
       </c>
       <c r="I230" s="122">
-        <v>0.58194444444444449</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="J230" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K230" s="121" t="s">
         <v>150</v>
@@ -9213,14 +9223,14 @@
     <row r="231" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A06</v>
+        <v>UCT_AST9AH_A05</v>
       </c>
       <c r="B231" s="53">
         <v>25</v>
       </c>
       <c r="C231" s="68">
         <f t="shared" si="56"/>
-        <v>45359.576388888891</v>
+        <v>45359.569444444445</v>
       </c>
       <c r="D231" s="117"/>
       <c r="E231" s="9"/>
@@ -9234,29 +9244,27 @@
         <v>27.2</v>
       </c>
       <c r="I231" s="122">
-        <v>0.58888888888888891</v>
+        <v>0.58194444444444449</v>
       </c>
       <c r="J231" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K231" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="L231" s="112" t="s">
-        <v>251</v>
-      </c>
+      <c r="L231" s="112"/>
     </row>
     <row r="232" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A07</v>
+        <v>UCT_AST9AH_A06</v>
       </c>
       <c r="B232" s="53">
         <v>25</v>
       </c>
       <c r="C232" s="68">
         <f t="shared" si="56"/>
-        <v>45359.583333333336</v>
+        <v>45359.576388888891</v>
       </c>
       <c r="D232" s="117"/>
       <c r="E232" s="9"/>
@@ -9270,27 +9278,29 @@
         <v>27.2</v>
       </c>
       <c r="I232" s="122">
-        <v>0.59583333333333333</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="J232" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K232" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="L232" s="112"/>
+      <c r="L232" s="112" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="233" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A08</v>
+        <v>UCT_AST9AH_A07</v>
       </c>
       <c r="B233" s="53">
         <v>25</v>
       </c>
       <c r="C233" s="68">
         <f t="shared" si="56"/>
-        <v>45359.590277777781</v>
+        <v>45359.583333333336</v>
       </c>
       <c r="D233" s="117"/>
       <c r="E233" s="9"/>
@@ -9304,10 +9314,10 @@
         <v>27.2</v>
       </c>
       <c r="I233" s="122">
-        <v>0.60277777777777775</v>
+        <v>0.59583333333333333</v>
       </c>
       <c r="J233" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K233" s="121" t="s">
         <v>150</v>
@@ -9317,14 +9327,14 @@
     <row r="234" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_A09</v>
+        <v>UCT_AST9AH_A08</v>
       </c>
       <c r="B234" s="53">
         <v>25</v>
       </c>
       <c r="C234" s="68">
         <f t="shared" si="56"/>
-        <v>45359.597222222226</v>
+        <v>45359.590277777781</v>
       </c>
       <c r="D234" s="117"/>
       <c r="E234" s="9"/>
@@ -9338,130 +9348,130 @@
         <v>27.2</v>
       </c>
       <c r="I234" s="122">
-        <v>0.60902777777777772</v>
+        <v>0.60277777777777775</v>
       </c>
       <c r="J234" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K234" s="121" t="s">
         <v>150</v>
       </c>
       <c r="L234" s="112"/>
     </row>
-    <row r="235" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="33" t="str">
+    <row r="235" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A235" s="31" t="str">
+        <f t="shared" si="40"/>
+        <v>UCT_AST9AH_A09</v>
+      </c>
+      <c r="B235" s="53">
+        <v>25</v>
+      </c>
+      <c r="C235" s="68">
+        <f t="shared" si="56"/>
+        <v>45359.597222222226</v>
+      </c>
+      <c r="D235" s="117"/>
+      <c r="E235" s="9"/>
+      <c r="F235" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G235" s="123">
+        <v>25</v>
+      </c>
+      <c r="H235" s="123">
+        <v>27.2</v>
+      </c>
+      <c r="I235" s="122">
+        <v>0.60902777777777772</v>
+      </c>
+      <c r="J235" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="K235" s="121" t="s">
+        <v>150</v>
+      </c>
+      <c r="L235" s="112"/>
+    </row>
+    <row r="236" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="33" t="str">
         <f t="shared" si="40"/>
         <v>UCT_AST9AH_A10</v>
       </c>
-      <c r="B235" s="54">
+      <c r="B236" s="54">
         <v>25</v>
       </c>
-      <c r="C235" s="71">
+      <c r="C236" s="71">
         <f t="shared" si="56"/>
         <v>45359.604166666672</v>
       </c>
-      <c r="D235" s="119"/>
-      <c r="E235" s="16"/>
-      <c r="F235" s="16" t="s">
+      <c r="D236" s="119"/>
+      <c r="E236" s="16"/>
+      <c r="F236" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="G235" s="123">
+      <c r="G236" s="123">
         <v>25</v>
       </c>
-      <c r="H235" s="123">
+      <c r="H236" s="123">
         <v>27.2</v>
       </c>
-      <c r="I235" s="137">
+      <c r="I236" s="137">
         <v>0.61597222222222225</v>
       </c>
-      <c r="J235" s="16" t="s">
+      <c r="J236" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="K235" s="131" t="s">
+      <c r="K236" s="131" t="s">
         <v>255</v>
       </c>
-      <c r="L235" s="132"/>
-    </row>
-    <row r="236" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A236" s="29" t="str">
+      <c r="L236" s="132"/>
+    </row>
+    <row r="237" spans="1:12" ht="85" x14ac:dyDescent="0.2">
+      <c r="A237" s="29" t="str">
         <f t="shared" si="40"/>
         <v>UCT_AST9AH_B01</v>
       </c>
-      <c r="B236" s="73">
+      <c r="B237" s="73">
         <v>25</v>
       </c>
-      <c r="C236" s="77">
+      <c r="C237" s="77">
         <v>45427.65625</v>
       </c>
-      <c r="D236" s="116"/>
-      <c r="E236" s="22"/>
-      <c r="F236" s="22" t="s">
+      <c r="D237" s="116"/>
+      <c r="E237" s="22"/>
+      <c r="F237" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="G236" s="128">
+      <c r="G237" s="128">
         <v>27.8</v>
       </c>
-      <c r="H236" s="128">
+      <c r="H237" s="128">
         <v>27.8</v>
       </c>
-      <c r="I236" s="70">
+      <c r="I237" s="70">
         <v>0.65763888888888888</v>
       </c>
-      <c r="J236" s="22" t="s">
+      <c r="J237" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="K236" s="129" t="s">
+      <c r="K237" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="L236" s="115" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="237" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A237" s="31" t="str">
-        <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B02</v>
-      </c>
-      <c r="B237" s="53">
-        <v>25</v>
-      </c>
-      <c r="C237" s="68">
-        <f t="shared" si="56"/>
-        <v>45427.663194444445</v>
-      </c>
-      <c r="D237" s="117"/>
-      <c r="E237" s="9"/>
-      <c r="F237" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="G237" s="123">
-        <v>27.8</v>
-      </c>
-      <c r="H237" s="123">
-        <v>27.8</v>
-      </c>
-      <c r="I237" s="122">
-        <v>0.69305555555555554</v>
-      </c>
-      <c r="J237" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="K237" s="121" t="s">
-        <v>311</v>
-      </c>
-      <c r="L237" s="112"/>
+      <c r="L237" s="115" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="238" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B03</v>
+        <v>UCT_AST9AH_B02</v>
       </c>
       <c r="B238" s="53">
         <v>25</v>
       </c>
       <c r="C238" s="68">
         <f t="shared" si="56"/>
-        <v>45427.670138888891</v>
+        <v>45427.663194444445</v>
       </c>
       <c r="D238" s="117"/>
       <c r="E238" s="9"/>
@@ -9475,27 +9485,27 @@
         <v>27.8</v>
       </c>
       <c r="I238" s="122">
-        <v>0.67152777777777772</v>
+        <v>0.69305555555555554</v>
       </c>
       <c r="J238" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K238" s="121" t="s">
-        <v>150</v>
+        <v>311</v>
       </c>
       <c r="L238" s="112"/>
     </row>
     <row r="239" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B04</v>
+        <v>UCT_AST9AH_B03</v>
       </c>
       <c r="B239" s="53">
         <v>25</v>
       </c>
       <c r="C239" s="68">
         <f t="shared" si="56"/>
-        <v>45427.677083333336</v>
+        <v>45427.670138888891</v>
       </c>
       <c r="D239" s="117"/>
       <c r="E239" s="9"/>
@@ -9509,10 +9519,10 @@
         <v>27.8</v>
       </c>
       <c r="I239" s="122">
-        <v>0.67847222222222225</v>
+        <v>0.67152777777777772</v>
       </c>
       <c r="J239" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K239" s="121" t="s">
         <v>150</v>
@@ -9522,14 +9532,14 @@
     <row r="240" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B05</v>
+        <v>UCT_AST9AH_B04</v>
       </c>
       <c r="B240" s="53">
         <v>25</v>
       </c>
       <c r="C240" s="68">
         <f t="shared" si="56"/>
-        <v>45427.684027777781</v>
+        <v>45427.677083333336</v>
       </c>
       <c r="D240" s="117"/>
       <c r="E240" s="9"/>
@@ -9543,10 +9553,10 @@
         <v>27.8</v>
       </c>
       <c r="I240" s="122">
-        <v>0.69305555555555554</v>
+        <v>0.67847222222222225</v>
       </c>
       <c r="J240" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K240" s="121" t="s">
         <v>150</v>
@@ -9556,14 +9566,14 @@
     <row r="241" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B06</v>
+        <v>UCT_AST9AH_B05</v>
       </c>
       <c r="B241" s="53">
         <v>25</v>
       </c>
       <c r="C241" s="68">
         <f t="shared" si="56"/>
-        <v>45427.690972222226</v>
+        <v>45427.684027777781</v>
       </c>
       <c r="D241" s="117"/>
       <c r="E241" s="9"/>
@@ -9577,29 +9587,27 @@
         <v>27.8</v>
       </c>
       <c r="I241" s="122">
-        <v>0.69930555555555551</v>
+        <v>0.69305555555555554</v>
       </c>
       <c r="J241" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K241" s="121" t="s">
         <v>150</v>
       </c>
-      <c r="L241" s="112" t="s">
-        <v>339</v>
-      </c>
+      <c r="L241" s="112"/>
     </row>
     <row r="242" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B07</v>
+        <v>UCT_AST9AH_B06</v>
       </c>
       <c r="B242" s="53">
         <v>25</v>
       </c>
       <c r="C242" s="68">
         <f t="shared" si="56"/>
-        <v>45427.697916666672</v>
+        <v>45427.690972222226</v>
       </c>
       <c r="D242" s="117"/>
       <c r="E242" s="9"/>
@@ -9613,27 +9621,29 @@
         <v>27.8</v>
       </c>
       <c r="I242" s="122">
-        <v>0.70625000000000004</v>
+        <v>0.69930555555555551</v>
       </c>
       <c r="J242" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K242" s="121" t="s">
-        <v>332</v>
-      </c>
-      <c r="L242" s="112"/>
-    </row>
-    <row r="243" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="L242" s="112" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B08</v>
+        <v>UCT_AST9AH_B07</v>
       </c>
       <c r="B243" s="53">
         <v>25</v>
       </c>
       <c r="C243" s="68">
         <f t="shared" si="56"/>
-        <v>45427.704861111117</v>
+        <v>45427.697916666672</v>
       </c>
       <c r="D243" s="117"/>
       <c r="E243" s="9"/>
@@ -9646,28 +9656,28 @@
       <c r="H243" s="123">
         <v>27.8</v>
       </c>
-      <c r="I243" s="9"/>
-      <c r="J243" s="108" t="s">
-        <v>329</v>
+      <c r="I243" s="122">
+        <v>0.70625000000000004</v>
+      </c>
+      <c r="J243" s="9" t="s">
+        <v>328</v>
       </c>
       <c r="K243" s="121" t="s">
-        <v>333</v>
-      </c>
-      <c r="L243" s="132" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="244" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="L243" s="112"/>
+    </row>
+    <row r="244" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="31" t="str">
         <f t="shared" si="40"/>
-        <v>UCT_AST9AH_B09</v>
+        <v>UCT_AST9AH_B08</v>
       </c>
       <c r="B244" s="53">
         <v>25</v>
       </c>
       <c r="C244" s="68">
         <f t="shared" si="56"/>
-        <v>45427.711805555562</v>
+        <v>45427.704861111117</v>
       </c>
       <c r="D244" s="117"/>
       <c r="E244" s="9"/>
@@ -9682,194 +9692,217 @@
       </c>
       <c r="I244" s="9"/>
       <c r="J244" s="108" t="s">
+        <v>329</v>
+      </c>
+      <c r="K244" s="121" t="s">
+        <v>333</v>
+      </c>
+      <c r="L244" s="132" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A245" s="31" t="str">
+        <f t="shared" si="40"/>
+        <v>UCT_AST9AH_B09</v>
+      </c>
+      <c r="B245" s="53">
+        <v>25</v>
+      </c>
+      <c r="C245" s="68">
+        <f t="shared" si="56"/>
+        <v>45427.711805555562</v>
+      </c>
+      <c r="D245" s="117"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G245" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="H245" s="123">
+        <v>27.8</v>
+      </c>
+      <c r="I245" s="9"/>
+      <c r="J245" s="108" t="s">
         <v>330</v>
       </c>
-      <c r="K244" s="121" t="s">
-        <v>340</v>
-      </c>
-      <c r="L244" s="112"/>
-    </row>
-    <row r="245" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="33" t="str">
+      <c r="K245" s="121" t="s">
+        <v>339</v>
+      </c>
+      <c r="L245" s="112"/>
+    </row>
+    <row r="246" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="33" t="str">
         <f t="shared" si="40"/>
         <v>UCT_AST9AH_B10</v>
       </c>
-      <c r="B245" s="54">
+      <c r="B246" s="54">
         <v>25</v>
       </c>
-      <c r="C245" s="68">
+      <c r="C246" s="68">
         <f t="shared" si="56"/>
         <v>45427.718750000007</v>
       </c>
-      <c r="D245" s="119"/>
-      <c r="E245" s="16"/>
-      <c r="F245" s="16" t="s">
+      <c r="D246" s="119"/>
+      <c r="E246" s="16"/>
+      <c r="F246" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="G245" s="130">
+      <c r="G246" s="130">
         <v>27.8</v>
       </c>
-      <c r="H245" s="130">
+      <c r="H246" s="130">
         <v>27.8</v>
       </c>
-      <c r="I245" s="16"/>
-      <c r="J245" s="108" t="s">
+      <c r="I246" s="16"/>
+      <c r="J246" s="108" t="s">
         <v>331</v>
       </c>
-      <c r="K245" s="131" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="113" t="s">
-        <v>147</v>
+      <c r="K246" s="131" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="248" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="113" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="249" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="113" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="250" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="113" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="251" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="113" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="252" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="113" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="253" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="113" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="254" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="113" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="113" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="257" spans="1:15" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
+    <row r="258" spans="1:15" s="4" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="258" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A259" s="55" t="s">
+    <row r="259" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A260" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B259" s="59"/>
-      <c r="C259" s="78"/>
-    </row>
-    <row r="260" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="101"/>
-      <c r="B260" s="81" t="s">
+      <c r="B260" s="59"/>
+      <c r="C260" s="78"/>
+    </row>
+    <row r="261" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="101"/>
+      <c r="B261" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C260" s="102">
+      <c r="C261" s="102">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="82" t="s">
+    <row r="263" spans="1:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="82" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="263" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="264" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E264" s="155" t="s">
+    <row r="264" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E265" s="158" t="s">
         <v>81</v>
       </c>
-      <c r="F264" s="156"/>
-      <c r="I264" s="154"/>
-      <c r="J264" s="154"/>
-      <c r="K264" s="154"/>
-      <c r="L264" s="154"/>
-      <c r="M264" s="154"/>
-      <c r="N264" s="154"/>
-      <c r="O264" s="154"/>
-    </row>
-    <row r="265" spans="1:15" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="50" t="s">
+      <c r="F265" s="159"/>
+      <c r="I265" s="157"/>
+      <c r="J265" s="157"/>
+      <c r="K265" s="157"/>
+      <c r="L265" s="157"/>
+      <c r="M265" s="157"/>
+      <c r="N265" s="157"/>
+      <c r="O265" s="157"/>
+    </row>
+    <row r="266" spans="1:15" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B265" s="51" t="s">
+      <c r="B266" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C265" s="51" t="s">
+      <c r="C266" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="D265" s="51" t="s">
+      <c r="D266" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="E265" s="51" t="s">
+      <c r="E266" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="F265" s="51" t="s">
+      <c r="F266" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="G265" s="87" t="s">
+      <c r="G266" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="H265"/>
-      <c r="I265"/>
-      <c r="J265"/>
-      <c r="K265"/>
-      <c r="L265"/>
-      <c r="M265"/>
-      <c r="N265"/>
-      <c r="O265"/>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A266" s="29" t="str">
-        <f>A106</f>
+      <c r="H266"/>
+      <c r="I266"/>
+      <c r="J266"/>
+      <c r="K266"/>
+      <c r="L266"/>
+      <c r="M266"/>
+      <c r="N266"/>
+      <c r="O266"/>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A267" s="29" t="str">
+        <f>A107</f>
         <v>UCT_AST9AH_A01</v>
       </c>
-      <c r="B266" s="69">
+      <c r="B267" s="69">
         <v>45357.395833333336</v>
       </c>
-      <c r="C266" s="84" t="s">
+      <c r="C267" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="D266" s="86">
+      <c r="D267" s="86">
         <v>0</v>
       </c>
-      <c r="E266" s="139">
+      <c r="E267" s="139">
         <v>0</v>
       </c>
-      <c r="F266" s="116">
+      <c r="F267" s="116">
         <v>0</v>
       </c>
-      <c r="G266" s="23"/>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A267" s="31"/>
-      <c r="B267" s="68"/>
-      <c r="C267" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="D267" s="100"/>
-      <c r="E267" s="140"/>
-      <c r="F267" s="120"/>
-      <c r="G267" s="15"/>
+      <c r="G267" s="23"/>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="31"/>
       <c r="B268" s="68"/>
       <c r="C268" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D268" s="100"/>
       <c r="E268" s="140"/>
@@ -9880,7 +9913,7 @@
       <c r="A269" s="31"/>
       <c r="B269" s="68"/>
       <c r="C269" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D269" s="100"/>
       <c r="E269" s="140"/>
@@ -9891,7 +9924,7 @@
       <c r="A270" s="31"/>
       <c r="B270" s="68"/>
       <c r="C270" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D270" s="100"/>
       <c r="E270" s="140"/>
@@ -9902,7 +9935,7 @@
       <c r="A271" s="31"/>
       <c r="B271" s="68"/>
       <c r="C271" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D271" s="100"/>
       <c r="E271" s="140"/>
@@ -9910,16 +9943,10 @@
       <c r="G271" s="15"/>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A272" s="31" t="str">
-        <f>A107</f>
-        <v>UCT_AST9AH_A02</v>
-      </c>
-      <c r="B272" s="68">
-        <f>B266+$C$260</f>
-        <v>45357.416666666672</v>
-      </c>
+      <c r="A272" s="31"/>
+      <c r="B272" s="68"/>
       <c r="C272" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D272" s="100"/>
       <c r="E272" s="140"/>
@@ -9927,10 +9954,16 @@
       <c r="G272" s="15"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A273" s="31"/>
-      <c r="B273" s="68"/>
+      <c r="A273" s="31" t="str">
+        <f>A108</f>
+        <v>UCT_AST9AH_A02</v>
+      </c>
+      <c r="B273" s="68">
+        <f>B267+$C$261</f>
+        <v>45357.416666666672</v>
+      </c>
       <c r="C273" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D273" s="100"/>
       <c r="E273" s="140"/>
@@ -9941,7 +9974,7 @@
       <c r="A274" s="31"/>
       <c r="B274" s="68"/>
       <c r="C274" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D274" s="100"/>
       <c r="E274" s="140"/>
@@ -9952,7 +9985,7 @@
       <c r="A275" s="31"/>
       <c r="B275" s="68"/>
       <c r="C275" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D275" s="100"/>
       <c r="E275" s="140"/>
@@ -9963,7 +9996,7 @@
       <c r="A276" s="31"/>
       <c r="B276" s="68"/>
       <c r="C276" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D276" s="100"/>
       <c r="E276" s="140"/>
@@ -9974,7 +10007,7 @@
       <c r="A277" s="31"/>
       <c r="B277" s="68"/>
       <c r="C277" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D277" s="100"/>
       <c r="E277" s="140"/>
@@ -9982,16 +10015,10 @@
       <c r="G277" s="15"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A278" s="31" t="str">
-        <f>A108</f>
-        <v>UCT_AST9AH_A03</v>
-      </c>
-      <c r="B278" s="68">
-        <f>B272+$C$260</f>
-        <v>45357.437500000007</v>
-      </c>
+      <c r="A278" s="31"/>
+      <c r="B278" s="68"/>
       <c r="C278" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D278" s="100"/>
       <c r="E278" s="140"/>
@@ -9999,10 +10026,16 @@
       <c r="G278" s="15"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A279" s="31"/>
-      <c r="B279" s="68"/>
+      <c r="A279" s="31" t="str">
+        <f>A109</f>
+        <v>UCT_AST9AH_A03</v>
+      </c>
+      <c r="B279" s="68">
+        <f>B273+$C$261</f>
+        <v>45357.437500000007</v>
+      </c>
       <c r="C279" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D279" s="100"/>
       <c r="E279" s="140"/>
@@ -10013,7 +10046,7 @@
       <c r="A280" s="31"/>
       <c r="B280" s="68"/>
       <c r="C280" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D280" s="100"/>
       <c r="E280" s="140"/>
@@ -10024,7 +10057,7 @@
       <c r="A281" s="31"/>
       <c r="B281" s="68"/>
       <c r="C281" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D281" s="100"/>
       <c r="E281" s="140"/>
@@ -10035,7 +10068,7 @@
       <c r="A282" s="31"/>
       <c r="B282" s="68"/>
       <c r="C282" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D282" s="100"/>
       <c r="E282" s="140"/>
@@ -10046,7 +10079,7 @@
       <c r="A283" s="31"/>
       <c r="B283" s="68"/>
       <c r="C283" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D283" s="100"/>
       <c r="E283" s="140"/>
@@ -10054,16 +10087,10 @@
       <c r="G283" s="15"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A284" s="31" t="str">
-        <f>A109</f>
-        <v>UCT_AST9AH_A04</v>
-      </c>
-      <c r="B284" s="68">
-        <f t="shared" ref="B284" si="57">B278+$C$260</f>
-        <v>45357.458333333343</v>
-      </c>
+      <c r="A284" s="31"/>
+      <c r="B284" s="68"/>
       <c r="C284" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D284" s="100"/>
       <c r="E284" s="140"/>
@@ -10071,10 +10098,16 @@
       <c r="G284" s="15"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A285" s="31"/>
-      <c r="B285" s="68"/>
+      <c r="A285" s="31" t="str">
+        <f>A110</f>
+        <v>UCT_AST9AH_A04</v>
+      </c>
+      <c r="B285" s="68">
+        <f t="shared" ref="B285" si="57">B279+$C$261</f>
+        <v>45357.458333333343</v>
+      </c>
       <c r="C285" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D285" s="100"/>
       <c r="E285" s="140"/>
@@ -10085,7 +10118,7 @@
       <c r="A286" s="31"/>
       <c r="B286" s="68"/>
       <c r="C286" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D286" s="100"/>
       <c r="E286" s="140"/>
@@ -10096,7 +10129,7 @@
       <c r="A287" s="31"/>
       <c r="B287" s="68"/>
       <c r="C287" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D287" s="100"/>
       <c r="E287" s="140"/>
@@ -10107,7 +10140,7 @@
       <c r="A288" s="31"/>
       <c r="B288" s="68"/>
       <c r="C288" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D288" s="100"/>
       <c r="E288" s="140"/>
@@ -10118,7 +10151,7 @@
       <c r="A289" s="31"/>
       <c r="B289" s="68"/>
       <c r="C289" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D289" s="100"/>
       <c r="E289" s="140"/>
@@ -10126,16 +10159,10 @@
       <c r="G289" s="15"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A290" s="31" t="str">
-        <f>A110</f>
-        <v>UCT_AST9AH_A05</v>
-      </c>
-      <c r="B290" s="68">
-        <f t="shared" ref="B290" si="58">B284+$C$260</f>
-        <v>45357.479166666679</v>
-      </c>
+      <c r="A290" s="31"/>
+      <c r="B290" s="68"/>
       <c r="C290" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D290" s="100"/>
       <c r="E290" s="140"/>
@@ -10143,10 +10170,16 @@
       <c r="G290" s="15"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A291" s="31"/>
-      <c r="B291" s="68"/>
+      <c r="A291" s="31" t="str">
+        <f>A111</f>
+        <v>UCT_AST9AH_A05</v>
+      </c>
+      <c r="B291" s="68">
+        <f t="shared" ref="B291" si="58">B285+$C$261</f>
+        <v>45357.479166666679</v>
+      </c>
       <c r="C291" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D291" s="100"/>
       <c r="E291" s="140"/>
@@ -10157,7 +10190,7 @@
       <c r="A292" s="31"/>
       <c r="B292" s="68"/>
       <c r="C292" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D292" s="100"/>
       <c r="E292" s="140"/>
@@ -10168,7 +10201,7 @@
       <c r="A293" s="31"/>
       <c r="B293" s="68"/>
       <c r="C293" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D293" s="100"/>
       <c r="E293" s="140"/>
@@ -10179,7 +10212,7 @@
       <c r="A294" s="31"/>
       <c r="B294" s="68"/>
       <c r="C294" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D294" s="100"/>
       <c r="E294" s="140"/>
@@ -10190,7 +10223,7 @@
       <c r="A295" s="31"/>
       <c r="B295" s="68"/>
       <c r="C295" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D295" s="100"/>
       <c r="E295" s="140"/>
@@ -10198,16 +10231,10 @@
       <c r="G295" s="15"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A296" s="31" t="str">
-        <f>A111</f>
-        <v>UCT_AST9AH_A06</v>
-      </c>
-      <c r="B296" s="68">
-        <f t="shared" ref="B296" si="59">B290+$C$260</f>
-        <v>45357.500000000015</v>
-      </c>
+      <c r="A296" s="31"/>
+      <c r="B296" s="68"/>
       <c r="C296" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D296" s="100"/>
       <c r="E296" s="140"/>
@@ -10215,10 +10242,16 @@
       <c r="G296" s="15"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A297" s="31"/>
-      <c r="B297" s="68"/>
+      <c r="A297" s="31" t="str">
+        <f>A112</f>
+        <v>UCT_AST9AH_A06</v>
+      </c>
+      <c r="B297" s="68">
+        <f t="shared" ref="B297" si="59">B291+$C$261</f>
+        <v>45357.500000000015</v>
+      </c>
       <c r="C297" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D297" s="100"/>
       <c r="E297" s="140"/>
@@ -10229,7 +10262,7 @@
       <c r="A298" s="31"/>
       <c r="B298" s="68"/>
       <c r="C298" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D298" s="100"/>
       <c r="E298" s="140"/>
@@ -10240,7 +10273,7 @@
       <c r="A299" s="31"/>
       <c r="B299" s="68"/>
       <c r="C299" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D299" s="100"/>
       <c r="E299" s="140"/>
@@ -10251,7 +10284,7 @@
       <c r="A300" s="31"/>
       <c r="B300" s="68"/>
       <c r="C300" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D300" s="100"/>
       <c r="E300" s="140"/>
@@ -10262,7 +10295,7 @@
       <c r="A301" s="31"/>
       <c r="B301" s="68"/>
       <c r="C301" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D301" s="100"/>
       <c r="E301" s="140"/>
@@ -10270,16 +10303,10 @@
       <c r="G301" s="15"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A302" s="31" t="str">
-        <f>A112</f>
-        <v>UCT_AST9AH_A07</v>
-      </c>
-      <c r="B302" s="68">
-        <f t="shared" ref="B302" si="60">B296+$C$260</f>
-        <v>45357.52083333335</v>
-      </c>
+      <c r="A302" s="31"/>
+      <c r="B302" s="68"/>
       <c r="C302" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D302" s="100"/>
       <c r="E302" s="140"/>
@@ -10287,10 +10314,16 @@
       <c r="G302" s="15"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A303" s="31"/>
-      <c r="B303" s="68"/>
+      <c r="A303" s="31" t="str">
+        <f>A113</f>
+        <v>UCT_AST9AH_A07</v>
+      </c>
+      <c r="B303" s="68">
+        <f t="shared" ref="B303" si="60">B297+$C$261</f>
+        <v>45357.52083333335</v>
+      </c>
       <c r="C303" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D303" s="100"/>
       <c r="E303" s="140"/>
@@ -10301,7 +10334,7 @@
       <c r="A304" s="31"/>
       <c r="B304" s="68"/>
       <c r="C304" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D304" s="100"/>
       <c r="E304" s="140"/>
@@ -10312,7 +10345,7 @@
       <c r="A305" s="31"/>
       <c r="B305" s="68"/>
       <c r="C305" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D305" s="100"/>
       <c r="E305" s="140"/>
@@ -10323,7 +10356,7 @@
       <c r="A306" s="31"/>
       <c r="B306" s="68"/>
       <c r="C306" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D306" s="100"/>
       <c r="E306" s="140"/>
@@ -10334,7 +10367,7 @@
       <c r="A307" s="31"/>
       <c r="B307" s="68"/>
       <c r="C307" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D307" s="100"/>
       <c r="E307" s="140"/>
@@ -10342,16 +10375,10 @@
       <c r="G307" s="15"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A308" s="31" t="str">
-        <f>A113</f>
-        <v>UCT_AST9AH_A08</v>
-      </c>
-      <c r="B308" s="68">
-        <f t="shared" ref="B308" si="61">B302+$C$260</f>
-        <v>45357.541666666686</v>
-      </c>
+      <c r="A308" s="31"/>
+      <c r="B308" s="68"/>
       <c r="C308" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D308" s="100"/>
       <c r="E308" s="140"/>
@@ -10359,10 +10386,16 @@
       <c r="G308" s="15"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A309" s="31"/>
-      <c r="B309" s="68"/>
+      <c r="A309" s="31" t="str">
+        <f>A114</f>
+        <v>UCT_AST9AH_A08</v>
+      </c>
+      <c r="B309" s="68">
+        <f t="shared" ref="B309" si="61">B303+$C$261</f>
+        <v>45357.541666666686</v>
+      </c>
       <c r="C309" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D309" s="100"/>
       <c r="E309" s="140"/>
@@ -10373,7 +10406,7 @@
       <c r="A310" s="31"/>
       <c r="B310" s="68"/>
       <c r="C310" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D310" s="100"/>
       <c r="E310" s="140"/>
@@ -10384,7 +10417,7 @@
       <c r="A311" s="31"/>
       <c r="B311" s="68"/>
       <c r="C311" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D311" s="100"/>
       <c r="E311" s="140"/>
@@ -10395,7 +10428,7 @@
       <c r="A312" s="31"/>
       <c r="B312" s="68"/>
       <c r="C312" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D312" s="100"/>
       <c r="E312" s="140"/>
@@ -10406,7 +10439,7 @@
       <c r="A313" s="31"/>
       <c r="B313" s="68"/>
       <c r="C313" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D313" s="100"/>
       <c r="E313" s="140"/>
@@ -10414,16 +10447,10 @@
       <c r="G313" s="15"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A314" s="31" t="str">
-        <f>A114</f>
-        <v>UCT_AST9AH_A09</v>
-      </c>
-      <c r="B314" s="68">
-        <f t="shared" ref="B314" si="62">B308+$C$260</f>
-        <v>45357.562500000022</v>
-      </c>
+      <c r="A314" s="31"/>
+      <c r="B314" s="68"/>
       <c r="C314" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D314" s="100"/>
       <c r="E314" s="140"/>
@@ -10431,10 +10458,16 @@
       <c r="G314" s="15"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A315" s="31"/>
-      <c r="B315" s="68"/>
+      <c r="A315" s="31" t="str">
+        <f>A115</f>
+        <v>UCT_AST9AH_A09</v>
+      </c>
+      <c r="B315" s="68">
+        <f t="shared" ref="B315" si="62">B309+$C$261</f>
+        <v>45357.562500000022</v>
+      </c>
       <c r="C315" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D315" s="100"/>
       <c r="E315" s="140"/>
@@ -10445,7 +10478,7 @@
       <c r="A316" s="31"/>
       <c r="B316" s="68"/>
       <c r="C316" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D316" s="100"/>
       <c r="E316" s="140"/>
@@ -10456,7 +10489,7 @@
       <c r="A317" s="31"/>
       <c r="B317" s="68"/>
       <c r="C317" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D317" s="100"/>
       <c r="E317" s="140"/>
@@ -10467,7 +10500,7 @@
       <c r="A318" s="31"/>
       <c r="B318" s="68"/>
       <c r="C318" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D318" s="100"/>
       <c r="E318" s="140"/>
@@ -10478,7 +10511,7 @@
       <c r="A319" s="31"/>
       <c r="B319" s="68"/>
       <c r="C319" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D319" s="100"/>
       <c r="E319" s="140"/>
@@ -10486,16 +10519,10 @@
       <c r="G319" s="15"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A320" s="31" t="str">
-        <f>A115</f>
-        <v>UCT_AST9AH_A10</v>
-      </c>
-      <c r="B320" s="68">
-        <f t="shared" ref="B320" si="63">B314+$C$260</f>
-        <v>45357.583333333358</v>
-      </c>
+      <c r="A320" s="31"/>
+      <c r="B320" s="68"/>
       <c r="C320" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D320" s="100"/>
       <c r="E320" s="140"/>
@@ -10503,10 +10530,16 @@
       <c r="G320" s="15"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A321" s="31"/>
-      <c r="B321" s="68"/>
+      <c r="A321" s="31" t="str">
+        <f>A116</f>
+        <v>UCT_AST9AH_A10</v>
+      </c>
+      <c r="B321" s="68">
+        <f t="shared" ref="B321" si="63">B315+$C$261</f>
+        <v>45357.583333333358</v>
+      </c>
       <c r="C321" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D321" s="100"/>
       <c r="E321" s="140"/>
@@ -10517,7 +10550,7 @@
       <c r="A322" s="31"/>
       <c r="B322" s="68"/>
       <c r="C322" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D322" s="100"/>
       <c r="E322" s="140"/>
@@ -10528,7 +10561,7 @@
       <c r="A323" s="31"/>
       <c r="B323" s="68"/>
       <c r="C323" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D323" s="100"/>
       <c r="E323" s="140"/>
@@ -10539,7 +10572,7 @@
       <c r="A324" s="31"/>
       <c r="B324" s="68"/>
       <c r="C324" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D324" s="100"/>
       <c r="E324" s="140"/>
@@ -10550,7 +10583,7 @@
       <c r="A325" s="31"/>
       <c r="B325" s="68"/>
       <c r="C325" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D325" s="100"/>
       <c r="E325" s="140"/>
@@ -10558,13 +10591,10 @@
       <c r="G325" s="15"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A326" s="31" t="str">
-        <f>A116</f>
-        <v>UCT_AST9AH_B01</v>
-      </c>
+      <c r="A326" s="31"/>
       <c r="B326" s="68"/>
       <c r="C326" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D326" s="100"/>
       <c r="E326" s="140"/>
@@ -10572,10 +10602,13 @@
       <c r="G326" s="15"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A327" s="31"/>
+      <c r="A327" s="31" t="str">
+        <f>A117</f>
+        <v>UCT_AST9AH_B01</v>
+      </c>
       <c r="B327" s="68"/>
       <c r="C327" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D327" s="100"/>
       <c r="E327" s="140"/>
@@ -10586,7 +10619,7 @@
       <c r="A328" s="31"/>
       <c r="B328" s="68"/>
       <c r="C328" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D328" s="100"/>
       <c r="E328" s="140"/>
@@ -10597,7 +10630,7 @@
       <c r="A329" s="31"/>
       <c r="B329" s="68"/>
       <c r="C329" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D329" s="100"/>
       <c r="E329" s="140"/>
@@ -10608,7 +10641,7 @@
       <c r="A330" s="31"/>
       <c r="B330" s="68"/>
       <c r="C330" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D330" s="100"/>
       <c r="E330" s="140"/>
@@ -10619,7 +10652,7 @@
       <c r="A331" s="31"/>
       <c r="B331" s="68"/>
       <c r="C331" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D331" s="100"/>
       <c r="E331" s="140"/>
@@ -10627,13 +10660,10 @@
       <c r="G331" s="15"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A332" s="31" t="str">
-        <f>A117</f>
-        <v>UCT_AST9AH_B02</v>
-      </c>
+      <c r="A332" s="31"/>
       <c r="B332" s="68"/>
       <c r="C332" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D332" s="100"/>
       <c r="E332" s="140"/>
@@ -10641,10 +10671,13 @@
       <c r="G332" s="15"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A333" s="31"/>
+      <c r="A333" s="31" t="str">
+        <f>A118</f>
+        <v>UCT_AST9AH_B02</v>
+      </c>
       <c r="B333" s="68"/>
       <c r="C333" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D333" s="100"/>
       <c r="E333" s="140"/>
@@ -10655,7 +10688,7 @@
       <c r="A334" s="31"/>
       <c r="B334" s="68"/>
       <c r="C334" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D334" s="100"/>
       <c r="E334" s="140"/>
@@ -10666,7 +10699,7 @@
       <c r="A335" s="31"/>
       <c r="B335" s="68"/>
       <c r="C335" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D335" s="100"/>
       <c r="E335" s="140"/>
@@ -10677,7 +10710,7 @@
       <c r="A336" s="31"/>
       <c r="B336" s="68"/>
       <c r="C336" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D336" s="100"/>
       <c r="E336" s="140"/>
@@ -10688,7 +10721,7 @@
       <c r="A337" s="31"/>
       <c r="B337" s="68"/>
       <c r="C337" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D337" s="100"/>
       <c r="E337" s="140"/>
@@ -10696,13 +10729,10 @@
       <c r="G337" s="15"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A338" s="31" t="str">
-        <f>A118</f>
-        <v>UCT_AST9AH_B03</v>
-      </c>
+      <c r="A338" s="31"/>
       <c r="B338" s="68"/>
       <c r="C338" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D338" s="100"/>
       <c r="E338" s="140"/>
@@ -10710,10 +10740,13 @@
       <c r="G338" s="15"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A339" s="31"/>
+      <c r="A339" s="31" t="str">
+        <f>A119</f>
+        <v>UCT_AST9AH_B03</v>
+      </c>
       <c r="B339" s="68"/>
       <c r="C339" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D339" s="100"/>
       <c r="E339" s="140"/>
@@ -10724,7 +10757,7 @@
       <c r="A340" s="31"/>
       <c r="B340" s="68"/>
       <c r="C340" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D340" s="100"/>
       <c r="E340" s="140"/>
@@ -10735,7 +10768,7 @@
       <c r="A341" s="31"/>
       <c r="B341" s="68"/>
       <c r="C341" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D341" s="100"/>
       <c r="E341" s="140"/>
@@ -10746,7 +10779,7 @@
       <c r="A342" s="31"/>
       <c r="B342" s="68"/>
       <c r="C342" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D342" s="100"/>
       <c r="E342" s="140"/>
@@ -10757,7 +10790,7 @@
       <c r="A343" s="31"/>
       <c r="B343" s="68"/>
       <c r="C343" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D343" s="100"/>
       <c r="E343" s="140"/>
@@ -10765,13 +10798,10 @@
       <c r="G343" s="15"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A344" s="31" t="str">
-        <f>A119</f>
-        <v>UCT_AST9AH_B04</v>
-      </c>
+      <c r="A344" s="31"/>
       <c r="B344" s="68"/>
       <c r="C344" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D344" s="100"/>
       <c r="E344" s="140"/>
@@ -10779,10 +10809,13 @@
       <c r="G344" s="15"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A345" s="31"/>
+      <c r="A345" s="31" t="str">
+        <f>A120</f>
+        <v>UCT_AST9AH_B04</v>
+      </c>
       <c r="B345" s="68"/>
       <c r="C345" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D345" s="100"/>
       <c r="E345" s="140"/>
@@ -10793,7 +10826,7 @@
       <c r="A346" s="31"/>
       <c r="B346" s="68"/>
       <c r="C346" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D346" s="100"/>
       <c r="E346" s="140"/>
@@ -10804,7 +10837,7 @@
       <c r="A347" s="31"/>
       <c r="B347" s="68"/>
       <c r="C347" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D347" s="100"/>
       <c r="E347" s="140"/>
@@ -10815,7 +10848,7 @@
       <c r="A348" s="31"/>
       <c r="B348" s="68"/>
       <c r="C348" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D348" s="100"/>
       <c r="E348" s="140"/>
@@ -10826,7 +10859,7 @@
       <c r="A349" s="31"/>
       <c r="B349" s="68"/>
       <c r="C349" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D349" s="100"/>
       <c r="E349" s="140"/>
@@ -10834,13 +10867,10 @@
       <c r="G349" s="15"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A350" s="31" t="str">
-        <f>A120</f>
-        <v>UCT_AST9AH_B05</v>
-      </c>
+      <c r="A350" s="31"/>
       <c r="B350" s="68"/>
       <c r="C350" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D350" s="100"/>
       <c r="E350" s="140"/>
@@ -10848,10 +10878,13 @@
       <c r="G350" s="15"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A351" s="31"/>
+      <c r="A351" s="31" t="str">
+        <f>A121</f>
+        <v>UCT_AST9AH_B05</v>
+      </c>
       <c r="B351" s="68"/>
       <c r="C351" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D351" s="100"/>
       <c r="E351" s="140"/>
@@ -10862,7 +10895,7 @@
       <c r="A352" s="31"/>
       <c r="B352" s="68"/>
       <c r="C352" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D352" s="100"/>
       <c r="E352" s="140"/>
@@ -10873,7 +10906,7 @@
       <c r="A353" s="31"/>
       <c r="B353" s="68"/>
       <c r="C353" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D353" s="100"/>
       <c r="E353" s="140"/>
@@ -10884,7 +10917,7 @@
       <c r="A354" s="31"/>
       <c r="B354" s="68"/>
       <c r="C354" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D354" s="100"/>
       <c r="E354" s="140"/>
@@ -10895,7 +10928,7 @@
       <c r="A355" s="31"/>
       <c r="B355" s="68"/>
       <c r="C355" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D355" s="100"/>
       <c r="E355" s="140"/>
@@ -10903,13 +10936,10 @@
       <c r="G355" s="15"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A356" s="31" t="str">
-        <f>A121</f>
-        <v>UCT_AST9AH_B06</v>
-      </c>
+      <c r="A356" s="31"/>
       <c r="B356" s="68"/>
       <c r="C356" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D356" s="100"/>
       <c r="E356" s="140"/>
@@ -10917,10 +10947,13 @@
       <c r="G356" s="15"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A357" s="31"/>
+      <c r="A357" s="31" t="str">
+        <f>A122</f>
+        <v>UCT_AST9AH_B06</v>
+      </c>
       <c r="B357" s="68"/>
       <c r="C357" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D357" s="100"/>
       <c r="E357" s="140"/>
@@ -10931,7 +10964,7 @@
       <c r="A358" s="31"/>
       <c r="B358" s="68"/>
       <c r="C358" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D358" s="100"/>
       <c r="E358" s="140"/>
@@ -10942,7 +10975,7 @@
       <c r="A359" s="31"/>
       <c r="B359" s="68"/>
       <c r="C359" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D359" s="100"/>
       <c r="E359" s="140"/>
@@ -10953,7 +10986,7 @@
       <c r="A360" s="31"/>
       <c r="B360" s="68"/>
       <c r="C360" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D360" s="100"/>
       <c r="E360" s="140"/>
@@ -10964,7 +10997,7 @@
       <c r="A361" s="31"/>
       <c r="B361" s="68"/>
       <c r="C361" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D361" s="100"/>
       <c r="E361" s="140"/>
@@ -10972,13 +11005,10 @@
       <c r="G361" s="15"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A362" s="31" t="str">
-        <f>A122</f>
-        <v>UCT_AST9AH_B07</v>
-      </c>
+      <c r="A362" s="31"/>
       <c r="B362" s="68"/>
       <c r="C362" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D362" s="100"/>
       <c r="E362" s="140"/>
@@ -10986,10 +11016,13 @@
       <c r="G362" s="15"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A363" s="31"/>
+      <c r="A363" s="31" t="str">
+        <f>A123</f>
+        <v>UCT_AST9AH_B07</v>
+      </c>
       <c r="B363" s="68"/>
       <c r="C363" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D363" s="100"/>
       <c r="E363" s="140"/>
@@ -11000,7 +11033,7 @@
       <c r="A364" s="31"/>
       <c r="B364" s="68"/>
       <c r="C364" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D364" s="100"/>
       <c r="E364" s="140"/>
@@ -11011,7 +11044,7 @@
       <c r="A365" s="31"/>
       <c r="B365" s="68"/>
       <c r="C365" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D365" s="100"/>
       <c r="E365" s="140"/>
@@ -11022,7 +11055,7 @@
       <c r="A366" s="31"/>
       <c r="B366" s="68"/>
       <c r="C366" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D366" s="100"/>
       <c r="E366" s="140"/>
@@ -11033,7 +11066,7 @@
       <c r="A367" s="31"/>
       <c r="B367" s="68"/>
       <c r="C367" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D367" s="100"/>
       <c r="E367" s="140"/>
@@ -11041,13 +11074,10 @@
       <c r="G367" s="15"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A368" s="31" t="str">
-        <f>A123</f>
-        <v>UCT_AST9AH_B08</v>
-      </c>
+      <c r="A368" s="31"/>
       <c r="B368" s="68"/>
       <c r="C368" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D368" s="100"/>
       <c r="E368" s="140"/>
@@ -11055,10 +11085,13 @@
       <c r="G368" s="15"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A369" s="31"/>
+      <c r="A369" s="31" t="str">
+        <f>A124</f>
+        <v>UCT_AST9AH_B08</v>
+      </c>
       <c r="B369" s="68"/>
       <c r="C369" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D369" s="100"/>
       <c r="E369" s="140"/>
@@ -11069,7 +11102,7 @@
       <c r="A370" s="31"/>
       <c r="B370" s="68"/>
       <c r="C370" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D370" s="100"/>
       <c r="E370" s="140"/>
@@ -11080,7 +11113,7 @@
       <c r="A371" s="31"/>
       <c r="B371" s="68"/>
       <c r="C371" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D371" s="100"/>
       <c r="E371" s="140"/>
@@ -11091,7 +11124,7 @@
       <c r="A372" s="31"/>
       <c r="B372" s="68"/>
       <c r="C372" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D372" s="100"/>
       <c r="E372" s="140"/>
@@ -11102,7 +11135,7 @@
       <c r="A373" s="31"/>
       <c r="B373" s="68"/>
       <c r="C373" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D373" s="100"/>
       <c r="E373" s="140"/>
@@ -11110,13 +11143,10 @@
       <c r="G373" s="15"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A374" s="31" t="str">
-        <f>A124</f>
-        <v>UCT_AST9AH_B09</v>
-      </c>
+      <c r="A374" s="31"/>
       <c r="B374" s="68"/>
       <c r="C374" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D374" s="100"/>
       <c r="E374" s="140"/>
@@ -11124,10 +11154,13 @@
       <c r="G374" s="15"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A375" s="31"/>
+      <c r="A375" s="31" t="str">
+        <f>A125</f>
+        <v>UCT_AST9AH_B09</v>
+      </c>
       <c r="B375" s="68"/>
       <c r="C375" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D375" s="100"/>
       <c r="E375" s="140"/>
@@ -11138,7 +11171,7 @@
       <c r="A376" s="31"/>
       <c r="B376" s="68"/>
       <c r="C376" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D376" s="100"/>
       <c r="E376" s="140"/>
@@ -11149,7 +11182,7 @@
       <c r="A377" s="31"/>
       <c r="B377" s="68"/>
       <c r="C377" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D377" s="100"/>
       <c r="E377" s="140"/>
@@ -11160,7 +11193,7 @@
       <c r="A378" s="31"/>
       <c r="B378" s="68"/>
       <c r="C378" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D378" s="100"/>
       <c r="E378" s="140"/>
@@ -11171,7 +11204,7 @@
       <c r="A379" s="31"/>
       <c r="B379" s="68"/>
       <c r="C379" s="83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D379" s="100"/>
       <c r="E379" s="140"/>
@@ -11179,13 +11212,10 @@
       <c r="G379" s="15"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A380" s="31" t="str">
-        <f>A125</f>
-        <v>UCT_AST9AH_B10</v>
-      </c>
+      <c r="A380" s="31"/>
       <c r="B380" s="68"/>
       <c r="C380" s="83" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D380" s="100"/>
       <c r="E380" s="140"/>
@@ -11193,10 +11223,13 @@
       <c r="G380" s="15"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A381" s="31"/>
+      <c r="A381" s="31" t="str">
+        <f>A126</f>
+        <v>UCT_AST9AH_B10</v>
+      </c>
       <c r="B381" s="68"/>
       <c r="C381" s="83" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D381" s="100"/>
       <c r="E381" s="140"/>
@@ -11207,7 +11240,7 @@
       <c r="A382" s="31"/>
       <c r="B382" s="68"/>
       <c r="C382" s="83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D382" s="100"/>
       <c r="E382" s="140"/>
@@ -11218,7 +11251,7 @@
       <c r="A383" s="31"/>
       <c r="B383" s="68"/>
       <c r="C383" s="83" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D383" s="100"/>
       <c r="E383" s="140"/>
@@ -11229,31 +11262,42 @@
       <c r="A384" s="31"/>
       <c r="B384" s="68"/>
       <c r="C384" s="83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D384" s="100"/>
       <c r="E384" s="140"/>
       <c r="F384" s="120"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="33"/>
-      <c r="B385" s="71"/>
-      <c r="C385" s="85" t="s">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A385" s="31"/>
+      <c r="B385" s="68"/>
+      <c r="C385" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D385" s="100"/>
+      <c r="E385" s="140"/>
+      <c r="F385" s="120"/>
+      <c r="G385" s="15"/>
+    </row>
+    <row r="386" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="33"/>
+      <c r="B386" s="71"/>
+      <c r="C386" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D385" s="103"/>
-      <c r="E385" s="141"/>
-      <c r="F385" s="142"/>
-      <c r="G385" s="19"/>
+      <c r="D386" s="103"/>
+      <c r="E386" s="141"/>
+      <c r="F386" s="142"/>
+      <c r="G386" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I264:O264"/>
-    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="I265:O265"/>
+    <mergeCell ref="E265:F265"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="B31:B32">
+  <conditionalFormatting sqref="B32:B33">
     <cfRule type="cellIs" dxfId="6" priority="20" operator="greaterThan">
       <formula>NOW()</formula>
     </cfRule>
@@ -11261,12 +11305,12 @@
       <formula>NOW()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61">
+  <conditionalFormatting sqref="C62">
     <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
-      <formula>$D$61="Yes"</formula>
+      <formula>$D$62="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C61:C62">
+  <conditionalFormatting sqref="C62:C63">
     <cfRule type="cellIs" dxfId="3" priority="18" operator="greaterThan">
       <formula>NOW()</formula>
     </cfRule>
@@ -11274,7 +11318,7 @@
       <formula>NOW()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C64:C65">
+  <conditionalFormatting sqref="C65:C66">
     <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
       <formula>NOW()</formula>
     </cfRule>
@@ -11283,7 +11327,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{BF63D43C-AA45-C44C-924F-4BD0F60D6CEB}"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{BF63D43C-AA45-C44C-924F-4BD0F60D6CEB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11293,7 +11337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598D2069-00D6-B049-BA5E-D047819A7E56}">
   <dimension ref="A4:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -11317,79 +11361,79 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <f>Data!A79</f>
+        <f>Data!A80</f>
         <v>UCT_AST9AH_B01</v>
       </c>
-      <c r="B5" s="157">
-        <f>Data!E79</f>
+      <c r="B5" s="154">
+        <f>Data!E80</f>
         <v>1</v>
       </c>
-      <c r="C5" s="158">
+      <c r="C5" s="155">
         <v>12.78</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <f>Data!A80</f>
+        <f>Data!A81</f>
         <v>UCT_AST9AH_B02</v>
       </c>
-      <c r="B6" s="157">
-        <f>Data!E80</f>
+      <c r="B6" s="154">
+        <f>Data!E81</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="C6" s="158">
+      <c r="C6" s="155">
         <v>12.88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <f>Data!A81</f>
+        <f>Data!A82</f>
         <v>UCT_AST9AH_B03</v>
       </c>
-      <c r="B7" s="157">
-        <f>Data!E81</f>
+      <c r="B7" s="154">
+        <f>Data!E82</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="C7" s="158">
+      <c r="C7" s="155">
         <v>12.61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <f>Data!A82</f>
+        <f>Data!A83</f>
         <v>UCT_AST9AH_B04</v>
       </c>
-      <c r="B8" s="157">
-        <f>Data!E82</f>
+      <c r="B8" s="154">
+        <f>Data!E83</f>
         <v>0.8</v>
       </c>
-      <c r="C8" s="158">
+      <c r="C8" s="155">
         <v>12.46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <f>Data!A83</f>
+        <f>Data!A84</f>
         <v>UCT_AST9AH_B05</v>
       </c>
-      <c r="B9" s="157">
-        <f>Data!E83</f>
+      <c r="B9" s="154">
+        <f>Data!E84</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="C9" s="158">
+      <c r="C9" s="155">
         <v>12.32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <f>Data!A84</f>
+        <f>Data!A85</f>
         <v>UCT_AST9AH_B06</v>
       </c>
-      <c r="B10" s="157">
-        <f>Data!E84</f>
+      <c r="B10" s="154">
+        <f>Data!E85</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C10" s="158">
+      <c r="C10" s="155">
         <v>12.21</v>
       </c>
       <c r="D10" t="s">
@@ -11398,53 +11442,53 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <f>Data!A85</f>
+        <f>Data!A86</f>
         <v>UCT_AST9AH_B07</v>
       </c>
-      <c r="B11" s="157">
-        <f>Data!E85</f>
+      <c r="B11" s="154">
+        <f>Data!E86</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="C11" s="158">
+      <c r="C11" s="155">
         <v>12.06</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <f>Data!A86</f>
+        <f>Data!A87</f>
         <v>UCT_AST9AH_B08</v>
       </c>
-      <c r="B12" s="157">
-        <f>Data!E86</f>
+      <c r="B12" s="154">
+        <f>Data!E87</f>
         <v>0.53333333333333333</v>
       </c>
-      <c r="C12" s="158">
+      <c r="C12" s="155">
         <v>12.04</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <f>Data!A87</f>
+        <f>Data!A88</f>
         <v>UCT_AST9AH_B09</v>
       </c>
-      <c r="B13" s="157">
-        <f>Data!E87</f>
+      <c r="B13" s="154">
+        <f>Data!E88</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="C13" s="158">
+      <c r="C13" s="155">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <f>Data!A88</f>
+        <f>Data!A89</f>
         <v>UCT_AST9AH_B10</v>
       </c>
-      <c r="B14" s="157">
-        <f>Data!E88</f>
+      <c r="B14" s="154">
+        <f>Data!E89</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="C14" s="158">
+      <c r="C14" s="155">
         <v>12.01</v>
       </c>
     </row>
@@ -11455,18 +11499,18 @@
       <c r="B16">
         <v>-19.399999999999999</v>
       </c>
-      <c r="C16" s="159">
+      <c r="C16" s="156">
         <v>45428.34375</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B17">
         <v>-19.3</v>
       </c>
-      <c r="C17" s="159">
+      <c r="C17" s="156">
         <v>45428.677083333336</v>
       </c>
     </row>
@@ -11478,6 +11522,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="f7122e4b-9ebe-4e7f-8fe9-d038fef3055f">
@@ -11486,15 +11539,6 @@
     <TaxCatchAll xmlns="760f229c-99bf-4186-a7de-2d3c0bf5f7b2" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11747,6 +11791,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{815E8C3B-8BC1-4212-B468-24C73CAE93AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{901EC520-2D98-477B-91AE-691A6EF8A951}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -11759,14 +11811,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="760f229c-99bf-4186-a7de-2d3c0bf5f7b2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{815E8C3B-8BC1-4212-B468-24C73CAE93AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/UCT AST9AH Measurements and Observations.xlsx
+++ b/Data/UCT AST9AH Measurements and Observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrence/GitHub/SISPS-AST9AH-EIS/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA4FB34-9954-5F45-8C33-D55113CE899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E04DD7-91B9-CE48-899A-86B3BD3551BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-59460" yWindow="-28320" windowWidth="51200" windowHeight="28320" xr2:uid="{2D714440-C168-0944-94A3-C5B7A6F22ECE}"/>
   </bookViews>
@@ -3386,8 +3386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3482702-7117-A44F-801D-5A642D2CA644}">
   <dimension ref="A1:O386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="86" workbookViewId="0">
-      <selection activeCell="L238" sqref="L238"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="86" workbookViewId="0">
+      <selection activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
